--- a/01_Planung/01_Dokumente/2015_FS_INM21_B_Aufgaben_Zeit_Projektmitglied_Zuordnung.xlsx
+++ b/01_Planung/01_Dokumente/2015_FS_INM21_B_Aufgaben_Zeit_Projektmitglied_Zuordnung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HSLU\Java_2\Praxisprojekt\02. Unterlagen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Documents\Semester 2\Github\INM21_Group_B\01_Planung\01_Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="570" windowWidth="19040" windowHeight="10160"/>
+    <workbookView xWindow="4320" yWindow="570" windowWidth="19035" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -555,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -620,13 +620,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -645,9 +646,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -685,7 +686,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -757,7 +758,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -936,81 +937,81 @@
   </sheetPr>
   <dimension ref="A1:DB87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="4" width="7.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" customWidth="1"/>
-    <col min="9" max="9" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" customWidth="1"/>
-    <col min="12" max="12" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" customWidth="1"/>
-    <col min="15" max="15" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.81640625" customWidth="1"/>
-    <col min="18" max="18" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.81640625" customWidth="1"/>
-    <col min="21" max="21" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.81640625" customWidth="1"/>
-    <col min="24" max="24" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.81640625" customWidth="1"/>
-    <col min="27" max="27" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.7265625" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="26"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
       <c r="AA1" s="26"/>
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
     </row>
-    <row r="2" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="26"/>
@@ -1043,7 +1044,7 @@
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
     </row>
-    <row r="3" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1074,7 +1075,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:35" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:35" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1169,7 +1170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1232,7 +1233,7 @@
       <c r="AE5" s="21"/>
       <c r="AF5" s="21"/>
     </row>
-    <row r="6" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1303,7 +1304,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1378,7 +1379,7 @@
       </c>
       <c r="AI7" s="10"/>
     </row>
-    <row r="8" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1452,7 +1453,7 @@
       </c>
       <c r="AI8" s="19"/>
     </row>
-    <row r="9" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -1527,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -1543,12 +1544,16 @@
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
-      <c r="H10" s="1" t="str">
+      <c r="H10" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="K10" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1587,28 +1592,28 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="24">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="32">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="AE10" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF10" s="21">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.14583333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9">
@@ -1620,12 +1625,16 @@
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
-      <c r="H11" s="1" t="str">
+      <c r="H11" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.625</v>
+      </c>
       <c r="K11" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1668,24 +1677,24 @@
       </c>
       <c r="AD11" s="32">
         <f t="shared" si="15"/>
-        <v>6.25E-2</v>
+        <v>0.6875</v>
       </c>
       <c r="AE11" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF11" s="21">
         <f t="shared" si="11"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.6875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.69565217391304346</v>
       </c>
       <c r="C12" s="9">
         <v>0.16666666666666666</v>
@@ -1699,12 +1708,16 @@
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
-      <c r="H12" s="1" t="str">
+      <c r="H12" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+        <v>0.30434782608695654</v>
+      </c>
+      <c r="I12" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J12" s="9">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="K12" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1747,18 +1760,18 @@
       </c>
       <c r="AD12" s="32">
         <f t="shared" si="15"/>
-        <v>0.33333333333333331</v>
+        <v>0.47916666666666663</v>
       </c>
       <c r="AE12" s="21">
         <f t="shared" si="10"/>
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333331</v>
       </c>
       <c r="AF12" s="21">
         <f t="shared" si="11"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.47916666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -1774,12 +1787,16 @@
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
-      <c r="H13" s="1" t="str">
+      <c r="H13" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I13" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J13" s="39">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="K13" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1818,22 +1835,22 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="24">
         <f t="shared" ref="AC13:AC14" si="16">SUM(Z13,W13,T13,Q13,N13,K13,H13,E13,B13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="32">
         <f t="shared" ref="AD13:AD14" si="17">SUM(AB13,Y13,V13,S13,P13,M13,J13,G13,D13)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AE13" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AF13" s="21">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1906,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1979,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2052,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2125,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:106" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2198,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:106" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>7</v>
       </c>
@@ -2347,7 +2364,7 @@
       <c r="DA19"/>
       <c r="DB19"/>
     </row>
-    <row r="20" spans="1:106" s="22" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:106" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>31</v>
       </c>
@@ -2498,7 +2515,7 @@
       <c r="DA20"/>
       <c r="DB20"/>
     </row>
-    <row r="21" spans="1:106" s="22" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:106" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -2647,7 +2664,7 @@
       <c r="DA21"/>
       <c r="DB21"/>
     </row>
-    <row r="22" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2720,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:106" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2793,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>8</v>
       </c>
@@ -2868,13 +2885,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9">
@@ -2886,12 +2903,14 @@
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="1" t="str">
+      <c r="H25" s="1">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
+      <c r="J25" s="9">
+        <v>6.25E-2</v>
+      </c>
       <c r="K25" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2934,7 +2953,7 @@
       </c>
       <c r="AD25" s="32">
         <f t="shared" si="22"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.10416666666666666</v>
       </c>
       <c r="AE25" s="21">
         <f t="shared" si="10"/>
@@ -2942,16 +2961,16 @@
       </c>
       <c r="AF25" s="21">
         <f t="shared" si="11"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.10416666666666666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9">
@@ -2963,12 +2982,14 @@
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
-      <c r="H26" s="1" t="str">
+      <c r="H26" s="1">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
+      <c r="J26" s="9">
+        <v>6.25E-2</v>
+      </c>
       <c r="K26" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3011,7 +3032,7 @@
       </c>
       <c r="AD26" s="32">
         <f t="shared" si="22"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.10416666666666666</v>
       </c>
       <c r="AE26" s="21">
         <f t="shared" si="10"/>
@@ -3019,16 +3040,16 @@
       </c>
       <c r="AF26" s="21">
         <f t="shared" si="11"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.10416666666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9">
@@ -3040,12 +3061,14 @@
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
-      <c r="H27" s="1" t="str">
+      <c r="H27" s="1">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
+      <c r="J27" s="9">
+        <v>6.25E-2</v>
+      </c>
       <c r="K27" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3088,7 +3111,7 @@
       </c>
       <c r="AD27" s="32">
         <f t="shared" si="22"/>
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="AE27" s="21">
         <f t="shared" si="10"/>
@@ -3096,16 +3119,16 @@
       </c>
       <c r="AF27" s="21">
         <f t="shared" si="11"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:106" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="C28" s="9">
         <v>2.0833333333333332E-2</v>
@@ -3119,12 +3142,16 @@
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
-      <c r="H28" s="1" t="str">
+      <c r="H28" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I28" s="9">
+        <v>3.4722222222222224E-2</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="K28" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3167,18 +3194,18 @@
       </c>
       <c r="AD28" s="32">
         <f t="shared" si="22"/>
-        <v>0.10416666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="AE28" s="21">
         <f t="shared" si="10"/>
-        <v>2.0833333333333332E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="AF28" s="21">
         <f t="shared" si="11"/>
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>9</v>
       </c>
@@ -3253,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>35</v>
       </c>
@@ -3328,13 +3355,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9">
@@ -3346,12 +3373,16 @@
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
-      <c r="H31" s="1" t="str">
+      <c r="H31" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="I31" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J31" s="9">
+        <v>6.25E-2</v>
+      </c>
       <c r="K31" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3394,18 +3425,18 @@
       </c>
       <c r="AD31" s="32">
         <f t="shared" si="24"/>
-        <v>0.10416666666666667</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="AE31" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF31" s="21">
         <f t="shared" si="11"/>
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="32" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.16666666666666669</v>
+      </c>
+    </row>
+    <row r="32" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>37</v>
       </c>
@@ -3484,13 +3515,13 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>38</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9">
@@ -3502,12 +3533,16 @@
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
-      <c r="H33" s="1" t="str">
+      <c r="H33" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+        <v>0.5</v>
+      </c>
+      <c r="I33" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J33" s="9">
+        <v>6.25E-2</v>
+      </c>
       <c r="K33" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3550,24 +3585,24 @@
       </c>
       <c r="AD33" s="32">
         <f t="shared" si="24"/>
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="AE33" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF33" s="21">
         <f t="shared" si="11"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9">
@@ -3579,12 +3614,16 @@
       </c>
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
-      <c r="H34" s="1" t="str">
+      <c r="H34" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="I34" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J34" s="9">
+        <v>6.25E-2</v>
+      </c>
       <c r="K34" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3627,18 +3666,18 @@
       </c>
       <c r="AD34" s="32">
         <f t="shared" si="24"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.10416666666666666</v>
       </c>
       <c r="AE34" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF34" s="21">
         <f t="shared" si="11"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.10416666666666666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>40</v>
       </c>
@@ -3717,7 +3756,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>41</v>
       </c>
@@ -3733,12 +3772,16 @@
       </c>
       <c r="F36" s="31"/>
       <c r="G36" s="31"/>
-      <c r="H36" s="1" t="str">
+      <c r="H36" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="J36" s="9">
+        <v>0.625</v>
+      </c>
       <c r="K36" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3777,28 +3820,28 @@
       <c r="AB36" s="9"/>
       <c r="AC36" s="24">
         <f t="shared" ref="AC36:AC38" si="25">SUM(Z36,W36,T36,Q36,N36,K36,H36,E36,B36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" s="32">
         <f t="shared" ref="AD36:AD38" si="26">SUM(AB36,Y36,V36,S36,P36,M36,J36,G36,D36)</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AE36" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="AF36" s="21">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>42</v>
       </c>
       <c r="B37" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.21052631578947367</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9">
@@ -3810,12 +3853,16 @@
       </c>
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
-      <c r="H37" s="1" t="str">
+      <c r="H37" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="I37" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0.15625</v>
+      </c>
       <c r="K37" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3858,18 +3905,18 @@
       </c>
       <c r="AD37" s="32">
         <f t="shared" si="26"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.19791666666666666</v>
       </c>
       <c r="AE37" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF37" s="21">
         <f t="shared" si="11"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.19791666666666666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>71</v>
       </c>
@@ -3948,7 +3995,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>43</v>
       </c>
@@ -4025,7 +4072,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="40" spans="1:32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4098,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>10</v>
       </c>
@@ -4173,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>44</v>
       </c>
@@ -4250,7 +4297,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>45</v>
       </c>
@@ -4327,7 +4374,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>46</v>
       </c>
@@ -4404,7 +4451,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4477,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4550,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4623,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4696,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4769,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>11</v>
       </c>
@@ -4844,8 +4891,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="36" t="s">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="1" t="str">
@@ -4919,8 +4966,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="36" t="s">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
         <v>48</v>
       </c>
       <c r="B52" s="1" t="str">
@@ -4994,8 +5041,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="36" t="s">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="1" t="str">
@@ -5069,8 +5116,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="36" t="s">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A54" s="34" t="s">
         <v>50</v>
       </c>
       <c r="B54" s="1" t="str">
@@ -5144,8 +5191,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="36" t="s">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A55" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="1" t="str">
@@ -5219,34 +5266,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="36" t="s">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A56" s="34" t="s">
         <v>52</v>
       </c>
       <c r="B56" s="8"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="8"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="38"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="36"/>
       <c r="N56" s="8"/>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="38"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="36"/>
+      <c r="S56" s="36"/>
       <c r="T56" s="8"/>
       <c r="U56" s="9"/>
       <c r="V56" s="9"/>
-      <c r="W56" s="37"/>
-      <c r="X56" s="38"/>
-      <c r="Y56" s="38"/>
+      <c r="W56" s="35"/>
+      <c r="X56" s="36"/>
+      <c r="Y56" s="36"/>
       <c r="Z56" s="8"/>
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
@@ -5255,34 +5302,34 @@
       <c r="AE56" s="21"/>
       <c r="AF56" s="21"/>
     </row>
-    <row r="57" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="36" t="s">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A57" s="34" t="s">
         <v>53</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
       <c r="H57" s="8"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="38"/>
-      <c r="M57" s="38"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
       <c r="N57" s="8"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="38"/>
-      <c r="S57" s="38"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
       <c r="T57" s="8"/>
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
-      <c r="W57" s="37"/>
-      <c r="X57" s="38"/>
-      <c r="Y57" s="38"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="36"/>
       <c r="Z57" s="8"/>
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
@@ -5291,8 +5338,8 @@
       <c r="AE57" s="21"/>
       <c r="AF57" s="21"/>
     </row>
-    <row r="58" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="36" t="s">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A58" s="34" t="s">
         <v>54</v>
       </c>
       <c r="B58" s="8"/>
@@ -5300,27 +5347,27 @@
       <c r="D58" s="9">
         <v>6.25E-2</v>
       </c>
-      <c r="E58" s="37"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="36"/>
+      <c r="G58" s="36"/>
       <c r="H58" s="8"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="38"/>
-      <c r="M58" s="38"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="36"/>
+      <c r="M58" s="36"/>
       <c r="N58" s="8"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="38"/>
-      <c r="S58" s="38"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="36"/>
+      <c r="S58" s="36"/>
       <c r="T58" s="8"/>
       <c r="U58" s="9"/>
       <c r="V58" s="9"/>
-      <c r="W58" s="37"/>
-      <c r="X58" s="38"/>
-      <c r="Y58" s="38"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="36"/>
+      <c r="Y58" s="36"/>
       <c r="Z58" s="8"/>
       <c r="AA58" s="9"/>
       <c r="AB58" s="9"/>
@@ -5329,34 +5376,39 @@
       <c r="AE58" s="21"/>
       <c r="AF58" s="21"/>
     </row>
-    <row r="59" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="36" t="s">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A59" s="34" t="s">
         <v>55</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="8"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="H59" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="38"/>
-      <c r="M59" s="38"/>
+      <c r="J59" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K59" s="35"/>
+      <c r="L59" s="36"/>
+      <c r="M59" s="36"/>
       <c r="N59" s="8"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="38"/>
-      <c r="S59" s="38"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="36"/>
+      <c r="S59" s="36"/>
       <c r="T59" s="8"/>
       <c r="U59" s="9"/>
       <c r="V59" s="9"/>
-      <c r="W59" s="37"/>
-      <c r="X59" s="38"/>
-      <c r="Y59" s="38"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="36"/>
+      <c r="Y59" s="36"/>
       <c r="Z59" s="8"/>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
@@ -5365,34 +5417,34 @@
       <c r="AE59" s="21"/>
       <c r="AF59" s="21"/>
     </row>
-    <row r="60" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="36" t="s">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A60" s="34" t="s">
         <v>56</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
       <c r="H60" s="8"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="36"/>
       <c r="N60" s="8"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="38"/>
-      <c r="S60" s="38"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="36"/>
+      <c r="S60" s="36"/>
       <c r="T60" s="8"/>
       <c r="U60" s="9"/>
       <c r="V60" s="9"/>
-      <c r="W60" s="37"/>
-      <c r="X60" s="38"/>
-      <c r="Y60" s="38"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="36"/>
+      <c r="Y60" s="36"/>
       <c r="Z60" s="8"/>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
@@ -5401,34 +5453,34 @@
       <c r="AE60" s="21"/>
       <c r="AF60" s="21"/>
     </row>
-    <row r="61" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="36" t="s">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A61" s="34" t="s">
         <v>57</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
       <c r="H61" s="8"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="38"/>
-      <c r="M61" s="38"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
       <c r="N61" s="8"/>
       <c r="O61" s="9"/>
       <c r="P61" s="9"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="38"/>
-      <c r="S61" s="38"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
       <c r="T61" s="8"/>
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
-      <c r="W61" s="37"/>
-      <c r="X61" s="38"/>
-      <c r="Y61" s="38"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="36"/>
       <c r="Z61" s="8"/>
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
@@ -5437,8 +5489,8 @@
       <c r="AE61" s="21"/>
       <c r="AF61" s="21"/>
     </row>
-    <row r="62" spans="1:32" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="36" t="s">
+    <row r="62" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="34" t="s">
         <v>58</v>
       </c>
       <c r="B62" s="1" t="str">
@@ -5512,8 +5564,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="36" t="s">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A63" s="34" t="s">
         <v>59</v>
       </c>
       <c r="B63" s="1" t="str">
@@ -5587,8 +5639,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="36" t="s">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A64" s="34" t="s">
         <v>60</v>
       </c>
       <c r="B64" s="1" t="str">
@@ -5662,8 +5714,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="36" t="s">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A65" s="34" t="s">
         <v>61</v>
       </c>
       <c r="B65" s="1">
@@ -5741,8 +5793,8 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="36" t="s">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A66" s="34" t="s">
         <v>62</v>
       </c>
       <c r="B66" s="1">
@@ -5818,8 +5870,8 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="36" t="s">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A67" s="34" t="s">
         <v>63</v>
       </c>
       <c r="B67" s="1" t="str">
@@ -5834,12 +5886,14 @@
       </c>
       <c r="F67" s="31"/>
       <c r="G67" s="31"/>
-      <c r="H67" s="1" t="str">
+      <c r="H67" s="1">
         <f t="shared" si="2"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
+      <c r="J67" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="K67" s="5" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5878,11 +5932,11 @@
       <c r="AB67" s="9"/>
       <c r="AC67" s="24">
         <f t="shared" ref="AC67:AC69" si="38">SUM(Z67,W67,T67,Q67,N67,K67,H67,E67,B67)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD67" s="32">
         <f t="shared" ref="AD67:AD69" si="39">SUM(AB67,Y67,V67,S67,P67,M67,J67,G67,D67)</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AE67" s="21">
         <f t="shared" si="10"/>
@@ -5890,11 +5944,11 @@
       </c>
       <c r="AF67" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="36" t="s">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A68" s="34" t="s">
         <v>64</v>
       </c>
       <c r="B68" s="1" t="str">
@@ -5968,8 +6022,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="36" t="s">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A69" s="34" t="s">
         <v>65</v>
       </c>
       <c r="B69" s="1" t="str">
@@ -6043,8 +6097,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="36" t="s">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A70" s="34" t="s">
         <v>66</v>
       </c>
       <c r="B70" s="1">
@@ -6120,8 +6174,8 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="36" t="s">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A71" s="34" t="s">
         <v>67</v>
       </c>
       <c r="B71" s="1" t="str">
@@ -6195,7 +6249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6268,7 +6322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="B73" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6341,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="B74" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6414,7 +6468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6487,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>68</v>
       </c>
@@ -6562,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
       <c r="B77" s="1" t="str">
         <f t="shared" ref="B77:B85" si="44">IF(D77="", "",D77/AD77)</f>
@@ -6635,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="1" t="str">
         <f t="shared" si="44"/>
@@ -6708,7 +6762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="1" t="str">
         <f t="shared" si="44"/>
@@ -6781,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="1" t="str">
         <f t="shared" si="44"/>
@@ -6854,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="1" t="str">
         <f t="shared" si="44"/>
@@ -6927,7 +6981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
       <c r="B82" s="1" t="str">
         <f t="shared" si="44"/>
@@ -7000,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="1" t="str">
         <f t="shared" si="44"/>
@@ -7073,7 +7127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
       <c r="B84" s="1" t="str">
         <f t="shared" si="44"/>
@@ -7146,7 +7200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
       <c r="B85" s="1" t="str">
         <f t="shared" si="44"/>
@@ -7219,7 +7273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="16"/>
       <c r="C86" s="16">
         <f>SUM(C5:C85)</f>
@@ -7241,11 +7295,11 @@
       <c r="H86" s="16"/>
       <c r="I86" s="16">
         <f>SUM(I5:I85)</f>
-        <v>0</v>
+        <v>0.76388888888888895</v>
       </c>
       <c r="J86" s="16">
         <f>SUM(J5:J85)</f>
-        <v>0</v>
+        <v>2.3854166666666661</v>
       </c>
       <c r="K86" s="16"/>
       <c r="L86" s="16">
@@ -7305,14 +7359,14 @@
       <c r="AD86" s="16"/>
       <c r="AE86" s="18">
         <f>SUM(AE5:AE85)</f>
-        <v>0.58333333333333337</v>
+        <v>1.3472222222222223</v>
       </c>
       <c r="AF86" s="18">
         <f>SUM(AF5:AF85)</f>
-        <v>2.6249999999999996</v>
-      </c>
-    </row>
-    <row r="87" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4.9687500000000009</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AF87" s="16"/>
     </row>
   </sheetData>

--- a/01_Planung/01_Dokumente/2015_FS_INM21_B_Aufgaben_Zeit_Projektmitglied_Zuordnung.xlsx
+++ b/01_Planung/01_Dokumente/2015_FS_INM21_B_Aufgaben_Zeit_Projektmitglied_Zuordnung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Documents\Semester 2\Github\INM21_Group_B\01_Planung\01_Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HSLU\Java_2\INM21_Group_B\01_Planung\01_Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="570" windowWidth="19035" windowHeight="10155"/>
+    <workbookView xWindow="4320" yWindow="570" windowWidth="19040" windowHeight="10160"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -625,9 +625,9 @@
     </xf>
     <xf numFmtId="9" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -646,9 +646,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -686,7 +686,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -758,7 +758,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -937,81 +937,81 @@
   </sheetPr>
   <dimension ref="A1:DB87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.85546875" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.85546875" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.7109375" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="4" width="7.54296875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="6.1796875" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" customWidth="1"/>
+    <col min="9" max="9" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.81640625" customWidth="1"/>
+    <col min="12" max="12" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" customWidth="1"/>
+    <col min="15" max="15" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.81640625" customWidth="1"/>
+    <col min="18" max="18" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.81640625" customWidth="1"/>
+    <col min="21" max="21" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.81640625" customWidth="1"/>
+    <col min="24" max="24" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.81640625" customWidth="1"/>
+    <col min="27" max="27" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.7265625" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="26"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
       <c r="AA1" s="26"/>
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="26"/>
@@ -1044,7 +1044,7 @@
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
     </row>
-    <row r="3" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1075,7 +1075,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:35" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1233,7 @@
       <c r="AE5" s="21"/>
       <c r="AF5" s="21"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="AI7" s="10"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="AI8" s="19"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>0.47916666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -1794,7 +1794,7 @@
       <c r="I13" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="37">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="K13" s="5" t="str">
@@ -1850,7 +1850,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="14"/>
       <c r="B16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="14"/>
       <c r="B17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:106" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14"/>
       <c r="B18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>7</v>
       </c>
@@ -2364,7 +2364,7 @@
       <c r="DA19"/>
       <c r="DB19"/>
     </row>
-    <row r="20" spans="1:106" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:106" s="22" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>31</v>
       </c>
@@ -2515,7 +2515,7 @@
       <c r="DA20"/>
       <c r="DB20"/>
     </row>
-    <row r="21" spans="1:106" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:106" s="22" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -2664,7 +2664,7 @@
       <c r="DA21"/>
       <c r="DB21"/>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="14"/>
       <c r="B22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2737,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:106" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="14"/>
       <c r="B23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2810,7 +2810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="11" t="s">
         <v>8</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>33</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>0.10416666666666666</v>
       </c>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>34</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>0.10416666666666666</v>
       </c>
     </row>
-    <row r="27" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>69</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="28" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:106" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="14" t="s">
         <v>70</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>9</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>35</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>36</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>0.16666666666666669</v>
       </c>
     </row>
-    <row r="32" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>37</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>38</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>39</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>0.10416666666666666</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
         <v>40</v>
       </c>
@@ -3756,7 +3756,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
         <v>41</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>42</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
         <v>71</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
         <v>43</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="14"/>
       <c r="B40" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>10</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
         <v>44</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="14" t="s">
         <v>45</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
         <v>46</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A45" s="14"/>
       <c r="B45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4524,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A46" s="14"/>
       <c r="B46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A47" s="14"/>
       <c r="B47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A48" s="14"/>
       <c r="B48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="14"/>
       <c r="B49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>11</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A51" s="34" t="s">
         <v>47</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A52" s="34" t="s">
         <v>48</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A53" s="34" t="s">
         <v>49</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A54" s="34" t="s">
         <v>50</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A55" s="34" t="s">
         <v>51</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A56" s="34" t="s">
         <v>52</v>
       </c>
@@ -5297,12 +5297,24 @@
       <c r="Z56" s="8"/>
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
-      <c r="AC56" s="24"/>
-      <c r="AD56" s="32"/>
-      <c r="AE56" s="21"/>
-      <c r="AF56" s="21"/>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AC56" s="24">
+        <f t="shared" ref="AC56:AC61" si="36">SUM(Z56,W56,T56,Q56,N56,K56,H56,E56,B56)</f>
+        <v>0</v>
+      </c>
+      <c r="AD56" s="32">
+        <f t="shared" ref="AD56:AD61" si="37">SUM(AB56,Y56,V56,S56,P56,M56,J56,G56,D56)</f>
+        <v>0</v>
+      </c>
+      <c r="AE56" s="21">
+        <f t="shared" ref="AE56:AE61" si="38">SUM(C56,F56,I56,L56,O56,R56,U56,X56,AA56)</f>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="21">
+        <f t="shared" ref="AF56:AF61" si="39">SUM(D56,G56,J56,M56,P56,S56,V56,Y56,AB56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A57" s="34" t="s">
         <v>53</v>
       </c>
@@ -5333,12 +5345,24 @@
       <c r="Z57" s="8"/>
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
-      <c r="AC57" s="24"/>
-      <c r="AD57" s="32"/>
-      <c r="AE57" s="21"/>
-      <c r="AF57" s="21"/>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AC57" s="24">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AD57" s="32">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AE57" s="21">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="21">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A58" s="34" t="s">
         <v>54</v>
       </c>
@@ -5371,12 +5395,24 @@
       <c r="Z58" s="8"/>
       <c r="AA58" s="9"/>
       <c r="AB58" s="9"/>
-      <c r="AC58" s="24"/>
-      <c r="AD58" s="32"/>
-      <c r="AE58" s="21"/>
-      <c r="AF58" s="21"/>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AC58" s="24">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AD58" s="32">
+        <f t="shared" si="37"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AE58" s="21">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AF58" s="21">
+        <f t="shared" si="39"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A59" s="34" t="s">
         <v>55</v>
       </c>
@@ -5386,9 +5422,9 @@
       <c r="E59" s="35"/>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
-      <c r="H59" s="1" t="e">
+      <c r="H59" s="1">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9">
@@ -5412,12 +5448,24 @@
       <c r="Z59" s="8"/>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
-      <c r="AC59" s="24"/>
-      <c r="AD59" s="32"/>
-      <c r="AE59" s="21"/>
-      <c r="AF59" s="21"/>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AC59" s="24">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="AD59" s="32">
+        <f t="shared" si="37"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AE59" s="21">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AF59" s="21">
+        <f t="shared" si="39"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A60" s="34" t="s">
         <v>56</v>
       </c>
@@ -5448,12 +5496,24 @@
       <c r="Z60" s="8"/>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
-      <c r="AC60" s="24"/>
-      <c r="AD60" s="32"/>
-      <c r="AE60" s="21"/>
-      <c r="AF60" s="21"/>
-    </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AC60" s="24">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AD60" s="32">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AE60" s="21">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AF60" s="21">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A61" s="34" t="s">
         <v>57</v>
       </c>
@@ -5484,12 +5544,24 @@
       <c r="Z61" s="8"/>
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
-      <c r="AC61" s="24"/>
-      <c r="AD61" s="32"/>
-      <c r="AE61" s="21"/>
-      <c r="AF61" s="21"/>
-    </row>
-    <row r="62" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC61" s="24">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AD61" s="32">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="AE61" s="21">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AF61" s="21">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="34" t="s">
         <v>58</v>
       </c>
@@ -5564,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A63" s="34" t="s">
         <v>59</v>
       </c>
@@ -5623,11 +5695,11 @@
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
       <c r="AC63" s="24">
-        <f t="shared" ref="AC63:AC66" si="36">SUM(Z63,W63,T63,Q63,N63,K63,H63,E63,B63)</f>
+        <f t="shared" ref="AC63:AC66" si="40">SUM(Z63,W63,T63,Q63,N63,K63,H63,E63,B63)</f>
         <v>0</v>
       </c>
       <c r="AD63" s="32">
-        <f t="shared" ref="AD63:AD66" si="37">SUM(AB63,Y63,V63,S63,P63,M63,J63,G63,D63)</f>
+        <f t="shared" ref="AD63:AD66" si="41">SUM(AB63,Y63,V63,S63,P63,M63,J63,G63,D63)</f>
         <v>0</v>
       </c>
       <c r="AE63" s="21">
@@ -5639,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A64" s="34" t="s">
         <v>60</v>
       </c>
@@ -5698,11 +5770,11 @@
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
       <c r="AC64" s="24">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AD64" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AE64" s="21">
@@ -5714,7 +5786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A65" s="34" t="s">
         <v>61</v>
       </c>
@@ -5777,11 +5849,11 @@
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
       <c r="AC65" s="24">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="AD65" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0.10416666666666667</v>
       </c>
       <c r="AE65" s="21">
@@ -5793,7 +5865,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A66" s="34" t="s">
         <v>62</v>
       </c>
@@ -5854,11 +5926,11 @@
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
       <c r="AC66" s="24">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>1</v>
       </c>
       <c r="AD66" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="AE66" s="21">
@@ -5870,7 +5942,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A67" s="34" t="s">
         <v>63</v>
       </c>
@@ -5931,11 +6003,11 @@
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
       <c r="AC67" s="24">
-        <f t="shared" ref="AC67:AC69" si="38">SUM(Z67,W67,T67,Q67,N67,K67,H67,E67,B67)</f>
+        <f t="shared" ref="AC67:AC69" si="42">SUM(Z67,W67,T67,Q67,N67,K67,H67,E67,B67)</f>
         <v>1</v>
       </c>
       <c r="AD67" s="32">
-        <f t="shared" ref="AD67:AD69" si="39">SUM(AB67,Y67,V67,S67,P67,M67,J67,G67,D67)</f>
+        <f t="shared" ref="AD67:AD69" si="43">SUM(AB67,Y67,V67,S67,P67,M67,J67,G67,D67)</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="AE67" s="21">
@@ -5947,7 +6019,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A68" s="34" t="s">
         <v>64</v>
       </c>
@@ -6006,11 +6078,11 @@
       <c r="AA68" s="9"/>
       <c r="AB68" s="9"/>
       <c r="AC68" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AD68" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AE68" s="21">
@@ -6022,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A69" s="34" t="s">
         <v>65</v>
       </c>
@@ -6081,11 +6153,11 @@
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
       <c r="AC69" s="24">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AD69" s="32">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AE69" s="21">
@@ -6097,7 +6169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A70" s="34" t="s">
         <v>66</v>
       </c>
@@ -6158,11 +6230,11 @@
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
       <c r="AC70" s="24">
-        <f t="shared" ref="AC70:AC73" si="40">SUM(Z70,W70,T70,Q70,N70,K70,H70,E70,B70)</f>
+        <f t="shared" ref="AC70:AC73" si="44">SUM(Z70,W70,T70,Q70,N70,K70,H70,E70,B70)</f>
         <v>1</v>
       </c>
       <c r="AD70" s="32">
-        <f t="shared" ref="AD70:AD73" si="41">SUM(AB70,Y70,V70,S70,P70,M70,J70,G70,D70)</f>
+        <f t="shared" ref="AD70:AD73" si="45">SUM(AB70,Y70,V70,S70,P70,M70,J70,G70,D70)</f>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="AE70" s="21">
@@ -6174,7 +6246,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A71" s="34" t="s">
         <v>67</v>
       </c>
@@ -6233,11 +6305,11 @@
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
       <c r="AC71" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AD71" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AE71" s="21">
@@ -6249,7 +6321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A72" s="14"/>
       <c r="B72" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6306,11 +6378,11 @@
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
       <c r="AC72" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AD72" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AE72" s="21">
@@ -6322,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A73" s="14"/>
       <c r="B73" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6379,11 +6451,11 @@
       <c r="AA73" s="9"/>
       <c r="AB73" s="9"/>
       <c r="AC73" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AD73" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AE73" s="21">
@@ -6395,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A74" s="14"/>
       <c r="B74" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6452,11 +6524,11 @@
       <c r="AA74" s="9"/>
       <c r="AB74" s="9"/>
       <c r="AC74" s="24">
-        <f t="shared" ref="AC74:AC75" si="42">SUM(Z74,W74,T74,Q74,N74,K74,H74,E74,B74)</f>
+        <f t="shared" ref="AC74:AC75" si="46">SUM(Z74,W74,T74,Q74,N74,K74,H74,E74,B74)</f>
         <v>0</v>
       </c>
       <c r="AD74" s="32">
-        <f t="shared" ref="AD74:AD75" si="43">SUM(AB74,Y74,V74,S74,P74,M74,J74,G74,D74)</f>
+        <f t="shared" ref="AD74:AD75" si="47">SUM(AB74,Y74,V74,S74,P74,M74,J74,G74,D74)</f>
         <v>0</v>
       </c>
       <c r="AE74" s="21">
@@ -6468,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="14"/>
       <c r="B75" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6525,11 +6597,11 @@
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
       <c r="AC75" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AD75" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AE75" s="21">
@@ -6541,7 +6613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
         <v>68</v>
       </c>
@@ -6616,58 +6688,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A77" s="14"/>
       <c r="B77" s="1" t="str">
-        <f t="shared" ref="B77:B85" si="44">IF(D77="", "",D77/AD77)</f>
+        <f t="shared" ref="B77:B85" si="48">IF(D77="", "",D77/AD77)</f>
         <v/>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="5" t="str">
-        <f t="shared" ref="E77:E85" si="45">IF(G77="", "",G77/AD77)</f>
+        <f t="shared" ref="E77:E85" si="49">IF(G77="", "",G77/AD77)</f>
         <v/>
       </c>
       <c r="F77" s="31"/>
       <c r="G77" s="31"/>
       <c r="H77" s="1" t="str">
-        <f t="shared" ref="H77:H85" si="46">IF(J77="", "",J77/AD77)</f>
+        <f t="shared" ref="H77:H85" si="50">IF(J77="", "",J77/AD77)</f>
         <v/>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="5" t="str">
-        <f t="shared" ref="K77:K85" si="47">IF(M77="", "",M77/AD77)</f>
+        <f t="shared" ref="K77:K85" si="51">IF(M77="", "",M77/AD77)</f>
         <v/>
       </c>
       <c r="L77" s="31"/>
       <c r="M77" s="31"/>
       <c r="N77" s="1" t="str">
-        <f t="shared" ref="N77:N85" si="48">IF(P77="", "",P77/AD77)</f>
+        <f t="shared" ref="N77:N85" si="52">IF(P77="", "",P77/AD77)</f>
         <v/>
       </c>
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
       <c r="Q77" s="5" t="str">
-        <f t="shared" ref="Q77:Q85" si="49">IF(S77="", "",S77/AD77)</f>
+        <f t="shared" ref="Q77:Q85" si="53">IF(S77="", "",S77/AD77)</f>
         <v/>
       </c>
       <c r="R77" s="31"/>
       <c r="S77" s="31"/>
       <c r="T77" s="1" t="str">
-        <f t="shared" ref="T77:T85" si="50">IF(V77="", "",V77/AD77)</f>
+        <f t="shared" ref="T77:T85" si="54">IF(V77="", "",V77/AD77)</f>
         <v/>
       </c>
       <c r="U77" s="9"/>
       <c r="V77" s="9"/>
       <c r="W77" s="5" t="str">
-        <f t="shared" ref="W77:W85" si="51">IF(Y77="", "",Y77/AD77)</f>
+        <f t="shared" ref="W77:W85" si="55">IF(Y77="", "",Y77/AD77)</f>
         <v/>
       </c>
       <c r="X77" s="31"/>
       <c r="Y77" s="31"/>
       <c r="Z77" s="8" t="str">
-        <f t="shared" ref="Z77:Z85" si="52">IF(AB77="", "",AB77/AD77)</f>
+        <f t="shared" ref="Z77:Z85" si="56">IF(AB77="", "",AB77/AD77)</f>
         <v/>
       </c>
       <c r="AA77" s="9"/>
@@ -6681,66 +6753,66 @@
         <v>0</v>
       </c>
       <c r="AE77" s="21">
-        <f t="shared" ref="AE77:AE85" si="53">SUM(C77,F77,I77,L77,O77,R77,U77,X77,AA77)</f>
+        <f t="shared" ref="AE77:AE85" si="57">SUM(C77,F77,I77,L77,O77,R77,U77,X77,AA77)</f>
         <v>0</v>
       </c>
       <c r="AF77" s="21">
-        <f t="shared" ref="AF77:AF85" si="54">SUM(D77,G77,J77,M77,P77,S77,V77,Y77,AB77)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" ref="AF77:AF85" si="58">SUM(D77,G77,J77,M77,P77,S77,V77,Y77,AB77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A78" s="14"/>
       <c r="B78" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="5" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="F78" s="31"/>
       <c r="G78" s="31"/>
       <c r="H78" s="1" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="5" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="L78" s="31"/>
       <c r="M78" s="31"/>
       <c r="N78" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
       <c r="Q78" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="R78" s="31"/>
       <c r="S78" s="31"/>
       <c r="T78" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U78" s="9"/>
       <c r="V78" s="9"/>
       <c r="W78" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="X78" s="31"/>
       <c r="Y78" s="31"/>
       <c r="Z78" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AA78" s="9"/>
@@ -6754,66 +6826,66 @@
         <v>0</v>
       </c>
       <c r="AE78" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AF78" s="21">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A79" s="14"/>
       <c r="B79" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="5" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="F79" s="31"/>
       <c r="G79" s="31"/>
       <c r="H79" s="1" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="5" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="L79" s="31"/>
       <c r="M79" s="31"/>
       <c r="N79" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
       <c r="Q79" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="R79" s="31"/>
       <c r="S79" s="31"/>
       <c r="T79" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U79" s="9"/>
       <c r="V79" s="9"/>
       <c r="W79" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="X79" s="31"/>
       <c r="Y79" s="31"/>
       <c r="Z79" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AA79" s="9"/>
@@ -6827,66 +6899,66 @@
         <v>0</v>
       </c>
       <c r="AE79" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AF79" s="21">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A80" s="15"/>
       <c r="B80" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="5" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="31"/>
       <c r="H80" s="1" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="5" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="L80" s="31"/>
       <c r="M80" s="31"/>
       <c r="N80" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
       <c r="Q80" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="R80" s="31"/>
       <c r="S80" s="31"/>
       <c r="T80" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U80" s="9"/>
       <c r="V80" s="9"/>
       <c r="W80" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="X80" s="31"/>
       <c r="Y80" s="31"/>
       <c r="Z80" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AA80" s="9"/>
@@ -6900,66 +6972,66 @@
         <v>0</v>
       </c>
       <c r="AE80" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AF80" s="21">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A81" s="14"/>
       <c r="B81" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="5" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="F81" s="31"/>
       <c r="G81" s="31"/>
       <c r="H81" s="1" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="5" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="L81" s="31"/>
       <c r="M81" s="31"/>
       <c r="N81" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="O81" s="9"/>
       <c r="P81" s="9"/>
       <c r="Q81" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="R81" s="31"/>
       <c r="S81" s="31"/>
       <c r="T81" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U81" s="9"/>
       <c r="V81" s="9"/>
       <c r="W81" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="X81" s="31"/>
       <c r="Y81" s="31"/>
       <c r="Z81" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AA81" s="9"/>
@@ -6973,66 +7045,66 @@
         <v>0</v>
       </c>
       <c r="AE81" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AF81" s="21">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A82" s="14"/>
       <c r="B82" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="5" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="F82" s="31"/>
       <c r="G82" s="31"/>
       <c r="H82" s="1" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="5" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="L82" s="31"/>
       <c r="M82" s="31"/>
       <c r="N82" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="O82" s="9"/>
       <c r="P82" s="9"/>
       <c r="Q82" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="R82" s="31"/>
       <c r="S82" s="31"/>
       <c r="T82" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U82" s="9"/>
       <c r="V82" s="9"/>
       <c r="W82" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="X82" s="31"/>
       <c r="Y82" s="31"/>
       <c r="Z82" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AA82" s="9"/>
@@ -7046,66 +7118,66 @@
         <v>0</v>
       </c>
       <c r="AE82" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AF82" s="21">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A83" s="14"/>
       <c r="B83" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="5" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="F83" s="31"/>
       <c r="G83" s="31"/>
       <c r="H83" s="1" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="5" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="L83" s="31"/>
       <c r="M83" s="31"/>
       <c r="N83" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
       <c r="Q83" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="R83" s="31"/>
       <c r="S83" s="31"/>
       <c r="T83" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U83" s="9"/>
       <c r="V83" s="9"/>
       <c r="W83" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="X83" s="31"/>
       <c r="Y83" s="31"/>
       <c r="Z83" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AA83" s="9"/>
@@ -7119,139 +7191,139 @@
         <v>0</v>
       </c>
       <c r="AE83" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AF83" s="21">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A84" s="14"/>
       <c r="B84" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="5" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
       <c r="H84" s="1" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="5" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="L84" s="31"/>
       <c r="M84" s="31"/>
       <c r="N84" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="O84" s="9"/>
       <c r="P84" s="9"/>
       <c r="Q84" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="R84" s="31"/>
       <c r="S84" s="31"/>
       <c r="T84" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U84" s="9"/>
       <c r="V84" s="9"/>
       <c r="W84" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="X84" s="31"/>
       <c r="Y84" s="31"/>
       <c r="Z84" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AA84" s="9"/>
       <c r="AB84" s="9"/>
       <c r="AC84" s="24">
-        <f t="shared" ref="AC84" si="55">SUM(Z84,W84,T84,Q84,N84,K84,H84,E84,B84)</f>
+        <f t="shared" ref="AC84" si="59">SUM(Z84,W84,T84,Q84,N84,K84,H84,E84,B84)</f>
         <v>0</v>
       </c>
       <c r="AD84" s="32">
-        <f t="shared" ref="AD84" si="56">SUM(AB84,Y84,V84,S84,P84,M84,J84,G84,D84)</f>
+        <f t="shared" ref="AD84" si="60">SUM(AB84,Y84,V84,S84,P84,M84,J84,G84,D84)</f>
         <v>0</v>
       </c>
       <c r="AE84" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AF84" s="21">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A85" s="14"/>
       <c r="B85" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="5" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="F85" s="31"/>
       <c r="G85" s="31"/>
       <c r="H85" s="1" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="5" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="L85" s="31"/>
       <c r="M85" s="31"/>
       <c r="N85" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="O85" s="9"/>
       <c r="P85" s="9"/>
       <c r="Q85" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="R85" s="31"/>
       <c r="S85" s="31"/>
       <c r="T85" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="U85" s="9"/>
       <c r="V85" s="9"/>
       <c r="W85" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="X85" s="31"/>
       <c r="Y85" s="31"/>
       <c r="Z85" s="8" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="AA85" s="9"/>
@@ -7265,15 +7337,15 @@
         <v>0</v>
       </c>
       <c r="AE85" s="21">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="AF85" s="21">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="16"/>
       <c r="C86" s="16">
         <f>SUM(C5:C85)</f>
@@ -7307,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="16">
-        <f t="shared" ref="M86:AB86" si="57">SUM(M5:M85)</f>
+        <f t="shared" ref="M86:AB86" si="61">SUM(M5:M85)</f>
         <v>0</v>
       </c>
       <c r="N86" s="16"/>
@@ -7316,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="P86" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q86" s="16"/>
@@ -7325,7 +7397,7 @@
         <v>0</v>
       </c>
       <c r="S86" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="T86" s="16"/>
@@ -7334,7 +7406,7 @@
         <v>0</v>
       </c>
       <c r="V86" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="W86" s="16"/>
@@ -7343,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="Y86" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Z86" s="16"/>
@@ -7352,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="AB86" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="AC86" s="16"/>
@@ -7363,10 +7435,10 @@
       </c>
       <c r="AF86" s="18">
         <f>SUM(AF5:AF85)</f>
-        <v>4.9687500000000009</v>
-      </c>
-    </row>
-    <row r="87" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>5.0729166666666679</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AF87" s="16"/>
     </row>
   </sheetData>

--- a/01_Planung/01_Dokumente/2015_FS_INM21_B_Aufgaben_Zeit_Projektmitglied_Zuordnung.xlsx
+++ b/01_Planung/01_Dokumente/2015_FS_INM21_B_Aufgaben_Zeit_Projektmitglied_Zuordnung.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HSLU\Java_2\INM21_Group_B\01_Planung\01_Dokumente\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="570" windowWidth="19040" windowHeight="10160"/>
+    <workbookView xWindow="4320" yWindow="570" windowWidth="19035" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Tabelle1!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -688,7 +683,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -723,7 +718,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -937,46 +932,46 @@
   </sheetPr>
   <dimension ref="A1:DB87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.7265625" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" customWidth="1"/>
-    <col min="3" max="4" width="7.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="6.1796875" customWidth="1"/>
-    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" customWidth="1"/>
-    <col min="9" max="9" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.81640625" customWidth="1"/>
-    <col min="12" max="12" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" customWidth="1"/>
-    <col min="15" max="15" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.81640625" customWidth="1"/>
-    <col min="18" max="18" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.81640625" customWidth="1"/>
-    <col min="21" max="21" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.81640625" customWidth="1"/>
-    <col min="24" max="24" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.81640625" customWidth="1"/>
-    <col min="27" max="27" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.7265625" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1006,7 @@
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
     </row>
-    <row r="2" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="26"/>
@@ -1044,7 +1039,7 @@
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
     </row>
-    <row r="3" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1075,7 +1070,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:35" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:35" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1170,7 +1165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1233,7 +1228,7 @@
       <c r="AE5" s="21"/>
       <c r="AF5" s="21"/>
     </row>
-    <row r="6" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1304,7 +1299,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>26</v>
       </c>
@@ -1379,7 +1374,7 @@
       </c>
       <c r="AI7" s="10"/>
     </row>
-    <row r="8" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1453,7 +1448,7 @@
       </c>
       <c r="AI8" s="19"/>
     </row>
-    <row r="9" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -1528,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>27</v>
       </c>
@@ -1545,8 +1540,8 @@
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF(J10="", "",J10/AD10)</f>
+        <v>0.53846153846153844</v>
       </c>
       <c r="I10" s="9">
         <v>2.0833333333333332E-2</v>
@@ -1560,12 +1555,16 @@
       </c>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
-      <c r="N10" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="N10" s="1">
+        <f>IF(P10="", "",P10/AD10)</f>
+        <v>0.46153846153846145</v>
+      </c>
+      <c r="O10" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0.125</v>
+      </c>
       <c r="Q10" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1592,22 +1591,22 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="24">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="AD10" s="32">
         <f t="shared" si="15"/>
-        <v>0.14583333333333334</v>
+        <v>0.27083333333333337</v>
       </c>
       <c r="AE10" s="21">
         <f t="shared" si="10"/>
-        <v>2.0833333333333332E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AF10" s="21">
         <f t="shared" si="11"/>
-        <v>0.14583333333333334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.27083333333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>28</v>
       </c>
@@ -1642,7 +1641,7 @@
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
       <c r="N11" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(P11="", "",P11/AD11)</f>
         <v/>
       </c>
       <c r="O11" s="9"/>
@@ -1688,7 +1687,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
@@ -1771,7 +1770,7 @@
         <v>0.47916666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>30</v>
       </c>
@@ -1850,7 +1849,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1923,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1996,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2069,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2142,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:106" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2215,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:106" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>7</v>
       </c>
@@ -2364,7 +2363,7 @@
       <c r="DA19"/>
       <c r="DB19"/>
     </row>
-    <row r="20" spans="1:106" s="22" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:106" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>31</v>
       </c>
@@ -2515,7 +2514,7 @@
       <c r="DA20"/>
       <c r="DB20"/>
     </row>
-    <row r="21" spans="1:106" s="22" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:106" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
@@ -2664,7 +2663,7 @@
       <c r="DA21"/>
       <c r="DB21"/>
     </row>
-    <row r="22" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2737,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:106" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2810,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>8</v>
       </c>
@@ -2857,7 +2856,7 @@
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
       <c r="W24" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(Y24="", "",Y24/AD24)</f>
         <v/>
       </c>
       <c r="X24" s="31"/>
@@ -2885,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>33</v>
       </c>
@@ -2964,7 +2963,7 @@
         <v>0.10416666666666666</v>
       </c>
     </row>
-    <row r="26" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>34</v>
       </c>
@@ -3043,13 +3042,13 @@
         <v>0.10416666666666666</v>
       </c>
     </row>
-    <row r="27" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9">
@@ -3063,7 +3062,7 @@
       <c r="G27" s="31"/>
       <c r="H27" s="1">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9">
@@ -3075,12 +3074,16 @@
       </c>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
-      <c r="N27" s="1" t="str">
+      <c r="N27" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="O27" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P27" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="Q27" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3111,18 +3114,18 @@
       </c>
       <c r="AD27" s="32">
         <f t="shared" si="22"/>
-        <v>0.125</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AE27" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF27" s="21">
         <f t="shared" si="11"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:106" thickBot="1" x14ac:dyDescent="0.4">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>70</v>
       </c>
@@ -3205,7 +3208,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>9</v>
       </c>
@@ -3280,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>35</v>
       </c>
@@ -3355,13 +3358,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
-        <v>0.625</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9">
@@ -3375,7 +3378,7 @@
       <c r="G31" s="31"/>
       <c r="H31" s="1">
         <f t="shared" si="2"/>
-        <v>0.37499999999999994</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="I31" s="9">
         <v>2.0833333333333332E-2</v>
@@ -3389,12 +3392,16 @@
       </c>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
-      <c r="N31" s="1" t="str">
+      <c r="N31" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="O31" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P31" s="9">
+        <v>0.125</v>
+      </c>
       <c r="Q31" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3425,18 +3432,18 @@
       </c>
       <c r="AD31" s="32">
         <f t="shared" si="24"/>
-        <v>0.16666666666666669</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="AE31" s="21">
         <f t="shared" si="10"/>
-        <v>2.0833333333333332E-2</v>
+        <v>0.10416666666666666</v>
       </c>
       <c r="AF31" s="21">
         <f t="shared" si="11"/>
-        <v>0.16666666666666669</v>
-      </c>
-    </row>
-    <row r="32" spans="1:106" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="32" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>37</v>
       </c>
@@ -3515,7 +3522,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>38</v>
       </c>
@@ -3596,7 +3603,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>39</v>
       </c>
@@ -3677,7 +3684,7 @@
         <v>0.10416666666666666</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>40</v>
       </c>
@@ -3756,7 +3763,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>41</v>
       </c>
@@ -3835,7 +3842,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>42</v>
       </c>
@@ -3916,7 +3923,7 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>71</v>
       </c>
@@ -3995,7 +4002,7 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>43</v>
       </c>
@@ -4072,7 +4079,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="40" spans="1:32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="14"/>
       <c r="B40" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4145,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>10</v>
       </c>
@@ -4220,7 +4227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>44</v>
       </c>
@@ -4297,7 +4304,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>45</v>
       </c>
@@ -4374,7 +4381,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>46</v>
       </c>
@@ -4451,7 +4458,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4524,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4597,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4670,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4743,7 +4750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4816,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>11</v>
       </c>
@@ -4891,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
         <v>47</v>
       </c>
@@ -4919,12 +4926,14 @@
       </c>
       <c r="L51" s="31"/>
       <c r="M51" s="31"/>
-      <c r="N51" s="1" t="str">
+      <c r="N51" s="1">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
+      <c r="P51" s="9">
+        <v>0.125</v>
+      </c>
       <c r="Q51" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4951,11 +4960,11 @@
       <c r="AB51" s="9"/>
       <c r="AC51" s="24">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="32">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AE51" s="21">
         <f t="shared" si="10"/>
@@ -4963,10 +4972,10 @@
       </c>
       <c r="AF51" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
         <v>48</v>
       </c>
@@ -5041,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
         <v>49</v>
       </c>
@@ -5069,12 +5078,16 @@
       </c>
       <c r="L53" s="31"/>
       <c r="M53" s="31"/>
-      <c r="N53" s="1" t="str">
+      <c r="N53" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="O53" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="P53" s="9">
+        <v>0.125</v>
+      </c>
       <c r="Q53" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5101,22 +5114,22 @@
       <c r="AB53" s="9"/>
       <c r="AC53" s="24">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" s="32">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AE53" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AF53" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
         <v>50</v>
       </c>
@@ -5191,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
         <v>51</v>
       </c>
@@ -5266,7 +5279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="34" t="s">
         <v>52</v>
       </c>
@@ -5314,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
         <v>53</v>
       </c>
@@ -5362,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="34" t="s">
         <v>54</v>
       </c>
@@ -5412,7 +5425,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
         <v>55</v>
       </c>
@@ -5465,7 +5478,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="34" t="s">
         <v>56</v>
       </c>
@@ -5482,8 +5495,12 @@
       <c r="L60" s="36"/>
       <c r="M60" s="36"/>
       <c r="N60" s="8"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="9"/>
+      <c r="O60" s="9">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="P60" s="9">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="Q60" s="35"/>
       <c r="R60" s="36"/>
       <c r="S60" s="36"/>
@@ -5502,18 +5519,18 @@
       </c>
       <c r="AD60" s="32">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="AE60" s="21">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="AF60" s="21">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
         <v>57</v>
       </c>
@@ -5530,8 +5547,12 @@
       <c r="L61" s="36"/>
       <c r="M61" s="36"/>
       <c r="N61" s="8"/>
-      <c r="O61" s="9"/>
-      <c r="P61" s="9"/>
+      <c r="O61" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P61" s="9">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="Q61" s="35"/>
       <c r="R61" s="36"/>
       <c r="S61" s="36"/>
@@ -5550,18 +5571,18 @@
       </c>
       <c r="AD61" s="32">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AE61" s="21">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AF61" s="21">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:32" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="34" t="s">
         <v>58</v>
       </c>
@@ -5636,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="34" t="s">
         <v>59</v>
       </c>
@@ -5664,12 +5685,16 @@
       </c>
       <c r="L63" s="31"/>
       <c r="M63" s="31"/>
-      <c r="N63" s="1" t="str">
+      <c r="N63" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O63" s="9"/>
-      <c r="P63" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="O63" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P63" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="Q63" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5696,22 +5721,22 @@
       <c r="AB63" s="9"/>
       <c r="AC63" s="24">
         <f t="shared" ref="AC63:AC66" si="40">SUM(Z63,W63,T63,Q63,N63,K63,H63,E63,B63)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63" s="32">
         <f t="shared" ref="AD63:AD66" si="41">SUM(AB63,Y63,V63,S63,P63,M63,J63,G63,D63)</f>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AE63" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF63" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="34" t="s">
         <v>60</v>
       </c>
@@ -5739,12 +5764,16 @@
       </c>
       <c r="L64" s="31"/>
       <c r="M64" s="31"/>
-      <c r="N64" s="1" t="str">
+      <c r="N64" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O64" s="9"/>
-      <c r="P64" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="O64" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P64" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="Q64" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5771,22 +5800,22 @@
       <c r="AB64" s="9"/>
       <c r="AC64" s="24">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64" s="32">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AE64" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF64" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="34" t="s">
         <v>61</v>
       </c>
@@ -5865,7 +5894,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="34" t="s">
         <v>62</v>
       </c>
@@ -5942,7 +5971,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="34" t="s">
         <v>63</v>
       </c>
@@ -6019,7 +6048,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="34" t="s">
         <v>64</v>
       </c>
@@ -6047,12 +6076,16 @@
       </c>
       <c r="L68" s="31"/>
       <c r="M68" s="31"/>
-      <c r="N68" s="1" t="str">
+      <c r="N68" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O68" s="9"/>
-      <c r="P68" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="O68" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P68" s="9">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="Q68" s="5" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6079,22 +6112,22 @@
       <c r="AB68" s="9"/>
       <c r="AC68" s="24">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD68" s="32">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AE68" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF68" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="34" t="s">
         <v>65</v>
       </c>
@@ -6169,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="34" t="s">
         <v>66</v>
       </c>
@@ -6246,7 +6279,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="34" t="s">
         <v>67</v>
       </c>
@@ -6321,7 +6354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6394,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="B73" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6467,7 +6500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="B74" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6540,7 +6573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6613,7 +6646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>68</v>
       </c>
@@ -6688,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
       <c r="B77" s="1" t="str">
         <f t="shared" ref="B77:B85" si="48">IF(D77="", "",D77/AD77)</f>
@@ -6761,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="1" t="str">
         <f t="shared" si="48"/>
@@ -6834,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="1" t="str">
         <f t="shared" si="48"/>
@@ -6907,7 +6940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="1" t="str">
         <f t="shared" si="48"/>
@@ -6980,7 +7013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="1" t="str">
         <f t="shared" si="48"/>
@@ -7053,7 +7086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
       <c r="B82" s="1" t="str">
         <f t="shared" si="48"/>
@@ -7126,7 +7159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="1" t="str">
         <f t="shared" si="48"/>
@@ -7199,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
       <c r="B84" s="1" t="str">
         <f t="shared" si="48"/>
@@ -7272,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:32" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
       <c r="B85" s="1" t="str">
         <f t="shared" si="48"/>
@@ -7345,7 +7378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="16"/>
       <c r="C86" s="16">
         <f>SUM(C5:C85)</f>
@@ -7385,11 +7418,11 @@
       <c r="N86" s="16"/>
       <c r="O86" s="16">
         <f>SUM(O5:O85)</f>
-        <v>0</v>
+        <v>0.85416666666666652</v>
       </c>
       <c r="P86" s="16">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>2.0833333333333335</v>
       </c>
       <c r="Q86" s="16"/>
       <c r="R86" s="16">
@@ -7431,14 +7464,14 @@
       <c r="AD86" s="16"/>
       <c r="AE86" s="18">
         <f>SUM(AE5:AE85)</f>
-        <v>1.3472222222222223</v>
+        <v>2.2013888888888884</v>
       </c>
       <c r="AF86" s="18">
         <f>SUM(AF5:AF85)</f>
-        <v>5.0729166666666679</v>
-      </c>
-    </row>
-    <row r="87" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7.1562500000000009</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AF87" s="16"/>
     </row>
   </sheetData>

--- a/01_Planung/01_Dokumente/2015_FS_INM21_B_Aufgaben_Zeit_Projektmitglied_Zuordnung.xlsx
+++ b/01_Planung/01_Dokumente/2015_FS_INM21_B_Aufgaben_Zeit_Projektmitglied_Zuordnung.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tickstero\Documents\Github\INM21_Group_B\01_Planung\01_Dokumente\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="570" windowWidth="19035" windowHeight="10155"/>
+    <workbookView xWindow="4320" yWindow="576" windowWidth="19032" windowHeight="10152"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Tabelle1!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
   <si>
     <t>Aufgaben  - Projektmitglied - Zuordnung</t>
   </si>
@@ -102,9 +107,6 @@
     <t>Aufgabenverteilung</t>
   </si>
   <si>
-    <t>Kontroller der Erledigten arbiten</t>
-  </si>
-  <si>
     <t>GUI Vorschläge</t>
   </si>
   <si>
@@ -228,9 +230,6 @@
     <t>Source - Code von selber beschriebenem Code</t>
   </si>
   <si>
-    <t>8.0 …….</t>
-  </si>
-  <si>
     <t>Use Case Definieren</t>
   </si>
   <si>
@@ -238,6 +237,33 @@
   </si>
   <si>
     <t>Interner Client erstellen</t>
+  </si>
+  <si>
+    <t>Kontroller der Erledigten arbeiten</t>
+  </si>
+  <si>
+    <t>8.0 Weiteres</t>
+  </si>
+  <si>
+    <t>Korrektur, Anpassung &amp; Formatierng arc42</t>
+  </si>
+  <si>
+    <t>Präsentation Mängel-Manager</t>
+  </si>
+  <si>
+    <t>Entwicklungsumgebung und Tools zur online Dokumentation bereitstellen</t>
+  </si>
+  <si>
+    <t>Paketstruktur der Schichten Organisieren &amp; Anpassen</t>
+  </si>
+  <si>
+    <t>Drucken, Zusammenstellen nötiger Dokumente arc42 &amp; abgeben in Papier- und Elektronischerform</t>
+  </si>
+  <si>
+    <t>Individuelles Portfolio</t>
+  </si>
+  <si>
+    <t>Idividuelles Management Summary</t>
   </si>
 </sst>
 </file>
@@ -641,9 +667,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -681,9 +707,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -718,7 +744,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -753,7 +779,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -932,46 +958,46 @@
   </sheetPr>
   <dimension ref="A1:DB87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.85546875" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.85546875" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.7109375" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.88671875" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.88671875" customWidth="1"/>
+    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.6640625" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1006,7 +1032,7 @@
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="26"/>
@@ -1039,7 +1065,7 @@
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
     </row>
-    <row r="3" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1070,7 +1096,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:35" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1165,7 +1191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1228,11 +1254,14 @@
       <c r="AE5" s="21"/>
       <c r="AF5" s="21"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <f>IF(D6="", "",D6/AD6)</f>
+        <v>0.8</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9">
         <v>0.25</v>
@@ -1241,19 +1270,23 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
       <c r="H6" s="1" t="str">
-        <f>IF(J6="", "",J6/AD6)</f>
+        <f t="shared" ref="H6:H58" si="1">IF(J6="", "",J6/AD6)</f>
         <v/>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="5" t="str">
-        <f>IF(M6="", "",M6/AD6)</f>
-        <v/>
-      </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
+      <c r="K6" s="28">
+        <f t="shared" ref="K6:K69" si="2">IF(M6="", "",M6/AD6)</f>
+        <v>0.2</v>
+      </c>
+      <c r="L6" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M6" s="31">
+        <v>6.25E-2</v>
+      </c>
       <c r="N6" s="1" t="str">
-        <f>IF(P6="", "",P6/AD6)</f>
+        <f t="shared" ref="N6:N69" si="3">IF(P6="", "",P6/AD6)</f>
         <v/>
       </c>
       <c r="O6" s="9"/>
@@ -1284,27 +1317,27 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="24">
         <f>SUM(Z6,W6,T6,Q6,N6,K6,H6,E6,B6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="32">
         <f>SUM(AB6,Y6,V6,S6,P6,M6,J6,G6,D6)</f>
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="AE6" s="21">
         <f>SUM(C6,F6,I6,L6,O6,R6,U6,X6,AA6)</f>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF6" s="21">
         <f>SUM(D6,G6,J6,M6,P6,S6,V6,Y6,AB6)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B76" si="1">IF(D7="", "",D7/AD7)</f>
+        <f t="shared" ref="B7:B55" si="4">IF(D7="", "",D7/AD7)</f>
         <v>1</v>
       </c>
       <c r="C7" s="9"/>
@@ -1315,19 +1348,19 @@
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
       <c r="H7" s="1" t="str">
-        <f t="shared" ref="H7:H76" si="2">IF(J7="", "",J7/AD7)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="5" t="str">
-        <f t="shared" ref="K7:K76" si="3">IF(M7="", "",M7/AD7)</f>
+      <c r="K7" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
       <c r="N7" s="1" t="str">
-        <f t="shared" ref="N7:N76" si="4">IF(P7="", "",P7/AD7)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O7" s="9"/>
@@ -1374,10 +1407,10 @@
       </c>
       <c r="AI7" s="10"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C8" s="9"/>
@@ -1389,19 +1422,19 @@
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K8" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
       <c r="N8" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O8" s="9"/>
@@ -1448,12 +1481,12 @@
       </c>
       <c r="AI8" s="19"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C9" s="9"/>
@@ -1465,19 +1498,19 @@
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
       <c r="H9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K9" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
       <c r="N9" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O9" s="9"/>
@@ -1523,12 +1556,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C10" s="9"/>
@@ -1540,7 +1573,7 @@
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
       <c r="H10" s="1">
-        <f>IF(J10="", "",J10/AD10)</f>
+        <f t="shared" si="1"/>
         <v>0.53846153846153844</v>
       </c>
       <c r="I10" s="9">
@@ -1549,14 +1582,14 @@
       <c r="J10" s="9">
         <v>0.14583333333333334</v>
       </c>
-      <c r="K10" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K10" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
       <c r="N10" s="1">
-        <f>IF(P10="", "",P10/AD10)</f>
+        <f t="shared" si="3"/>
         <v>0.46153846153846145</v>
       </c>
       <c r="O10" s="9">
@@ -1606,12 +1639,12 @@
         <v>0.27083333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="C11" s="9"/>
@@ -1625,7 +1658,7 @@
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="I11" s="9">
@@ -1634,14 +1667,14 @@
       <c r="J11" s="9">
         <v>0.625</v>
       </c>
-      <c r="K11" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K11" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
       <c r="N11" s="1" t="str">
-        <f>IF(P11="", "",P11/AD11)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O11" s="9"/>
@@ -1687,12 +1720,12 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.69565217391304346</v>
       </c>
       <c r="C12" s="9">
@@ -1708,7 +1741,7 @@
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="I12" s="9">
@@ -1717,14 +1750,14 @@
       <c r="J12" s="9">
         <v>0.14583333333333334</v>
       </c>
-      <c r="K12" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K12" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
       <c r="N12" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O12" s="9"/>
@@ -1770,12 +1803,12 @@
         <v>0.47916666666666663</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C13" s="9"/>
@@ -1787,7 +1820,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I13" s="9">
@@ -1796,14 +1829,14 @@
       <c r="J13" s="37">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="K13" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K13" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
       <c r="N13" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O13" s="9"/>
@@ -1849,10 +1882,10 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C14" s="9"/>
@@ -1864,19 +1897,19 @@
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
-      <c r="K14" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K14" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
       <c r="N14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O14" s="9"/>
@@ -1922,10 +1955,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C15" s="9"/>
@@ -1937,19 +1970,19 @@
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
       <c r="H15" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K15" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
       <c r="N15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O15" s="9"/>
@@ -1995,10 +2028,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C16" s="9"/>
@@ -2010,19 +2043,19 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
       <c r="H16" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K16" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
       <c r="N16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O16" s="9"/>
@@ -2068,10 +2101,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C17" s="9"/>
@@ -2083,19 +2116,19 @@
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
       <c r="H17" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K17" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
       <c r="N17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O17" s="9"/>
@@ -2141,10 +2174,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:106" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C18" s="9"/>
@@ -2156,19 +2189,19 @@
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
       <c r="H18" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
-      <c r="K18" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K18" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
       <c r="N18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O18" s="9"/>
@@ -2214,12 +2247,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C19" s="9"/>
@@ -2231,19 +2264,19 @@
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K19" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
       <c r="N19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O19" s="9"/>
@@ -2363,12 +2396,12 @@
       <c r="DA19"/>
       <c r="DB19"/>
     </row>
-    <row r="20" spans="1:106" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:106" s="22" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C20" s="9"/>
@@ -2382,19 +2415,19 @@
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
       <c r="H20" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K20" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
       <c r="N20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O20" s="9"/>
@@ -2514,12 +2547,12 @@
       <c r="DA20"/>
       <c r="DB20"/>
     </row>
-    <row r="21" spans="1:106" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:106" s="22" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C21" s="9"/>
@@ -2531,19 +2564,19 @@
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
       <c r="H21" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K21" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O21" s="9"/>
@@ -2663,10 +2696,10 @@
       <c r="DA21"/>
       <c r="DB21"/>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="14"/>
       <c r="B22" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C22" s="9"/>
@@ -2678,19 +2711,19 @@
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
       <c r="H22" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K22" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
       <c r="N22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O22" s="9"/>
@@ -2736,10 +2769,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:106" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C23" s="9"/>
@@ -2751,19 +2784,19 @@
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
       <c r="H23" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K23" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
       <c r="N23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O23" s="9"/>
@@ -2809,12 +2842,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C24" s="9"/>
@@ -2826,19 +2859,19 @@
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
       <c r="H24" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K24" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
       <c r="N24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O24" s="9"/>
@@ -2884,12 +2917,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="C25" s="9"/>
@@ -2903,21 +2936,21 @@
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9">
         <v>6.25E-2</v>
       </c>
-      <c r="K25" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K25" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
       <c r="N25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O25" s="9"/>
@@ -2963,12 +2996,12 @@
         <v>0.10416666666666666</v>
       </c>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="C26" s="9"/>
@@ -2982,21 +3015,21 @@
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9">
         <v>6.25E-2</v>
       </c>
-      <c r="K26" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K26" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
       <c r="N26" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O26" s="9"/>
@@ -3042,12 +3075,12 @@
         <v>0.10416666666666666</v>
       </c>
     </row>
-    <row r="27" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
       <c r="C27" s="9"/>
@@ -3061,21 +3094,21 @@
       <c r="F27" s="31"/>
       <c r="G27" s="31"/>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.375</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9">
         <v>6.25E-2</v>
       </c>
-      <c r="K27" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K27" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
       <c r="N27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="O27" s="9">
@@ -3125,13 +3158,13 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="28" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:106" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" si="1"/>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="4"/>
+        <v>0.26315789473684209</v>
       </c>
       <c r="C28" s="9">
         <v>2.0833333333333332E-2</v>
@@ -3146,8 +3179,8 @@
       <c r="F28" s="31"/>
       <c r="G28" s="31"/>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
-        <v>0.58333333333333337</v>
+        <f t="shared" si="1"/>
+        <v>0.36842105263157893</v>
       </c>
       <c r="I28" s="9">
         <v>3.4722222222222224E-2</v>
@@ -3155,14 +3188,18 @@
       <c r="J28" s="9">
         <v>0.14583333333333334</v>
       </c>
-      <c r="K28" s="5" t="str">
+      <c r="K28" s="28">
+        <f t="shared" si="2"/>
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="L28" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M28" s="31">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="N28" s="1" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="1" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O28" s="9"/>
@@ -3197,23 +3234,23 @@
       </c>
       <c r="AD28" s="32">
         <f t="shared" si="22"/>
-        <v>0.25</v>
+        <v>0.39583333333333337</v>
       </c>
       <c r="AE28" s="21">
         <f t="shared" si="10"/>
-        <v>5.5555555555555552E-2</v>
+        <v>9.722222222222221E-2</v>
       </c>
       <c r="AF28" s="21">
         <f t="shared" si="11"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:106" x14ac:dyDescent="0.25">
+        <v>0.39583333333333337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C29" s="9"/>
@@ -3225,19 +3262,19 @@
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
       <c r="H29" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
-      <c r="K29" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K29" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
       <c r="N29" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O29" s="9"/>
@@ -3283,12 +3320,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C30" s="9"/>
@@ -3300,19 +3337,19 @@
       <c r="F30" s="31"/>
       <c r="G30" s="31"/>
       <c r="H30" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K30" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
       <c r="N30" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O30" s="9"/>
@@ -3358,13 +3395,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" si="1"/>
-        <v>0.35714285714285715</v>
+        <f t="shared" si="4"/>
+        <v>0.27777777777777779</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9">
@@ -3377,8 +3414,8 @@
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
-        <v>0.21428571428571427</v>
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I31" s="9">
         <v>2.0833333333333332E-2</v>
@@ -3386,15 +3423,19 @@
       <c r="J31" s="9">
         <v>6.25E-2</v>
       </c>
-      <c r="K31" s="5" t="str">
+      <c r="K31" s="28">
+        <f t="shared" si="2"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="L31" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M31" s="31">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N31" s="1">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="1">
-        <f t="shared" si="4"/>
-        <v>0.42857142857142855</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="O31" s="9">
         <v>8.3333333333333329E-2</v>
@@ -3432,23 +3473,23 @@
       </c>
       <c r="AD31" s="32">
         <f t="shared" si="24"/>
-        <v>0.29166666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="AE31" s="21">
         <f t="shared" si="10"/>
-        <v>0.10416666666666666</v>
+        <v>0.14583333333333331</v>
       </c>
       <c r="AF31" s="21">
         <f t="shared" si="11"/>
-        <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="32" spans="1:106" x14ac:dyDescent="0.25">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C32" s="9">
@@ -3464,19 +3505,19 @@
       <c r="F32" s="31"/>
       <c r="G32" s="31"/>
       <c r="H32" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
-      <c r="K32" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K32" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L32" s="31"/>
       <c r="M32" s="31"/>
       <c r="N32" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O32" s="9"/>
@@ -3522,13 +3563,13 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9">
@@ -3541,8 +3582,8 @@
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I33" s="9">
         <v>2.0833333333333332E-2</v>
@@ -3550,14 +3591,18 @@
       <c r="J33" s="9">
         <v>6.25E-2</v>
       </c>
-      <c r="K33" s="5" t="str">
+      <c r="K33" s="28">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L33" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M33" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="N33" s="1" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="1" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O33" s="9"/>
@@ -3592,24 +3637,24 @@
       </c>
       <c r="AD33" s="32">
         <f t="shared" si="24"/>
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="AE33" s="21">
         <f t="shared" si="10"/>
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AF33" s="21">
         <f t="shared" si="11"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
+        <f t="shared" si="4"/>
+        <v>0.25</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9">
@@ -3622,8 +3667,8 @@
       <c r="F34" s="31"/>
       <c r="G34" s="31"/>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="1"/>
+        <v>0.375</v>
       </c>
       <c r="I34" s="9">
         <v>2.0833333333333332E-2</v>
@@ -3631,14 +3676,18 @@
       <c r="J34" s="9">
         <v>6.25E-2</v>
       </c>
-      <c r="K34" s="5" t="str">
+      <c r="K34" s="28">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="L34" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M34" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="N34" s="1" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="1" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O34" s="9"/>
@@ -3673,24 +3722,24 @@
       </c>
       <c r="AD34" s="32">
         <f t="shared" si="24"/>
-        <v>0.10416666666666666</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AE34" s="21">
         <f t="shared" si="10"/>
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AF34" s="21">
         <f t="shared" si="11"/>
-        <v>0.10416666666666666</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>0.66666666666666674</v>
       </c>
       <c r="C35" s="9">
         <v>8.3333333333333329E-2</v>
@@ -3699,25 +3748,29 @@
         <v>0.20833333333333334</v>
       </c>
       <c r="E35" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f>IF(G35="", "",G35/AD35)</f>
         <v/>
       </c>
       <c r="F35" s="31"/>
       <c r="G35" s="31"/>
       <c r="H35" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
-      <c r="K35" s="5" t="str">
+      <c r="K35" s="28">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="L35" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M35" s="31">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="N35" s="1" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="1" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O35" s="9"/>
@@ -3752,23 +3805,23 @@
       </c>
       <c r="AD35" s="32">
         <f t="shared" si="24"/>
-        <v>0.20833333333333334</v>
+        <v>0.3125</v>
       </c>
       <c r="AE35" s="21">
         <f t="shared" si="10"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.10416666666666666</v>
       </c>
       <c r="AF35" s="21">
         <f t="shared" si="11"/>
-        <v>0.20833333333333334</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C36" s="9"/>
@@ -3780,7 +3833,7 @@
       <c r="F36" s="31"/>
       <c r="G36" s="31"/>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I36" s="9">
@@ -3789,14 +3842,14 @@
       <c r="J36" s="9">
         <v>0.625</v>
       </c>
-      <c r="K36" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K36" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L36" s="31"/>
       <c r="M36" s="31"/>
       <c r="N36" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O36" s="9"/>
@@ -3842,12 +3895,12 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.21052631578947367</v>
       </c>
       <c r="C37" s="9"/>
@@ -3861,7 +3914,7 @@
       <c r="F37" s="31"/>
       <c r="G37" s="31"/>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.78947368421052633</v>
       </c>
       <c r="I37" s="9">
@@ -3870,14 +3923,14 @@
       <c r="J37" s="9">
         <v>0.15625</v>
       </c>
-      <c r="K37" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K37" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
       <c r="N37" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O37" s="9"/>
@@ -3923,12 +3976,12 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C38" s="9">
@@ -3944,19 +3997,19 @@
       <c r="F38" s="31"/>
       <c r="G38" s="31"/>
       <c r="H38" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K38" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L38" s="31"/>
       <c r="M38" s="31"/>
       <c r="N38" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O38" s="9"/>
@@ -4002,12 +4055,12 @@
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C39" s="9"/>
@@ -4021,19 +4074,19 @@
       <c r="F39" s="31"/>
       <c r="G39" s="31"/>
       <c r="H39" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
-      <c r="K39" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K39" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L39" s="31"/>
       <c r="M39" s="31"/>
       <c r="N39" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O39" s="9"/>
@@ -4079,10 +4132,10 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="14"/>
       <c r="B40" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C40" s="9"/>
@@ -4094,19 +4147,19 @@
       <c r="F40" s="31"/>
       <c r="G40" s="31"/>
       <c r="H40" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
-      <c r="K40" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K40" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L40" s="31"/>
       <c r="M40" s="31"/>
       <c r="N40" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O40" s="9"/>
@@ -4152,12 +4205,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C41" s="9"/>
@@ -4169,19 +4222,19 @@
       <c r="F41" s="31"/>
       <c r="G41" s="31"/>
       <c r="H41" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K41" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L41" s="31"/>
       <c r="M41" s="31"/>
       <c r="N41" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O41" s="9"/>
@@ -4227,12 +4280,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C42" s="9"/>
@@ -4246,19 +4299,19 @@
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
       <c r="H42" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K42" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
       <c r="N42" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O42" s="9"/>
@@ -4304,12 +4357,12 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C43" s="9"/>
@@ -4323,19 +4376,19 @@
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K43" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
       <c r="N43" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O43" s="9"/>
@@ -4381,12 +4434,12 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="C44" s="9"/>
@@ -4400,19 +4453,19 @@
       <c r="F44" s="31"/>
       <c r="G44" s="31"/>
       <c r="H44" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K44" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L44" s="31"/>
       <c r="M44" s="31"/>
       <c r="N44" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O44" s="9"/>
@@ -4458,10 +4511,10 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
       <c r="B45" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C45" s="9"/>
@@ -4473,19 +4526,19 @@
       <c r="F45" s="31"/>
       <c r="G45" s="31"/>
       <c r="H45" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K45" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L45" s="31"/>
       <c r="M45" s="31"/>
       <c r="N45" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O45" s="9"/>
@@ -4531,10 +4584,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C46" s="9"/>
@@ -4546,19 +4599,19 @@
       <c r="F46" s="31"/>
       <c r="G46" s="31"/>
       <c r="H46" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K46" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L46" s="31"/>
       <c r="M46" s="31"/>
       <c r="N46" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O46" s="9"/>
@@ -4604,10 +4657,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C47" s="9"/>
@@ -4619,19 +4672,19 @@
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
       <c r="H47" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-      <c r="K47" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K47" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L47" s="31"/>
       <c r="M47" s="31"/>
       <c r="N47" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O47" s="9"/>
@@ -4677,10 +4730,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C48" s="9"/>
@@ -4692,19 +4745,19 @@
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
       <c r="H48" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
-      <c r="K48" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K48" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L48" s="31"/>
       <c r="M48" s="31"/>
       <c r="N48" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O48" s="9"/>
@@ -4750,10 +4803,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="14"/>
       <c r="B49" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C49" s="9"/>
@@ -4765,19 +4818,19 @@
       <c r="F49" s="31"/>
       <c r="G49" s="31"/>
       <c r="H49" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-      <c r="K49" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K49" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L49" s="31"/>
       <c r="M49" s="31"/>
       <c r="N49" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O49" s="9"/>
@@ -4823,12 +4876,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B50" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C50" s="9"/>
@@ -4840,19 +4893,19 @@
       <c r="F50" s="31"/>
       <c r="G50" s="31"/>
       <c r="H50" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
-      <c r="K50" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K50" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L50" s="31"/>
       <c r="M50" s="31"/>
       <c r="N50" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O50" s="9"/>
@@ -4898,12 +4951,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C51" s="9"/>
@@ -4915,20 +4968,24 @@
       <c r="F51" s="31"/>
       <c r="G51" s="31"/>
       <c r="H51" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
-      <c r="K51" s="5" t="str">
+      <c r="K51" s="28">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="L51" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M51" s="31">
+        <v>0.1875</v>
+      </c>
+      <c r="N51" s="1">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O51" s="9"/>
       <c r="P51" s="9">
@@ -4964,23 +5021,23 @@
       </c>
       <c r="AD51" s="32">
         <f t="shared" si="18"/>
-        <v>0.125</v>
+        <v>0.3125</v>
       </c>
       <c r="AE51" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF51" s="21">
         <f t="shared" si="27"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C52" s="9"/>
@@ -4992,19 +5049,23 @@
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
       <c r="H52" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
-      <c r="K52" s="5" t="str">
+      <c r="K52" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L52" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M52" s="31">
+        <v>0.1875</v>
+      </c>
+      <c r="N52" s="1" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="1" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O52" s="9"/>
@@ -5035,27 +5096,27 @@
       <c r="AB52" s="9"/>
       <c r="AC52" s="24">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" s="32">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="AE52" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AF52" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C53" s="9"/>
@@ -5067,19 +5128,19 @@
       <c r="F53" s="31"/>
       <c r="G53" s="31"/>
       <c r="H53" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
-      <c r="K53" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K53" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L53" s="31"/>
       <c r="M53" s="31"/>
       <c r="N53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O53" s="9">
@@ -5129,12 +5190,12 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C54" s="9"/>
@@ -5146,19 +5207,23 @@
       <c r="F54" s="31"/>
       <c r="G54" s="31"/>
       <c r="H54" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
-      <c r="K54" s="5" t="str">
+      <c r="K54" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L54" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M54" s="31">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="N54" s="1" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="1" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O54" s="9"/>
@@ -5189,27 +5254,27 @@
       <c r="AB54" s="9"/>
       <c r="AC54" s="24">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" s="32">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AE54" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF54" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B55" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="C55" s="9"/>
@@ -5221,19 +5286,19 @@
       <c r="F55" s="31"/>
       <c r="G55" s="31"/>
       <c r="H55" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
-      <c r="K55" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K55" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L55" s="31"/>
       <c r="M55" s="31"/>
       <c r="N55" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O55" s="9"/>
@@ -5279,23 +5344,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="8"/>
+        <v>51</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f>IF(D56="", "",D56/AD56)</f>
+        <v/>
+      </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
       <c r="E56" s="35"/>
       <c r="F56" s="36"/>
       <c r="G56" s="36"/>
-      <c r="H56" s="8"/>
+      <c r="H56" s="1" t="str">
+        <f>IF(J56="", "",J56/AD56)</f>
+        <v/>
+      </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="8"/>
+      <c r="K56" s="28">
+        <f>IF(M56="", "",M56/AD56)</f>
+        <v>1</v>
+      </c>
+      <c r="L56" s="36">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M56" s="36">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="N56" s="1" t="str">
+        <f>IF(P56="", "",P56/AD56)</f>
+        <v/>
+      </c>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
       <c r="Q56" s="35"/>
@@ -5312,38 +5393,50 @@
       <c r="AB56" s="9"/>
       <c r="AC56" s="24">
         <f t="shared" ref="AC56:AC61" si="36">SUM(Z56,W56,T56,Q56,N56,K56,H56,E56,B56)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" s="32">
         <f t="shared" ref="AD56:AD61" si="37">SUM(AB56,Y56,V56,S56,P56,M56,J56,G56,D56)</f>
-        <v>0</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="AE56" s="21">
         <f t="shared" ref="AE56:AE61" si="38">SUM(C56,F56,I56,L56,O56,R56,U56,X56,AA56)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AF56" s="21">
         <f t="shared" ref="AF56:AF61" si="39">SUM(D56,G56,J56,M56,P56,S56,V56,Y56,AB56)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.14583333333333334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B57" s="8"/>
+        <v>52</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f>IF(D57="", "",D57/AD57)</f>
+        <v/>
+      </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="35"/>
       <c r="F57" s="36"/>
       <c r="G57" s="36"/>
-      <c r="H57" s="8"/>
+      <c r="H57" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
-      <c r="K57" s="35"/>
+      <c r="K57" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L57" s="36"/>
       <c r="M57" s="36"/>
-      <c r="N57" s="8"/>
+      <c r="N57" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
       <c r="Q57" s="35"/>
@@ -5375,11 +5468,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B58" s="8"/>
+        <v>53</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" ref="B58:B61" si="40">IF(D58="", "",D58/AD58)</f>
+        <v>0.3</v>
+      </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9">
         <v>6.25E-2</v>
@@ -5387,13 +5483,26 @@
       <c r="E58" s="35"/>
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
-      <c r="H58" s="8"/>
+      <c r="H58" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
-      <c r="N58" s="8"/>
+      <c r="K58" s="28">
+        <f t="shared" si="2"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="L58" s="36">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M58" s="36">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="N58" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
       <c r="Q58" s="35"/>
@@ -5410,43 +5519,52 @@
       <c r="AB58" s="9"/>
       <c r="AC58" s="24">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" s="32">
         <f t="shared" si="37"/>
-        <v>6.25E-2</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="AE58" s="21">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AF58" s="21">
         <f t="shared" si="39"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B59" s="8"/>
+        <v>54</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
       <c r="E59" s="35"/>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
       <c r="H59" s="1">
-        <f t="shared" si="2"/>
+        <f>IF(J59="", "",J59/AD59)</f>
         <v>1</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K59" s="35"/>
+      <c r="K59" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L59" s="36"/>
       <c r="M59" s="36"/>
-      <c r="N59" s="8"/>
+      <c r="N59" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
       <c r="Q59" s="35"/>
@@ -5478,23 +5596,35 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="B60" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
       <c r="E60" s="35"/>
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
-      <c r="H60" s="8"/>
+      <c r="H60" s="1" t="str">
+        <f>IF(J60="", "",J60/AD60)</f>
+        <v/>
+      </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-      <c r="K60" s="35"/>
+      <c r="K60" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L60" s="36"/>
       <c r="M60" s="36"/>
-      <c r="N60" s="8"/>
+      <c r="N60" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="O60" s="9">
         <v>0.20833333333333334</v>
       </c>
@@ -5515,7 +5645,7 @@
       <c r="AB60" s="9"/>
       <c r="AC60" s="24">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60" s="32">
         <f t="shared" si="37"/>
@@ -5530,23 +5660,35 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B61" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="B61" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v/>
+      </c>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
       <c r="E61" s="35"/>
       <c r="F61" s="36"/>
       <c r="G61" s="36"/>
-      <c r="H61" s="8"/>
+      <c r="H61" s="1" t="str">
+        <f t="shared" ref="H61" si="41">IF(J61="", "",J61/AD61)</f>
+        <v/>
+      </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
-      <c r="K61" s="35"/>
+      <c r="K61" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L61" s="36"/>
       <c r="M61" s="36"/>
-      <c r="N61" s="8"/>
+      <c r="N61" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="O61" s="9">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -5567,7 +5709,7 @@
       <c r="AB61" s="9"/>
       <c r="AC61" s="24">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61" s="32">
         <f t="shared" si="37"/>
@@ -5582,12 +5724,12 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B62" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(D62="", "",D62/AD62)</f>
         <v/>
       </c>
       <c r="C62" s="9"/>
@@ -5599,19 +5741,23 @@
       <c r="F62" s="31"/>
       <c r="G62" s="31"/>
       <c r="H62" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(J62="", "",J62/AD62)</f>
         <v/>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
-      <c r="K62" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
+      <c r="K62" s="28">
+        <f>IF(M62="", "",M62/AD62)</f>
+        <v>1</v>
+      </c>
+      <c r="L62" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M62" s="31">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="N62" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(P62="", "",P62/AD62)</f>
         <v/>
       </c>
       <c r="O62" s="9"/>
@@ -5642,27 +5788,27 @@
       <c r="AB62" s="9"/>
       <c r="AC62" s="24">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62" s="32">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AE62" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AF62" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B63" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(D63="", "",D63/AD63)</f>
         <v/>
       </c>
       <c r="C63" s="9"/>
@@ -5674,19 +5820,19 @@
       <c r="F63" s="31"/>
       <c r="G63" s="31"/>
       <c r="H63" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H63:H85" si="42">IF(J63="", "",J63/AD63)</f>
         <v/>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
-      <c r="K63" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K63" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L63" s="31"/>
       <c r="M63" s="31"/>
       <c r="N63" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O63" s="9">
@@ -5720,11 +5866,11 @@
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
       <c r="AC63" s="24">
-        <f t="shared" ref="AC63:AC66" si="40">SUM(Z63,W63,T63,Q63,N63,K63,H63,E63,B63)</f>
+        <f t="shared" ref="AC63:AC66" si="43">SUM(Z63,W63,T63,Q63,N63,K63,H63,E63,B63)</f>
         <v>1</v>
       </c>
       <c r="AD63" s="32">
-        <f t="shared" ref="AD63:AD66" si="41">SUM(AB63,Y63,V63,S63,P63,M63,J63,G63,D63)</f>
+        <f t="shared" ref="AD63:AD66" si="44">SUM(AB63,Y63,V63,S63,P63,M63,J63,G63,D63)</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="AE63" s="21">
@@ -5736,12 +5882,12 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B64:B85" si="45">IF(D64="", "",D64/AD64)</f>
         <v/>
       </c>
       <c r="C64" s="9"/>
@@ -5753,20 +5899,24 @@
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
       <c r="H64" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
-      <c r="K64" s="5" t="str">
+      <c r="K64" s="28">
+        <f t="shared" si="2"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="L64" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M64" s="31">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="N64" s="1">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
-      <c r="N64" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O64" s="9">
         <v>2.0833333333333332E-2</v>
@@ -5799,28 +5949,28 @@
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
       <c r="AC64" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="AD64" s="32">
-        <f t="shared" si="41"/>
-        <v>4.1666666666666664E-2</v>
+        <f t="shared" si="44"/>
+        <v>0.1875</v>
       </c>
       <c r="AE64" s="21">
         <f t="shared" si="10"/>
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AF64" s="21">
         <f t="shared" si="27"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="C65" s="9">
@@ -5836,19 +5986,19 @@
       <c r="F65" s="31"/>
       <c r="G65" s="31"/>
       <c r="H65" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
-      <c r="K65" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K65" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L65" s="31"/>
       <c r="M65" s="31"/>
       <c r="N65" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O65" s="9"/>
@@ -5878,11 +6028,11 @@
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
       <c r="AC65" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="AD65" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.10416666666666667</v>
       </c>
       <c r="AE65" s="21">
@@ -5894,13 +6044,13 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="45"/>
+        <v>0.5</v>
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="9">
@@ -5913,19 +6063,23 @@
       <c r="F66" s="31"/>
       <c r="G66" s="31"/>
       <c r="H66" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
-      <c r="K66" s="5" t="str">
+      <c r="K66" s="28">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="L66" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M66" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N66" s="1" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="1" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O66" s="9"/>
@@ -5955,28 +6109,28 @@
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
       <c r="AC66" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="AD66" s="32">
-        <f t="shared" si="41"/>
-        <v>4.1666666666666664E-2</v>
+        <f t="shared" si="44"/>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AE66" s="21">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF66" s="21">
         <f t="shared" si="27"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C67" s="9"/>
@@ -5988,21 +6142,21 @@
       <c r="F67" s="31"/>
       <c r="G67" s="31"/>
       <c r="H67" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K67" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K67" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L67" s="31"/>
       <c r="M67" s="31"/>
       <c r="N67" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O67" s="9"/>
@@ -6032,11 +6186,11 @@
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
       <c r="AC67" s="24">
-        <f t="shared" ref="AC67:AC69" si="42">SUM(Z67,W67,T67,Q67,N67,K67,H67,E67,B67)</f>
+        <f t="shared" ref="AC67:AC69" si="46">SUM(Z67,W67,T67,Q67,N67,K67,H67,E67,B67)</f>
         <v>1</v>
       </c>
       <c r="AD67" s="32">
-        <f t="shared" ref="AD67:AD69" si="43">SUM(AB67,Y67,V67,S67,P67,M67,J67,G67,D67)</f>
+        <f t="shared" ref="AD67:AD69" si="47">SUM(AB67,Y67,V67,S67,P67,M67,J67,G67,D67)</f>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="AE67" s="21">
@@ -6048,12 +6202,12 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B68" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C68" s="9"/>
@@ -6065,19 +6219,19 @@
       <c r="F68" s="31"/>
       <c r="G68" s="31"/>
       <c r="H68" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
-      <c r="K68" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K68" s="28" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L68" s="31"/>
       <c r="M68" s="31"/>
       <c r="N68" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O68" s="9">
@@ -6111,11 +6265,11 @@
       <c r="AA68" s="9"/>
       <c r="AB68" s="9"/>
       <c r="AC68" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="AD68" s="32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="AE68" s="21">
@@ -6127,12 +6281,12 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B69" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C69" s="9"/>
@@ -6144,19 +6298,21 @@
       <c r="F69" s="31"/>
       <c r="G69" s="31"/>
       <c r="H69" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
-      <c r="K69" s="5" t="str">
+      <c r="K69" s="28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="N69" s="1" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="1" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O69" s="9"/>
@@ -6186,12 +6342,12 @@
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
       <c r="AC69" s="24">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>1</v>
       </c>
       <c r="AD69" s="32">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="47"/>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AE69" s="21">
         <f t="shared" si="10"/>
@@ -6199,16 +6355,16 @@
       </c>
       <c r="AF69" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B70" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="45"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9">
@@ -6221,19 +6377,21 @@
       <c r="F70" s="31"/>
       <c r="G70" s="31"/>
       <c r="H70" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
-      <c r="K70" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="K70" s="28">
+        <f t="shared" ref="K70:K85" si="48">IF(M70="", "",M70/AD70)</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="L70" s="31"/>
-      <c r="M70" s="31"/>
+      <c r="M70" s="31">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="N70" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="N70:N85" si="49">IF(P70="", "",P70/AD70)</f>
         <v/>
       </c>
       <c r="O70" s="9"/>
@@ -6263,12 +6421,12 @@
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
       <c r="AC70" s="24">
-        <f t="shared" ref="AC70:AC73" si="44">SUM(Z70,W70,T70,Q70,N70,K70,H70,E70,B70)</f>
+        <f t="shared" ref="AC70:AC73" si="50">SUM(Z70,W70,T70,Q70,N70,K70,H70,E70,B70)</f>
         <v>1</v>
       </c>
       <c r="AD70" s="32">
-        <f t="shared" ref="AD70:AD73" si="45">SUM(AB70,Y70,V70,S70,P70,M70,J70,G70,D70)</f>
-        <v>2.0833333333333332E-2</v>
+        <f t="shared" ref="AD70:AD73" si="51">SUM(AB70,Y70,V70,S70,P70,M70,J70,G70,D70)</f>
+        <v>0.125</v>
       </c>
       <c r="AE70" s="21">
         <f t="shared" si="10"/>
@@ -6276,15 +6434,15 @@
       </c>
       <c r="AF70" s="21">
         <f t="shared" si="27"/>
-        <v>2.0833333333333332E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B71" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C71" s="9"/>
@@ -6296,19 +6454,21 @@
       <c r="F71" s="31"/>
       <c r="G71" s="31"/>
       <c r="H71" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
-      <c r="K71" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="K71" s="28">
+        <f t="shared" si="48"/>
+        <v>1</v>
       </c>
       <c r="L71" s="31"/>
-      <c r="M71" s="31"/>
+      <c r="M71" s="31">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="N71" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="O71" s="9"/>
@@ -6338,12 +6498,12 @@
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
       <c r="AC71" s="24">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>1</v>
       </c>
       <c r="AD71" s="32">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" si="51"/>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AE71" s="21">
         <f t="shared" si="10"/>
@@ -6351,13 +6511,13 @@
       </c>
       <c r="AF71" s="21">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="14"/>
       <c r="B72" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C72" s="9"/>
@@ -6369,19 +6529,19 @@
       <c r="F72" s="31"/>
       <c r="G72" s="31"/>
       <c r="H72" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
-      <c r="K72" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K72" s="28" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L72" s="31"/>
       <c r="M72" s="31"/>
       <c r="N72" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="O72" s="9"/>
@@ -6411,11 +6571,11 @@
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
       <c r="AC72" s="24">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AD72" s="32">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AE72" s="21">
@@ -6427,10 +6587,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C73" s="9"/>
@@ -6442,19 +6602,19 @@
       <c r="F73" s="31"/>
       <c r="G73" s="31"/>
       <c r="H73" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
-      <c r="K73" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K73" s="28" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L73" s="31"/>
       <c r="M73" s="31"/>
       <c r="N73" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="O73" s="9"/>
@@ -6484,11 +6644,11 @@
       <c r="AA73" s="9"/>
       <c r="AB73" s="9"/>
       <c r="AC73" s="24">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AD73" s="32">
-        <f t="shared" si="45"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="AE73" s="21">
@@ -6500,10 +6660,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C74" s="9"/>
@@ -6515,19 +6675,19 @@
       <c r="F74" s="31"/>
       <c r="G74" s="31"/>
       <c r="H74" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
-      <c r="K74" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K74" s="28" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L74" s="31"/>
       <c r="M74" s="31"/>
       <c r="N74" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="O74" s="9"/>
@@ -6557,11 +6717,11 @@
       <c r="AA74" s="9"/>
       <c r="AB74" s="9"/>
       <c r="AC74" s="24">
-        <f t="shared" ref="AC74:AC75" si="46">SUM(Z74,W74,T74,Q74,N74,K74,H74,E74,B74)</f>
+        <f t="shared" ref="AC74:AC75" si="52">SUM(Z74,W74,T74,Q74,N74,K74,H74,E74,B74)</f>
         <v>0</v>
       </c>
       <c r="AD74" s="32">
-        <f t="shared" ref="AD74:AD75" si="47">SUM(AB74,Y74,V74,S74,P74,M74,J74,G74,D74)</f>
+        <f t="shared" ref="AD74:AD75" si="53">SUM(AB74,Y74,V74,S74,P74,M74,J74,G74,D74)</f>
         <v>0</v>
       </c>
       <c r="AE74" s="21">
@@ -6573,10 +6733,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:32" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="14"/>
       <c r="B75" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C75" s="9"/>
@@ -6588,19 +6748,19 @@
       <c r="F75" s="31"/>
       <c r="G75" s="31"/>
       <c r="H75" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
-      <c r="K75" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K75" s="28" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L75" s="31"/>
       <c r="M75" s="31"/>
       <c r="N75" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="O75" s="9"/>
@@ -6630,11 +6790,11 @@
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
       <c r="AC75" s="24">
-        <f t="shared" si="46"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AD75" s="32">
-        <f t="shared" si="47"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="AE75" s="21">
@@ -6646,12 +6806,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B76" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C76" s="9"/>
@@ -6663,19 +6823,19 @@
       <c r="F76" s="31"/>
       <c r="G76" s="31"/>
       <c r="H76" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
-      <c r="K76" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="K76" s="28" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L76" s="31"/>
       <c r="M76" s="31"/>
       <c r="N76" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="O76" s="9"/>
@@ -6721,642 +6881,672 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+    <row r="77" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="B77" s="1" t="str">
-        <f t="shared" ref="B77:B85" si="48">IF(D77="", "",D77/AD77)</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="5" t="str">
-        <f t="shared" ref="E77:E85" si="49">IF(G77="", "",G77/AD77)</f>
+        <f t="shared" ref="E77:E85" si="54">IF(G77="", "",G77/AD77)</f>
         <v/>
       </c>
       <c r="F77" s="31"/>
       <c r="G77" s="31"/>
       <c r="H77" s="1" t="str">
-        <f t="shared" ref="H77:H85" si="50">IF(J77="", "",J77/AD77)</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
-      <c r="K77" s="5" t="str">
-        <f t="shared" ref="K77:K85" si="51">IF(M77="", "",M77/AD77)</f>
-        <v/>
+      <c r="K77" s="28">
+        <f t="shared" si="48"/>
+        <v>1</v>
       </c>
       <c r="L77" s="31"/>
-      <c r="M77" s="31"/>
+      <c r="M77" s="31">
+        <v>0.1875</v>
+      </c>
       <c r="N77" s="1" t="str">
-        <f t="shared" ref="N77:N85" si="52">IF(P77="", "",P77/AD77)</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
       <c r="Q77" s="5" t="str">
-        <f t="shared" ref="Q77:Q85" si="53">IF(S77="", "",S77/AD77)</f>
+        <f t="shared" ref="Q77:Q85" si="55">IF(S77="", "",S77/AD77)</f>
         <v/>
       </c>
       <c r="R77" s="31"/>
       <c r="S77" s="31"/>
       <c r="T77" s="1" t="str">
-        <f t="shared" ref="T77:T85" si="54">IF(V77="", "",V77/AD77)</f>
+        <f t="shared" ref="T77:T85" si="56">IF(V77="", "",V77/AD77)</f>
         <v/>
       </c>
       <c r="U77" s="9"/>
       <c r="V77" s="9"/>
       <c r="W77" s="5" t="str">
-        <f t="shared" ref="W77:W85" si="55">IF(Y77="", "",Y77/AD77)</f>
+        <f t="shared" ref="W77:W85" si="57">IF(Y77="", "",Y77/AD77)</f>
         <v/>
       </c>
       <c r="X77" s="31"/>
       <c r="Y77" s="31"/>
       <c r="Z77" s="8" t="str">
-        <f t="shared" ref="Z77:Z85" si="56">IF(AB77="", "",AB77/AD77)</f>
+        <f t="shared" ref="Z77:Z85" si="58">IF(AB77="", "",AB77/AD77)</f>
         <v/>
       </c>
       <c r="AA77" s="9"/>
       <c r="AB77" s="9"/>
       <c r="AC77" s="24">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD77" s="32">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="AE77" s="21">
-        <f t="shared" ref="AE77:AE85" si="57">SUM(C77,F77,I77,L77,O77,R77,U77,X77,AA77)</f>
+        <f t="shared" ref="AE77:AE85" si="59">SUM(C77,F77,I77,L77,O77,R77,U77,X77,AA77)</f>
         <v>0</v>
       </c>
       <c r="AF77" s="21">
-        <f t="shared" ref="AF77:AF85" si="58">SUM(D77,G77,J77,M77,P77,S77,V77,Y77,AB77)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
+        <f t="shared" ref="AF77:AF85" si="60">SUM(D77,G77,J77,M77,P77,S77,V77,Y77,AB77)</f>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="B78" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="F78" s="31"/>
       <c r="G78" s="31"/>
       <c r="H78" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
-      <c r="K78" s="5" t="str">
-        <f t="shared" si="51"/>
-        <v/>
+      <c r="K78" s="28">
+        <f t="shared" si="48"/>
+        <v>1</v>
       </c>
       <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
+      <c r="M78" s="31">
+        <v>6.25E-2</v>
+      </c>
       <c r="N78" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
       <c r="Q78" s="5" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="R78" s="31"/>
       <c r="S78" s="31"/>
       <c r="T78" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="U78" s="9"/>
       <c r="V78" s="9"/>
       <c r="W78" s="5" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="X78" s="31"/>
       <c r="Y78" s="31"/>
       <c r="Z78" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA78" s="9"/>
       <c r="AB78" s="9"/>
       <c r="AC78" s="24">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD78" s="32">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AE78" s="21">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AF78" s="21">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
+        <f t="shared" si="60"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="B79" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="F79" s="31"/>
       <c r="G79" s="31"/>
       <c r="H79" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
-      <c r="K79" s="5" t="str">
-        <f t="shared" si="51"/>
-        <v/>
+      <c r="K79" s="28">
+        <f t="shared" si="48"/>
+        <v>1</v>
       </c>
       <c r="L79" s="31"/>
-      <c r="M79" s="31"/>
+      <c r="M79" s="31">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="N79" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
       <c r="Q79" s="5" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="R79" s="31"/>
       <c r="S79" s="31"/>
       <c r="T79" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="U79" s="9"/>
       <c r="V79" s="9"/>
       <c r="W79" s="5" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="X79" s="31"/>
       <c r="Y79" s="31"/>
       <c r="Z79" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA79" s="9"/>
       <c r="AB79" s="9"/>
       <c r="AC79" s="24">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD79" s="32">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AE79" s="21">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AF79" s="21">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
+        <f t="shared" si="60"/>
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="B80" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="31"/>
       <c r="H80" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
-      <c r="K80" s="5" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L80" s="31"/>
-      <c r="M80" s="31"/>
+      <c r="K80" s="28">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="L80" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M80" s="31">
+        <v>6.25E-2</v>
+      </c>
       <c r="N80" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
       <c r="Q80" s="5" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="R80" s="31"/>
       <c r="S80" s="31"/>
       <c r="T80" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="U80" s="9"/>
       <c r="V80" s="9"/>
       <c r="W80" s="5" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="X80" s="31"/>
       <c r="Y80" s="31"/>
       <c r="Z80" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA80" s="9"/>
       <c r="AB80" s="9"/>
       <c r="AC80" s="24">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD80" s="32">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AE80" s="21">
-        <f t="shared" si="57"/>
-        <v>0</v>
+        <f t="shared" si="59"/>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF80" s="21">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+        <f t="shared" si="60"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="B81" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="F81" s="31"/>
       <c r="G81" s="31"/>
       <c r="H81" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
-      <c r="K81" s="5" t="str">
-        <f t="shared" si="51"/>
-        <v/>
+      <c r="K81" s="28">
+        <f t="shared" si="48"/>
+        <v>1</v>
       </c>
       <c r="L81" s="31"/>
-      <c r="M81" s="31"/>
+      <c r="M81" s="31">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="N81" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="O81" s="9"/>
       <c r="P81" s="9"/>
       <c r="Q81" s="5" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="R81" s="31"/>
       <c r="S81" s="31"/>
       <c r="T81" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="U81" s="9"/>
       <c r="V81" s="9"/>
       <c r="W81" s="5" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="X81" s="31"/>
       <c r="Y81" s="31"/>
       <c r="Z81" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA81" s="9"/>
       <c r="AB81" s="9"/>
       <c r="AC81" s="24">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD81" s="32">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AE81" s="21">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AF81" s="21">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
+        <f t="shared" si="60"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="14" t="s">
+        <v>77</v>
+      </c>
       <c r="B82" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="F82" s="31"/>
       <c r="G82" s="31"/>
       <c r="H82" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
-      <c r="K82" s="5" t="str">
-        <f t="shared" si="51"/>
-        <v/>
+      <c r="K82" s="28">
+        <f t="shared" si="48"/>
+        <v>1</v>
       </c>
       <c r="L82" s="31"/>
-      <c r="M82" s="31"/>
+      <c r="M82" s="31">
+        <v>0.1875</v>
+      </c>
       <c r="N82" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="O82" s="9"/>
       <c r="P82" s="9"/>
       <c r="Q82" s="5" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="R82" s="31"/>
       <c r="S82" s="31"/>
       <c r="T82" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="U82" s="9"/>
       <c r="V82" s="9"/>
       <c r="W82" s="5" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="X82" s="31"/>
       <c r="Y82" s="31"/>
       <c r="Z82" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA82" s="9"/>
       <c r="AB82" s="9"/>
       <c r="AC82" s="24">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD82" s="32">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="AE82" s="21">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AF82" s="21">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
+        <f t="shared" si="60"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="B83" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="F83" s="31"/>
       <c r="G83" s="31"/>
       <c r="H83" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
-      <c r="K83" s="5" t="str">
-        <f t="shared" si="51"/>
-        <v/>
+      <c r="K83" s="28">
+        <f t="shared" si="48"/>
+        <v>1</v>
       </c>
       <c r="L83" s="31"/>
-      <c r="M83" s="31"/>
+      <c r="M83" s="31">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="N83" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
       <c r="Q83" s="5" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="R83" s="31"/>
       <c r="S83" s="31"/>
       <c r="T83" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="U83" s="9"/>
       <c r="V83" s="9"/>
       <c r="W83" s="5" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="X83" s="31"/>
       <c r="Y83" s="31"/>
       <c r="Z83" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA83" s="9"/>
       <c r="AB83" s="9"/>
       <c r="AC83" s="24">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD83" s="32">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AE83" s="21">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AF83" s="21">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="14"/>
       <c r="B84" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
       <c r="H84" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
-      <c r="K84" s="5" t="str">
-        <f t="shared" si="51"/>
+      <c r="K84" s="28" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L84" s="31"/>
       <c r="M84" s="31"/>
       <c r="N84" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="O84" s="9"/>
       <c r="P84" s="9"/>
       <c r="Q84" s="5" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="R84" s="31"/>
       <c r="S84" s="31"/>
       <c r="T84" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="U84" s="9"/>
       <c r="V84" s="9"/>
       <c r="W84" s="5" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="X84" s="31"/>
       <c r="Y84" s="31"/>
       <c r="Z84" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA84" s="9"/>
       <c r="AB84" s="9"/>
       <c r="AC84" s="24">
-        <f t="shared" ref="AC84" si="59">SUM(Z84,W84,T84,Q84,N84,K84,H84,E84,B84)</f>
+        <f t="shared" ref="AC84" si="61">SUM(Z84,W84,T84,Q84,N84,K84,H84,E84,B84)</f>
         <v>0</v>
       </c>
       <c r="AD84" s="32">
-        <f t="shared" ref="AD84" si="60">SUM(AB84,Y84,V84,S84,P84,M84,J84,G84,D84)</f>
+        <f t="shared" ref="AD84" si="62">SUM(AB84,Y84,V84,S84,P84,M84,J84,G84,D84)</f>
         <v>0</v>
       </c>
       <c r="AE84" s="21">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AF84" s="21">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="F85" s="31"/>
       <c r="G85" s="31"/>
       <c r="H85" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
-      <c r="K85" s="5" t="str">
-        <f t="shared" si="51"/>
+      <c r="K85" s="28" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L85" s="31"/>
       <c r="M85" s="31"/>
       <c r="N85" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="O85" s="9"/>
       <c r="P85" s="9"/>
       <c r="Q85" s="5" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="R85" s="31"/>
       <c r="S85" s="31"/>
       <c r="T85" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="U85" s="9"/>
       <c r="V85" s="9"/>
       <c r="W85" s="5" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="X85" s="31"/>
       <c r="Y85" s="31"/>
       <c r="Z85" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA85" s="9"/>
@@ -7370,15 +7560,15 @@
         <v>0</v>
       </c>
       <c r="AE85" s="21">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AF85" s="21">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="16"/>
       <c r="C86" s="16">
         <f>SUM(C5:C85)</f>
@@ -7409,11 +7599,11 @@
       <c r="K86" s="16"/>
       <c r="L86" s="16">
         <f>SUM(L5:L85)</f>
-        <v>0</v>
+        <v>0.47916666666666663</v>
       </c>
       <c r="M86" s="16">
-        <f t="shared" ref="M86:AB86" si="61">SUM(M5:M85)</f>
-        <v>0</v>
+        <f t="shared" ref="M86:AB86" si="63">SUM(M5:M85)</f>
+        <v>2.6041666666666665</v>
       </c>
       <c r="N86" s="16"/>
       <c r="O86" s="16">
@@ -7421,7 +7611,7 @@
         <v>0.85416666666666652</v>
       </c>
       <c r="P86" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>2.0833333333333335</v>
       </c>
       <c r="Q86" s="16"/>
@@ -7430,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="S86" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="T86" s="16"/>
@@ -7439,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="V86" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="W86" s="16"/>
@@ -7448,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="Y86" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Z86" s="16"/>
@@ -7457,21 +7647,21 @@
         <v>0</v>
       </c>
       <c r="AB86" s="16">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="AC86" s="16"/>
       <c r="AD86" s="16"/>
       <c r="AE86" s="18">
         <f>SUM(AE5:AE85)</f>
-        <v>2.2013888888888884</v>
+        <v>2.6805555555555562</v>
       </c>
       <c r="AF86" s="18">
         <f>SUM(AF5:AF85)</f>
-        <v>7.1562500000000009</v>
-      </c>
-    </row>
-    <row r="87" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>9.7604166666666679</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AF87" s="16"/>
     </row>
   </sheetData>

--- a/01_Planung/01_Dokumente/2015_FS_INM21_B_Aufgaben_Zeit_Projektmitglied_Zuordnung.xlsx
+++ b/01_Planung/01_Dokumente/2015_FS_INM21_B_Aufgaben_Zeit_Projektmitglied_Zuordnung.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandro\Documents\GitHub\INM21_Group_B\01_Planung\01_Dokumente\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="4320" yWindow="570" windowWidth="19035" windowHeight="10155"/>
   </bookViews>
@@ -12,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Tabelle1!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>Aufgaben  - Projektmitglied - Zuordnung</t>
   </si>
@@ -102,9 +107,6 @@
     <t>Aufgabenverteilung</t>
   </si>
   <si>
-    <t>Kontroller der Erledigten arbiten</t>
-  </si>
-  <si>
     <t>GUI Vorschläge</t>
   </si>
   <si>
@@ -117,9 +119,6 @@
     <t>Styling</t>
   </si>
   <si>
-    <t>ERD erstellen</t>
-  </si>
-  <si>
     <t>Datenbank &amp; Verbindung einrichten</t>
   </si>
   <si>
@@ -127,9 +126,6 @@
   </si>
   <si>
     <t>Requirements definieren</t>
-  </si>
-  <si>
-    <t>Architektur festlegen</t>
   </si>
   <si>
     <t>Models Programmieren</t>
@@ -238,6 +234,24 @@
   </si>
   <si>
     <t>Interner Client erstellen</t>
+  </si>
+  <si>
+    <t>SQL Script</t>
+  </si>
+  <si>
+    <t>ERD erstellen &amp; aktuallisieren</t>
+  </si>
+  <si>
+    <t>Architektur festlegen / Implementation</t>
+  </si>
+  <si>
+    <t>Suchmaschine in Projekt (Named Querys)</t>
+  </si>
+  <si>
+    <t>Programmierung Hilfestellung</t>
+  </si>
+  <si>
+    <t>Kontrolle / Verbesserung der Erledigten arbiten</t>
   </si>
 </sst>
 </file>
@@ -550,7 +564,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -623,6 +637,7 @@
     <xf numFmtId="20" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -641,9 +656,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -681,9 +696,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -718,7 +733,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -753,7 +768,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -930,10 +945,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:DB87"/>
+  <dimension ref="A1:DB88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1232,14 +1247,22 @@
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:B77" si="1">IF(D6="", "",D6/AD6)</f>
+        <v>0.63157894736842102</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9">
         <v>0.25</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5">
+        <f t="shared" ref="E6:E77" si="2">IF(G6="", "",G6/AD6)</f>
+        <v>0.36842105263157893</v>
+      </c>
       <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="G6" s="31">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="H6" s="1" t="str">
         <f>IF(J6="", "",J6/AD6)</f>
         <v/>
@@ -1284,11 +1307,11 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="24">
         <f>SUM(Z6,W6,T6,Q6,N6,K6,H6,E6,B6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="32">
         <f>SUM(AB6,Y6,V6,S6,P6,M6,J6,G6,D6)</f>
-        <v>0.25</v>
+        <v>0.39583333333333337</v>
       </c>
       <c r="AE6" s="21">
         <f>SUM(C6,F6,I6,L6,O6,R6,U6,X6,AA6)</f>
@@ -1296,62 +1319,67 @@
       </c>
       <c r="AF6" s="21">
         <f>SUM(D6,G6,J6,M6,P6,S6,V6,Y6,AB6)</f>
-        <v>0.25</v>
+        <v>0.39583333333333337</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ref="B7:B76" si="1">IF(D7="", "",D7/AD7)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0.4285714285714286</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9">
         <v>0.125</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.57142857142857151</v>
+      </c>
       <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="G7" s="31">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="H7" s="1" t="str">
-        <f t="shared" ref="H7:H76" si="2">IF(J7="", "",J7/AD7)</f>
+        <f t="shared" ref="H7:H77" si="3">IF(J7="", "",J7/AD7)</f>
         <v/>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="5" t="str">
-        <f t="shared" ref="K7:K76" si="3">IF(M7="", "",M7/AD7)</f>
+        <f t="shared" ref="K7:K77" si="4">IF(M7="", "",M7/AD7)</f>
         <v/>
       </c>
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
       <c r="N7" s="1" t="str">
-        <f t="shared" ref="N7:N76" si="4">IF(P7="", "",P7/AD7)</f>
+        <f t="shared" ref="N7:N77" si="5">IF(P7="", "",P7/AD7)</f>
         <v/>
       </c>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
       <c r="Q7" s="5" t="str">
-        <f t="shared" ref="Q7:Q76" si="5">IF(S7="", "",S7/AD7)</f>
+        <f t="shared" ref="Q7:Q77" si="6">IF(S7="", "",S7/AD7)</f>
         <v/>
       </c>
       <c r="R7" s="31"/>
       <c r="S7" s="31"/>
       <c r="T7" s="1" t="str">
-        <f t="shared" ref="T7:T76" si="6">IF(V7="", "",V7/AD7)</f>
+        <f t="shared" ref="T7:T77" si="7">IF(V7="", "",V7/AD7)</f>
         <v/>
       </c>
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
       <c r="W7" s="5" t="str">
-        <f t="shared" ref="W7:W76" si="7">IF(Y7="", "",Y7/AD7)</f>
+        <f t="shared" ref="W7:W77" si="8">IF(Y7="", "",Y7/AD7)</f>
         <v/>
       </c>
       <c r="X7" s="31"/>
       <c r="Y7" s="31"/>
       <c r="Z7" s="8" t="str">
-        <f t="shared" ref="Z7:Z76" si="8">IF(AB7="", "",AB7/AD7)</f>
+        <f t="shared" ref="Z7:Z77" si="9">IF(AB7="", "",AB7/AD7)</f>
         <v/>
       </c>
       <c r="AA7" s="9"/>
@@ -1361,16 +1389,16 @@
         <v>1</v>
       </c>
       <c r="AD7" s="32">
-        <f t="shared" ref="AD7" si="9">SUM(AB7,Y7,V7,S7,P7,M7,J7,G7,D7)</f>
-        <v>0.125</v>
+        <f t="shared" ref="AD7" si="10">SUM(AB7,Y7,V7,S7,P7,M7,J7,G7,D7)</f>
+        <v>0.29166666666666663</v>
       </c>
       <c r="AE7" s="21">
-        <f t="shared" ref="AE7:AE76" si="10">SUM(C7,F7,I7,L7,O7,R7,U7,X7,AA7)</f>
+        <f t="shared" ref="AE7:AE77" si="11">SUM(C7,F7,I7,L7,O7,R7,U7,X7,AA7)</f>
         <v>0</v>
       </c>
       <c r="AF7" s="21">
-        <f t="shared" ref="AF7:AF38" si="11">SUM(D7,G7,J7,M7,P7,S7,V7,Y7,AB7)</f>
-        <v>0.125</v>
+        <f t="shared" ref="AF7:AF39" si="12">SUM(D7,G7,J7,M7,P7,S7,V7,Y7,AB7)</f>
+        <v>0.29166666666666663</v>
       </c>
       <c r="AI7" s="10"/>
     </row>
@@ -1383,49 +1411,49 @@
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="5" t="str">
-        <f t="shared" ref="E8:E76" si="12">IF(G8="", "",G8/AD8)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
       <c r="N8" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
       <c r="Q8" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R8" s="31"/>
       <c r="S8" s="31"/>
       <c r="T8" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
       <c r="W8" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X8" s="31"/>
       <c r="Y8" s="31"/>
       <c r="Z8" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA8" s="9"/>
@@ -1439,11 +1467,11 @@
         <v>0</v>
       </c>
       <c r="AE8" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF8" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AI8" s="19"/>
@@ -1459,55 +1487,55 @@
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
       <c r="H9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
       <c r="N9" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
       <c r="Q9" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R9" s="31"/>
       <c r="S9" s="31"/>
       <c r="T9" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
       <c r="W9" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X9" s="31"/>
       <c r="Y9" s="31"/>
       <c r="Z9" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="24">
-        <f t="shared" ref="AC9:AC85" si="14">SUM(Z9,W9,T9,Q9,N9,K9,H9,E9,B9)</f>
+        <f t="shared" ref="AC9:AC86" si="14">SUM(Z9,W9,T9,Q9,N9,K9,H9,E9,B9)</f>
         <v>0</v>
       </c>
       <c r="AD9" s="32">
@@ -1515,17 +1543,17 @@
         <v>0</v>
       </c>
       <c r="AE9" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF9" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1534,7 +1562,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F10" s="31"/>
@@ -1550,7 +1578,7 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="K10" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L10" s="31"/>
@@ -1566,25 +1594,25 @@
         <v>0.125</v>
       </c>
       <c r="Q10" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R10" s="31"/>
       <c r="S10" s="31"/>
       <c r="T10" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
       <c r="W10" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X10" s="31"/>
       <c r="Y10" s="31"/>
       <c r="Z10" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA10" s="9"/>
@@ -1598,35 +1626,37 @@
         <v>0.27083333333333337</v>
       </c>
       <c r="AE10" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
       <c r="AF10" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.27083333333333337</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="1">
         <f t="shared" si="1"/>
-        <v>9.0909090909090912E-2</v>
+        <v>7.8947368421052641E-2</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9">
         <v>6.25E-2</v>
       </c>
-      <c r="E11" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="E11" s="5">
+        <f t="shared" si="2"/>
+        <v>0.13157894736842107</v>
       </c>
       <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="G11" s="31">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
-        <v>0.90909090909090906</v>
+        <f t="shared" si="3"/>
+        <v>0.78947368421052633</v>
       </c>
       <c r="I11" s="9">
         <v>0.33333333333333331</v>
@@ -1635,7 +1665,7 @@
         <v>0.625</v>
       </c>
       <c r="K11" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L11" s="31"/>
@@ -1647,25 +1677,25 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R11" s="31"/>
       <c r="S11" s="31"/>
       <c r="T11" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
       <c r="W11" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X11" s="31"/>
       <c r="Y11" s="31"/>
       <c r="Z11" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA11" s="9"/>
@@ -1676,24 +1706,24 @@
       </c>
       <c r="AD11" s="32">
         <f t="shared" si="15"/>
-        <v>0.6875</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="AE11" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="AF11" s="21">
-        <f t="shared" si="11"/>
-        <v>0.6875</v>
+        <f t="shared" si="12"/>
+        <v>0.79166666666666674</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1">
         <f t="shared" si="1"/>
-        <v>0.69565217391304346</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="C12" s="9">
         <v>0.16666666666666666</v>
@@ -1701,15 +1731,19 @@
       <c r="D12" s="9">
         <v>0.33333333333333331</v>
       </c>
-      <c r="E12" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="E12" s="5">
+        <f t="shared" si="2"/>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="F12" s="31">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="G12" s="31">
+        <v>0.47916666666666669</v>
+      </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
-        <v>0.30434782608695654</v>
+        <f t="shared" si="3"/>
+        <v>0.15217391304347827</v>
       </c>
       <c r="I12" s="9">
         <v>4.1666666666666664E-2</v>
@@ -1718,37 +1752,37 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="K12" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
       <c r="N12" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R12" s="31"/>
       <c r="S12" s="31"/>
       <c r="T12" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
       <c r="W12" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X12" s="31"/>
       <c r="Y12" s="31"/>
       <c r="Z12" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA12" s="9"/>
@@ -1759,20 +1793,20 @@
       </c>
       <c r="AD12" s="32">
         <f t="shared" si="15"/>
-        <v>0.47916666666666663</v>
+        <v>0.95833333333333326</v>
       </c>
       <c r="AE12" s="21">
-        <f t="shared" si="10"/>
-        <v>0.20833333333333331</v>
+        <f t="shared" si="11"/>
+        <v>0.3125</v>
       </c>
       <c r="AF12" s="21">
-        <f t="shared" si="11"/>
-        <v>0.47916666666666663</v>
+        <f t="shared" si="12"/>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1781,13 +1815,13 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I13" s="9">
@@ -1797,37 +1831,37 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="K13" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
       <c r="N13" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
       <c r="T13" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
       <c r="W13" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X13" s="31"/>
       <c r="Y13" s="31"/>
       <c r="Z13" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA13" s="9"/>
@@ -1841,11 +1875,11 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="AE13" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="AF13" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -1858,49 +1892,49 @@
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
       <c r="N14" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
       <c r="Q14" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R14" s="31"/>
       <c r="S14" s="31"/>
       <c r="T14" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
       <c r="W14" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X14" s="31"/>
       <c r="Y14" s="31"/>
       <c r="Z14" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA14" s="9"/>
@@ -1914,11 +1948,11 @@
         <v>0</v>
       </c>
       <c r="AE14" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF14" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -1931,49 +1965,49 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
       <c r="H15" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
       <c r="N15" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
       <c r="Q15" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
       <c r="T15" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
       <c r="W15" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X15" s="31"/>
       <c r="Y15" s="31"/>
       <c r="Z15" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA15" s="9"/>
@@ -1983,15 +2017,15 @@
         <v>0</v>
       </c>
       <c r="AD15" s="32">
-        <f t="shared" ref="AD15:AD85" si="18">SUM(AB15,Y15,V15,S15,P15,M15,J15,G15,D15)</f>
+        <f t="shared" ref="AD15:AD86" si="18">SUM(AB15,Y15,V15,S15,P15,M15,J15,G15,D15)</f>
         <v>0</v>
       </c>
       <c r="AE15" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF15" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -2004,49 +2038,49 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
       <c r="H16" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
       <c r="N16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R16" s="31"/>
       <c r="S16" s="31"/>
       <c r="T16" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
       <c r="W16" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X16" s="31"/>
       <c r="Y16" s="31"/>
       <c r="Z16" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA16" s="9"/>
@@ -2060,11 +2094,11 @@
         <v>0</v>
       </c>
       <c r="AE16" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF16" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -2077,49 +2111,49 @@
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
       <c r="H17" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
       <c r="N17" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
       <c r="Q17" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R17" s="31"/>
       <c r="S17" s="31"/>
       <c r="T17" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
       <c r="W17" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
       <c r="Z17" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA17" s="9"/>
@@ -2133,11 +2167,11 @@
         <v>0</v>
       </c>
       <c r="AE17" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF17" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -2150,49 +2184,49 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
       <c r="H18" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
       <c r="N18" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
       <c r="Q18" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R18" s="31"/>
       <c r="S18" s="31"/>
       <c r="T18" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
       <c r="W18" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X18" s="31"/>
       <c r="Y18" s="31"/>
       <c r="Z18" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA18" s="9"/>
@@ -2206,11 +2240,11 @@
         <v>0</v>
       </c>
       <c r="AE18" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF18" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -2225,49 +2259,49 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
       <c r="N19" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
       <c r="Q19" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R19" s="31"/>
       <c r="S19" s="31"/>
       <c r="T19" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
       <c r="W19" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X19" s="31"/>
       <c r="Y19" s="31"/>
       <c r="Z19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA19" s="9"/>
@@ -2281,11 +2315,11 @@
         <v>0</v>
       </c>
       <c r="AE19" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF19" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG19"/>
@@ -2365,60 +2399,62 @@
     </row>
     <row r="20" spans="1:106" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E20" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="G20" s="31">
+        <v>0.125</v>
+      </c>
       <c r="H20" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L20" s="31"/>
       <c r="M20" s="31"/>
       <c r="N20" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
       <c r="Q20" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R20" s="31"/>
       <c r="S20" s="31"/>
       <c r="T20" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
       <c r="W20" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X20" s="31"/>
       <c r="Y20" s="31"/>
       <c r="Z20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA20" s="9"/>
@@ -2429,15 +2465,15 @@
       </c>
       <c r="AD20" s="32">
         <f t="shared" ref="AD20:AD29" si="22">SUM(AB20,Y20,V20,S20,P20,M20,J20,G20,D20)</f>
-        <v>4.1666666666666664E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="AE20" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF20" s="21">
-        <f t="shared" si="11"/>
-        <v>4.1666666666666664E-2</v>
+        <f t="shared" si="12"/>
+        <v>0.1875</v>
       </c>
       <c r="AG20"/>
       <c r="AH20"/>
@@ -2516,7 +2552,7 @@
     </row>
     <row r="21" spans="1:106" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2524,69 +2560,73 @@
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="E21" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G21" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="H21" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
       <c r="N21" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
       <c r="Q21" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R21" s="31"/>
       <c r="S21" s="31"/>
       <c r="T21" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
       <c r="W21" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X21" s="31"/>
       <c r="Y21" s="31"/>
       <c r="Z21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
       <c r="AC21" s="24">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" s="32">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AE21" s="21">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AF21" s="21">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AG21"/>
       <c r="AH21"/>
@@ -2664,76 +2704,82 @@
       <c r="DB21"/>
     </row>
     <row r="22" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+      <c r="A22" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="B22" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-      <c r="E22" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="E22" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F22" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G22" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H22" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
       <c r="N22" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
       <c r="Q22" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R22" s="31"/>
       <c r="S22" s="31"/>
       <c r="T22" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
       <c r="W22" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X22" s="31"/>
       <c r="Y22" s="31"/>
       <c r="Z22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
       <c r="AC22" s="24">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" s="32">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AE22" s="21">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AF22" s="21">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="23" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2745,49 +2791,49 @@
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="31"/>
       <c r="H23" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
       <c r="N23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
       <c r="Q23" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R23" s="31"/>
       <c r="S23" s="31"/>
       <c r="T23" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U23" s="9"/>
       <c r="V23" s="9"/>
       <c r="W23" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X23" s="31"/>
       <c r="Y23" s="31"/>
       <c r="Z23" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA23" s="9"/>
@@ -2801,11 +2847,11 @@
         <v>0</v>
       </c>
       <c r="AE23" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF23" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -2820,37 +2866,37 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="31"/>
       <c r="H24" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L24" s="31"/>
       <c r="M24" s="31"/>
       <c r="N24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R24" s="31"/>
       <c r="S24" s="31"/>
       <c r="T24" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U24" s="9"/>
@@ -2862,7 +2908,7 @@
       <c r="X24" s="31"/>
       <c r="Y24" s="31"/>
       <c r="Z24" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA24" s="9"/>
@@ -2876,207 +2922,213 @@
         <v>0</v>
       </c>
       <c r="AE24" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF24" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.22222222222222224</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E25" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="E25" s="5">
+        <f t="shared" si="2"/>
+        <v>0.44444444444444448</v>
       </c>
       <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="G25" s="31">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="3"/>
+        <v>0.33333333333333337</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9">
         <v>6.25E-2</v>
       </c>
       <c r="K25" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
       <c r="N25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R25" s="31"/>
       <c r="S25" s="31"/>
       <c r="T25" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
       <c r="W25" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X25" s="31"/>
       <c r="Y25" s="31"/>
       <c r="Z25" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
       <c r="AC25" s="24">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="AD25" s="32">
         <f t="shared" si="22"/>
-        <v>0.10416666666666666</v>
+        <v>0.18749999999999997</v>
       </c>
       <c r="AE25" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF25" s="21">
-        <f t="shared" si="11"/>
-        <v>0.10416666666666666</v>
+        <f t="shared" si="12"/>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="26" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.28571428571428575</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="E26" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="E26" s="5">
+        <f t="shared" si="2"/>
+        <v>0.28571428571428575</v>
       </c>
       <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="G26" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="3"/>
+        <v>0.4285714285714286</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9">
         <v>6.25E-2</v>
       </c>
       <c r="K26" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
       <c r="N26" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R26" s="31"/>
       <c r="S26" s="31"/>
       <c r="T26" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
       <c r="W26" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X26" s="31"/>
       <c r="Y26" s="31"/>
       <c r="Z26" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
       <c r="AC26" s="24">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="AD26" s="32">
         <f t="shared" si="22"/>
-        <v>0.10416666666666666</v>
+        <v>0.14583333333333331</v>
       </c>
       <c r="AE26" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF26" s="21">
-        <f t="shared" si="11"/>
-        <v>0.10416666666666666</v>
+        <f t="shared" si="12"/>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="27" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
-        <v>0.375</v>
+        <v>0.27272727272727276</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9">
         <v>6.25E-2</v>
       </c>
-      <c r="E27" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="E27" s="5">
+        <f t="shared" si="2"/>
+        <v>0.27272727272727276</v>
       </c>
       <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
+      <c r="G27" s="31">
+        <v>6.25E-2</v>
+      </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
-        <v>0.375</v>
+        <f t="shared" si="3"/>
+        <v>0.27272727272727276</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9">
         <v>6.25E-2</v>
       </c>
       <c r="K27" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
       <c r="N27" s="1">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
+        <f t="shared" si="5"/>
+        <v>0.18181818181818182</v>
       </c>
       <c r="O27" s="9">
         <v>2.0833333333333332E-2</v>
@@ -3085,25 +3137,25 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="Q27" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R27" s="31"/>
       <c r="S27" s="31"/>
       <c r="T27" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
       <c r="W27" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X27" s="31"/>
       <c r="Y27" s="31"/>
       <c r="Z27" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA27" s="9"/>
@@ -3114,24 +3166,24 @@
       </c>
       <c r="AD27" s="32">
         <f t="shared" si="22"/>
-        <v>0.16666666666666666</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="AE27" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF27" s="21">
-        <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="12"/>
+        <v>0.22916666666666666</v>
       </c>
     </row>
     <row r="28" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
-        <v>0.41666666666666669</v>
+        <v>0.27777777777777773</v>
       </c>
       <c r="C28" s="9">
         <v>2.0833333333333332E-2</v>
@@ -3139,15 +3191,19 @@
       <c r="D28" s="9">
         <v>0.10416666666666667</v>
       </c>
-      <c r="E28" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="E28" s="5">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="F28" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G28" s="31">
+        <v>0.125</v>
+      </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
-        <v>0.58333333333333337</v>
+        <f t="shared" si="3"/>
+        <v>0.38888888888888884</v>
       </c>
       <c r="I28" s="9">
         <v>3.4722222222222224E-2</v>
@@ -3156,56 +3212,56 @@
         <v>0.14583333333333334</v>
       </c>
       <c r="K28" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L28" s="31"/>
       <c r="M28" s="31"/>
       <c r="N28" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R28" s="31"/>
       <c r="S28" s="31"/>
       <c r="T28" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
       <c r="W28" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X28" s="31"/>
       <c r="Y28" s="31"/>
       <c r="Z28" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
       <c r="AC28" s="24">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="AD28" s="32">
         <f t="shared" si="22"/>
-        <v>0.25</v>
+        <v>0.37500000000000006</v>
       </c>
       <c r="AE28" s="21">
-        <f t="shared" si="10"/>
-        <v>5.5555555555555552E-2</v>
+        <f t="shared" si="11"/>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="AF28" s="21">
-        <f t="shared" si="11"/>
-        <v>0.25</v>
+        <f t="shared" si="12"/>
+        <v>0.375</v>
       </c>
     </row>
     <row r="29" spans="1:106" x14ac:dyDescent="0.25">
@@ -3219,49 +3275,49 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="31"/>
       <c r="H29" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
       <c r="N29" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
       <c r="Q29" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R29" s="31"/>
       <c r="S29" s="31"/>
       <c r="T29" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
       <c r="W29" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X29" s="31"/>
       <c r="Y29" s="31"/>
       <c r="Z29" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA29" s="9"/>
@@ -3275,355 +3331,330 @@
         <v>0</v>
       </c>
       <c r="AE29" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF29" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B30" si="23">IF(D30="", "",D30/AD30)</f>
         <v/>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
+      <c r="E30" s="5"/>
       <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
+      <c r="G30" s="31">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="H30" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H30" si="24">IF(J30="", "",J30/AD30)</f>
         <v/>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="K30" s="35"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="8"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
-      <c r="Q30" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="8"/>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
-      <c r="W30" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="W30" s="35"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="8"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
-      <c r="AC30" s="24">
-        <f t="shared" ref="AC30:AC49" si="23">SUM(Z30,W30,T30,Q30,N30,K30,H30,E30,B30)</f>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="32">
-        <f t="shared" ref="AD30:AD49" si="24">SUM(AB30,Y30,V30,S30,P30,M30,J30,G30,D30)</f>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="21">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="AC30" s="24"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="21"/>
+      <c r="AF30" s="21"/>
     </row>
     <row r="31" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="1">
+        <v>71</v>
+      </c>
+      <c r="B31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0.35714285714285715</v>
+        <v/>
       </c>
       <c r="C31" s="9"/>
-      <c r="D31" s="9">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="E31" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="1">
+      <c r="D31" s="9"/>
+      <c r="E31" s="5">
         <f t="shared" si="2"/>
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="I31" s="9">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="J31" s="9">
-        <v>6.25E-2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F31" s="31">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G31" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="H31" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
       <c r="K31" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
-      <c r="N31" s="1">
-        <f t="shared" si="4"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="O31" s="9">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="P31" s="9">
-        <v>0.125</v>
-      </c>
+      <c r="N31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
       <c r="Q31" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R31" s="31"/>
       <c r="S31" s="31"/>
       <c r="T31" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
       <c r="W31" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X31" s="31"/>
       <c r="Y31" s="31"/>
       <c r="Z31" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
       <c r="AC31" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="AC31:AC50" si="25">SUM(Z31,W31,T31,Q31,N31,K31,H31,E31,B31)</f>
         <v>1</v>
       </c>
       <c r="AD31" s="32">
-        <f t="shared" si="24"/>
-        <v>0.29166666666666669</v>
+        <f t="shared" ref="AD31:AD50" si="26">SUM(AB31,Y31,V31,S31,P31,M31,J31,G31,D31)</f>
+        <v>0.25</v>
       </c>
       <c r="AE31" s="21">
-        <f t="shared" si="10"/>
-        <v>0.10416666666666666</v>
+        <f t="shared" si="11"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AF31" s="21">
-        <f t="shared" si="11"/>
-        <v>0.29166666666666669</v>
+        <f t="shared" si="12"/>
+        <v>0.25</v>
       </c>
     </row>
     <row r="32" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C32" s="9">
-        <v>0.125</v>
-      </c>
+        <v>0.23809523809523808</v>
+      </c>
+      <c r="C32" s="9"/>
       <c r="D32" s="9">
-        <v>0.25</v>
-      </c>
-      <c r="E32" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="1" t="str">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E32" s="5">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F32" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="G32" s="31">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="3"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I32" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J32" s="9">
+        <v>6.25E-2</v>
+      </c>
       <c r="K32" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L32" s="31"/>
       <c r="M32" s="31"/>
-      <c r="N32" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
+      <c r="N32" s="1">
+        <f t="shared" si="5"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="O32" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P32" s="9">
+        <v>0.125</v>
+      </c>
       <c r="Q32" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R32" s="31"/>
       <c r="S32" s="31"/>
       <c r="T32" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
       <c r="W32" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X32" s="31"/>
       <c r="Y32" s="31"/>
       <c r="Z32" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
       <c r="AC32" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AD32" s="32">
-        <f t="shared" si="24"/>
-        <v>0.25</v>
+        <f t="shared" si="26"/>
+        <v>0.43750000000000006</v>
       </c>
       <c r="AE32" s="21">
-        <f t="shared" si="10"/>
-        <v>0.125</v>
+        <f t="shared" si="11"/>
+        <v>0.14583333333333331</v>
       </c>
       <c r="AF32" s="21">
-        <f t="shared" si="11"/>
-        <v>0.25</v>
+        <f t="shared" si="12"/>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="C33" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="C33" s="9">
+        <v>0.125</v>
+      </c>
       <c r="D33" s="9">
-        <v>6.25E-2</v>
+        <v>0.25</v>
       </c>
       <c r="E33" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
-      <c r="H33" s="1">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="I33" s="9">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="J33" s="9">
-        <v>6.25E-2</v>
-      </c>
+      <c r="H33" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
       <c r="K33" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
       <c r="N33" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R33" s="31"/>
       <c r="S33" s="31"/>
       <c r="T33" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
       <c r="W33" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X33" s="31"/>
       <c r="Y33" s="31"/>
       <c r="Z33" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
       <c r="AC33" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AD33" s="32">
-        <f t="shared" si="24"/>
-        <v>0.125</v>
+        <f t="shared" si="26"/>
+        <v>0.25</v>
       </c>
       <c r="AE33" s="21">
-        <f t="shared" si="10"/>
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="AF33" s="21">
         <f t="shared" si="11"/>
         <v>0.125</v>
       </c>
+      <c r="AF33" s="21">
+        <f t="shared" si="12"/>
+        <v>0.25</v>
+      </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E34" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="F34" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="G34" s="31">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
-        <v>0.60000000000000009</v>
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I34" s="9">
         <v>2.0833333333333332E-2</v>
@@ -3632,529 +3663,549 @@
         <v>6.25E-2</v>
       </c>
       <c r="K34" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L34" s="31"/>
       <c r="M34" s="31"/>
       <c r="N34" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R34" s="31"/>
       <c r="S34" s="31"/>
       <c r="T34" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
       <c r="W34" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X34" s="31"/>
       <c r="Y34" s="31"/>
       <c r="Z34" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AD34" s="32">
-        <f t="shared" si="24"/>
-        <v>0.10416666666666666</v>
+        <f t="shared" si="26"/>
+        <v>0.20833333333333331</v>
       </c>
       <c r="AE34" s="21">
-        <f t="shared" si="10"/>
-        <v>2.0833333333333332E-2</v>
+        <f t="shared" si="11"/>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AF34" s="21">
-        <f t="shared" si="11"/>
-        <v>0.10416666666666666</v>
+        <f t="shared" si="12"/>
+        <v>0.20833333333333331</v>
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C35" s="9">
+        <v>0.22222222222222224</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="2"/>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="D35" s="9">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E35" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="H35" s="1">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="I35" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J35" s="9">
+        <v>6.25E-2</v>
+      </c>
       <c r="K35" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L35" s="31"/>
       <c r="M35" s="31"/>
       <c r="N35" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R35" s="31"/>
       <c r="S35" s="31"/>
       <c r="T35" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
       <c r="W35" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X35" s="31"/>
       <c r="Y35" s="31"/>
       <c r="Z35" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
       <c r="AC35" s="24">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>1.0000000000000002</v>
       </c>
       <c r="AD35" s="32">
-        <f t="shared" si="24"/>
-        <v>0.20833333333333334</v>
+        <f t="shared" si="26"/>
+        <v>0.18749999999999997</v>
       </c>
       <c r="AE35" s="21">
-        <f t="shared" si="10"/>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" si="11"/>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF35" s="21">
-        <f t="shared" si="11"/>
-        <v>0.20833333333333334</v>
+        <f t="shared" si="12"/>
+        <v>0.1875</v>
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="1" t="str">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="C36" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E36" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I36" s="9">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="J36" s="9">
-        <v>0.625</v>
-      </c>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F36" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G36" s="31">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H36" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L36" s="31"/>
       <c r="M36" s="31"/>
       <c r="N36" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
       <c r="Q36" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R36" s="31"/>
       <c r="S36" s="31"/>
       <c r="T36" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
       <c r="W36" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X36" s="31"/>
       <c r="Y36" s="31"/>
       <c r="Z36" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
       <c r="AC36" s="24">
-        <f t="shared" ref="AC36:AC38" si="25">SUM(Z36,W36,T36,Q36,N36,K36,H36,E36,B36)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="AD36" s="32">
-        <f t="shared" ref="AD36:AD38" si="26">SUM(AB36,Y36,V36,S36,P36,M36,J36,G36,D36)</f>
-        <v>0.625</v>
+        <f t="shared" si="26"/>
+        <v>0.375</v>
       </c>
       <c r="AE36" s="21">
-        <f t="shared" si="10"/>
-        <v>0.20833333333333334</v>
+        <f t="shared" si="11"/>
+        <v>0.14583333333333331</v>
       </c>
       <c r="AF36" s="21">
-        <f t="shared" si="11"/>
-        <v>0.625</v>
+        <f t="shared" si="12"/>
+        <v>0.375</v>
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="1">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>0.21052631578947367</v>
+        <v/>
       </c>
       <c r="C37" s="9"/>
-      <c r="D37" s="9">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="E37" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="5">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
+      <c r="G37" s="31">
+        <v>6.25E-2</v>
+      </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
-        <v>0.78947368421052633</v>
+        <f t="shared" si="3"/>
+        <v>0.90909090909090906</v>
       </c>
       <c r="I37" s="9">
-        <v>2.0833333333333332E-2</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="J37" s="9">
-        <v>0.15625</v>
+        <v>0.625</v>
       </c>
       <c r="K37" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
       <c r="N37" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R37" s="31"/>
       <c r="S37" s="31"/>
       <c r="T37" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
       <c r="W37" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X37" s="31"/>
       <c r="Y37" s="31"/>
       <c r="Z37" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
       <c r="AC37" s="24">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="AC37:AC39" si="27">SUM(Z37,W37,T37,Q37,N37,K37,H37,E37,B37)</f>
         <v>1</v>
       </c>
       <c r="AD37" s="32">
-        <f t="shared" si="26"/>
-        <v>0.19791666666666666</v>
+        <f t="shared" ref="AD37:AD39" si="28">SUM(AB37,Y37,V37,S37,P37,M37,J37,G37,D37)</f>
+        <v>0.6875</v>
       </c>
       <c r="AE37" s="21">
-        <f t="shared" si="10"/>
-        <v>2.0833333333333332E-2</v>
+        <f t="shared" si="11"/>
+        <v>0.20833333333333334</v>
       </c>
       <c r="AF37" s="21">
-        <f t="shared" si="11"/>
-        <v>0.19791666666666666</v>
+        <f t="shared" si="12"/>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="B38" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C38" s="9">
-        <v>0.16666666666666666</v>
-      </c>
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="C38" s="9"/>
       <c r="D38" s="9">
-        <v>0.45833333333333331</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E38" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="31"/>
-      <c r="H38" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
+      <c r="H38" s="1">
+        <f t="shared" si="3"/>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="I38" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="J38" s="9">
+        <v>0.15625</v>
+      </c>
       <c r="K38" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L38" s="31"/>
       <c r="M38" s="31"/>
       <c r="N38" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R38" s="31"/>
       <c r="S38" s="31"/>
       <c r="T38" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
       <c r="W38" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X38" s="31"/>
       <c r="Y38" s="31"/>
       <c r="Z38" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
       <c r="AC38" s="24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="AD38" s="32">
-        <f t="shared" si="26"/>
-        <v>0.45833333333333331</v>
+        <f t="shared" si="28"/>
+        <v>0.19791666666666666</v>
       </c>
       <c r="AE38" s="21">
-        <f t="shared" si="10"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="11"/>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF38" s="21">
-        <f t="shared" si="11"/>
-        <v>0.45833333333333331</v>
+        <f t="shared" si="12"/>
+        <v>0.19791666666666666</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C39" s="9"/>
+        <v>0.42307692307692307</v>
+      </c>
+      <c r="C39" s="9">
+        <v>0.16666666666666666</v>
+      </c>
       <c r="D39" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="2"/>
+        <v>0.57692307692307698</v>
+      </c>
+      <c r="F39" s="31">
         <v>0.125</v>
       </c>
-      <c r="E39" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
+      <c r="G39" s="31">
+        <v>0.625</v>
+      </c>
       <c r="H39" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L39" s="31"/>
       <c r="M39" s="31"/>
       <c r="N39" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R39" s="31"/>
       <c r="S39" s="31"/>
       <c r="T39" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
       <c r="W39" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X39" s="31"/>
       <c r="Y39" s="31"/>
       <c r="Z39" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
       <c r="AC39" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="AD39" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="AE39" s="21">
+        <f t="shared" si="11"/>
+        <v>0.29166666666666663</v>
+      </c>
+      <c r="AF39" s="21">
+        <f t="shared" si="12"/>
+        <v>1.0833333333333333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9">
         <v>0.125</v>
       </c>
-      <c r="AE39" s="21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF39" s="21">
-        <f t="shared" ref="AF39:AF76" si="27">SUM(D39,G39,J39,M39,P39,S39,V39,Y39,AB39)</f>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="14"/>
-      <c r="B40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
       <c r="E40" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
+      <c r="G40" s="40"/>
       <c r="H40" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L40" s="31"/>
       <c r="M40" s="31"/>
       <c r="N40" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R40" s="31"/>
       <c r="S40" s="31"/>
       <c r="T40" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
       <c r="W40" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X40" s="31"/>
       <c r="Y40" s="31"/>
       <c r="Z40" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
       <c r="AC40" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="AD40" s="32">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>0.125</v>
       </c>
       <c r="AE40" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF40" s="21">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
-        <v>10</v>
+        <f t="shared" ref="AF40:AF77" si="29">SUM(D40,G40,J40,M40,P40,S40,V40,Y40,AB40)</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4162,151 +4213,153 @@
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
-      <c r="E41" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
+      <c r="E41" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F41" s="31">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="G41" s="31">
+        <v>0.125</v>
+      </c>
       <c r="H41" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L41" s="31"/>
       <c r="M41" s="31"/>
       <c r="N41" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R41" s="31"/>
       <c r="S41" s="31"/>
       <c r="T41" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
       <c r="W41" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X41" s="31"/>
       <c r="Y41" s="31"/>
       <c r="Z41" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
       <c r="AC41" s="24">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>1</v>
       </c>
       <c r="AD41" s="32">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>0.125</v>
       </c>
       <c r="AE41" s="21">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AF41" s="21">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>0.125</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="1">
+      <c r="A42" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="9">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="D42" s="9"/>
       <c r="E42" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="31"/>
       <c r="H42" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
       <c r="N42" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R42" s="31"/>
       <c r="S42" s="31"/>
       <c r="T42" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
       <c r="W42" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X42" s="31"/>
       <c r="Y42" s="31"/>
       <c r="Z42" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
       <c r="AC42" s="24">
-        <f t="shared" ref="AC42" si="28">SUM(Z42,W42,T42,Q42,N42,K42,H42,E42,B42)</f>
-        <v>1</v>
+        <f t="shared" si="25"/>
+        <v>0</v>
       </c>
       <c r="AD42" s="32">
-        <f t="shared" ref="AD42" si="29">SUM(AB42,Y42,V42,S42,P42,M42,J42,G42,D42)</f>
-        <v>4.1666666666666664E-2</v>
+        <f t="shared" si="26"/>
+        <v>0</v>
       </c>
       <c r="AE42" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF42" s="21">
-        <f t="shared" si="27"/>
-        <v>4.1666666666666664E-2</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1">
         <f t="shared" si="1"/>
@@ -4314,76 +4367,76 @@
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9">
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E43" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="31"/>
       <c r="H43" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
       <c r="N43" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R43" s="31"/>
       <c r="S43" s="31"/>
       <c r="T43" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
       <c r="W43" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X43" s="31"/>
       <c r="Y43" s="31"/>
       <c r="Z43" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
       <c r="AC43" s="24">
-        <f t="shared" ref="AC43:AC44" si="30">SUM(Z43,W43,T43,Q43,N43,K43,H43,E43,B43)</f>
+        <f t="shared" ref="AC43" si="30">SUM(Z43,W43,T43,Q43,N43,K43,H43,E43,B43)</f>
         <v>1</v>
       </c>
       <c r="AD43" s="32">
-        <f t="shared" ref="AD43:AD44" si="31">SUM(AB43,Y43,V43,S43,P43,M43,J43,G43,D43)</f>
-        <v>2.0833333333333332E-2</v>
+        <f t="shared" ref="AD43" si="31">SUM(AB43,Y43,V43,S43,P43,M43,J43,G43,D43)</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AE43" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF43" s="21">
-        <f t="shared" si="27"/>
-        <v>2.0833333333333332E-2</v>
+        <f t="shared" si="29"/>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1">
         <f t="shared" si="1"/>
@@ -4391,144 +4444,148 @@
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9">
-        <v>4.1666666666666664E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="E44" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F44" s="31"/>
       <c r="G44" s="31"/>
       <c r="H44" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L44" s="31"/>
       <c r="M44" s="31"/>
       <c r="N44" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
       <c r="Q44" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R44" s="31"/>
       <c r="S44" s="31"/>
       <c r="T44" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
       <c r="W44" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X44" s="31"/>
       <c r="Y44" s="31"/>
       <c r="Z44" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
       <c r="AC44" s="24">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="AC44:AC45" si="32">SUM(Z44,W44,T44,Q44,N44,K44,H44,E44,B44)</f>
         <v>1</v>
       </c>
       <c r="AD44" s="32">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="AD44:AD45" si="33">SUM(AB44,Y44,V44,S44,P44,M44,J44,G44,D44)</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="AE44" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="21">
+        <f t="shared" si="29"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AE44" s="21">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AF44" s="21">
-        <f t="shared" si="27"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
       <c r="E45" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="31"/>
       <c r="H45" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L45" s="31"/>
       <c r="M45" s="31"/>
       <c r="N45" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
       <c r="Q45" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R45" s="31"/>
       <c r="S45" s="31"/>
       <c r="T45" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
       <c r="W45" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X45" s="31"/>
       <c r="Y45" s="31"/>
       <c r="Z45" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
       <c r="AC45" s="24">
-        <f t="shared" ref="AC45:AC46" si="32">SUM(Z45,W45,T45,Q45,N45,K45,H45,E45,B45)</f>
-        <v>0</v>
+        <f t="shared" si="32"/>
+        <v>1</v>
       </c>
       <c r="AD45" s="32">
-        <f t="shared" ref="AD45:AD46" si="33">SUM(AB45,Y45,V45,S45,P45,M45,J45,G45,D45)</f>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AE45" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF45" s="21">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
@@ -4540,67 +4597,67 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="31"/>
       <c r="H46" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L46" s="31"/>
       <c r="M46" s="31"/>
       <c r="N46" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R46" s="31"/>
       <c r="S46" s="31"/>
       <c r="T46" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
       <c r="W46" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X46" s="31"/>
       <c r="Y46" s="31"/>
       <c r="Z46" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
       <c r="AC46" s="24">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="AC46:AC47" si="34">SUM(Z46,W46,T46,Q46,N46,K46,H46,E46,B46)</f>
         <v>0</v>
       </c>
       <c r="AD46" s="32">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="AD46:AD47" si="35">SUM(AB46,Y46,V46,S46,P46,M46,J46,G46,D46)</f>
         <v>0</v>
       </c>
       <c r="AE46" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF46" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -4613,67 +4670,67 @@
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="31"/>
       <c r="H47" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L47" s="31"/>
       <c r="M47" s="31"/>
       <c r="N47" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
       <c r="Q47" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
       <c r="T47" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
       <c r="W47" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X47" s="31"/>
       <c r="Y47" s="31"/>
       <c r="Z47" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA47" s="9"/>
       <c r="AB47" s="9"/>
       <c r="AC47" s="24">
-        <f t="shared" ref="AC47:AC48" si="34">SUM(Z47,W47,T47,Q47,N47,K47,H47,E47,B47)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AD47" s="32">
-        <f t="shared" ref="AD47:AD48" si="35">SUM(AB47,Y47,V47,S47,P47,M47,J47,G47,D47)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AE47" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF47" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -4686,71 +4743,71 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="31"/>
       <c r="H48" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L48" s="31"/>
       <c r="M48" s="31"/>
       <c r="N48" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
       <c r="Q48" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R48" s="31"/>
       <c r="S48" s="31"/>
       <c r="T48" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
       <c r="W48" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X48" s="31"/>
       <c r="Y48" s="31"/>
       <c r="Z48" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA48" s="9"/>
       <c r="AB48" s="9"/>
       <c r="AC48" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="AC48:AC49" si="36">SUM(Z48,W48,T48,Q48,N48,K48,H48,E48,B48)</f>
         <v>0</v>
       </c>
       <c r="AD48" s="32">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="AD48:AD49" si="37">SUM(AB48,Y48,V48,S48,P48,M48,J48,G48,D48)</f>
         <v>0</v>
       </c>
       <c r="AE48" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF48" s="21">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4759,74 +4816,72 @@
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F49" s="31"/>
       <c r="G49" s="31"/>
       <c r="H49" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L49" s="31"/>
       <c r="M49" s="31"/>
       <c r="N49" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
       <c r="Q49" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R49" s="31"/>
       <c r="S49" s="31"/>
       <c r="T49" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
       <c r="W49" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X49" s="31"/>
       <c r="Y49" s="31"/>
       <c r="Z49" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA49" s="9"/>
       <c r="AB49" s="9"/>
       <c r="AC49" s="24">
-        <f t="shared" si="23"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AD49" s="32">
-        <f t="shared" si="24"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AE49" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF49" s="21">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>11</v>
-      </c>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
       <c r="B50" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4834,73 +4889,73 @@
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F50" s="31"/>
       <c r="G50" s="31"/>
       <c r="H50" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L50" s="31"/>
       <c r="M50" s="31"/>
       <c r="N50" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
       <c r="Q50" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R50" s="31"/>
       <c r="S50" s="31"/>
       <c r="T50" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
       <c r="W50" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X50" s="31"/>
       <c r="Y50" s="31"/>
       <c r="Z50" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA50" s="9"/>
       <c r="AB50" s="9"/>
       <c r="AC50" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AD50" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AE50" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF50" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
-        <v>47</v>
+      <c r="A51" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="B51" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4909,75 +4964,73 @@
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F51" s="31"/>
       <c r="G51" s="31"/>
       <c r="H51" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L51" s="31"/>
       <c r="M51" s="31"/>
-      <c r="N51" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
+      <c r="N51" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
       <c r="O51" s="9"/>
-      <c r="P51" s="9">
-        <v>0.125</v>
-      </c>
+      <c r="P51" s="9"/>
       <c r="Q51" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R51" s="31"/>
       <c r="S51" s="31"/>
       <c r="T51" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
       <c r="W51" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X51" s="31"/>
       <c r="Y51" s="31"/>
       <c r="Z51" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA51" s="9"/>
       <c r="AB51" s="9"/>
       <c r="AC51" s="24">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD51" s="32">
         <f t="shared" si="18"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF51" s="21">
-        <f t="shared" si="27"/>
-        <v>0.125</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B52" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4986,73 +5039,75 @@
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F52" s="31"/>
       <c r="G52" s="31"/>
       <c r="H52" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L52" s="31"/>
       <c r="M52" s="31"/>
-      <c r="N52" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+      <c r="N52" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
+      <c r="P52" s="9">
+        <v>0.125</v>
+      </c>
       <c r="Q52" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R52" s="31"/>
       <c r="S52" s="31"/>
       <c r="T52" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
       <c r="W52" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X52" s="31"/>
       <c r="Y52" s="31"/>
       <c r="Z52" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA52" s="9"/>
       <c r="AB52" s="9"/>
       <c r="AC52" s="24">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" s="32">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AE52" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF52" s="21">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>0.125</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B53" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5061,77 +5116,73 @@
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
       <c r="E53" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F53" s="31"/>
       <c r="G53" s="31"/>
       <c r="H53" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L53" s="31"/>
       <c r="M53" s="31"/>
-      <c r="N53" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O53" s="9">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="P53" s="9">
-        <v>0.125</v>
-      </c>
+      <c r="N53" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
       <c r="Q53" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R53" s="31"/>
       <c r="S53" s="31"/>
       <c r="T53" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
       <c r="W53" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X53" s="31"/>
       <c r="Y53" s="31"/>
       <c r="Z53" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
       <c r="AC53" s="24">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD53" s="32">
         <f t="shared" si="18"/>
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="21">
-        <f t="shared" si="10"/>
-        <v>4.1666666666666664E-2</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="AF53" s="21">
-        <f t="shared" si="27"/>
-        <v>0.125</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B54" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5140,73 +5191,77 @@
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
       <c r="E54" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F54" s="31"/>
       <c r="G54" s="31"/>
       <c r="H54" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L54" s="31"/>
       <c r="M54" s="31"/>
-      <c r="N54" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
+      <c r="N54" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O54" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="P54" s="9">
+        <v>0.125</v>
+      </c>
       <c r="Q54" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R54" s="31"/>
       <c r="S54" s="31"/>
       <c r="T54" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U54" s="9"/>
       <c r="V54" s="9"/>
       <c r="W54" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X54" s="31"/>
       <c r="Y54" s="31"/>
       <c r="Z54" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA54" s="9"/>
       <c r="AB54" s="9"/>
       <c r="AC54" s="24">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" s="32">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="AE54" s="21">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AF54" s="21">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>0.125</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="34" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B55" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5215,49 +5270,49 @@
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
       <c r="E55" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F55" s="31"/>
       <c r="G55" s="31"/>
       <c r="H55" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L55" s="31"/>
       <c r="M55" s="31"/>
       <c r="N55" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O55" s="9"/>
       <c r="P55" s="9"/>
       <c r="Q55" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R55" s="31"/>
       <c r="S55" s="31"/>
       <c r="T55" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
       <c r="W55" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X55" s="31"/>
       <c r="Y55" s="31"/>
       <c r="Z55" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA55" s="9"/>
@@ -5271,65 +5326,96 @@
         <v>0</v>
       </c>
       <c r="AE55" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF55" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="B56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="8"/>
+      <c r="E56" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F56" s="31">
+        <v>1.7361111111111112E-2</v>
+      </c>
+      <c r="G56" s="31">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H56" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="36"/>
-      <c r="N56" s="8"/>
+      <c r="K56" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="36"/>
-      <c r="S56" s="36"/>
-      <c r="T56" s="8"/>
+      <c r="Q56" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+      <c r="T56" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="U56" s="9"/>
       <c r="V56" s="9"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="36"/>
-      <c r="Y56" s="36"/>
-      <c r="Z56" s="8"/>
+      <c r="W56" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="X56" s="31"/>
+      <c r="Y56" s="31"/>
+      <c r="Z56" s="8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
       <c r="AC56" s="24">
-        <f t="shared" ref="AC56:AC61" si="36">SUM(Z56,W56,T56,Q56,N56,K56,H56,E56,B56)</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="AD56" s="32">
-        <f t="shared" ref="AD56:AD61" si="37">SUM(AB56,Y56,V56,S56,P56,M56,J56,G56,D56)</f>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>6.25E-2</v>
       </c>
       <c r="AE56" s="21">
-        <f t="shared" ref="AE56:AE61" si="38">SUM(C56,F56,I56,L56,O56,R56,U56,X56,AA56)</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="AF56" s="21">
-        <f t="shared" ref="AF56:AF61" si="39">SUM(D56,G56,J56,M56,P56,S56,V56,Y56,AB56)</f>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="34" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
@@ -5359,31 +5445,29 @@
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
       <c r="AC57" s="24">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="AC57:AC62" si="38">SUM(Z57,W57,T57,Q57,N57,K57,H57,E57,B57)</f>
         <v>0</v>
       </c>
       <c r="AD57" s="32">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="AD57:AD62" si="39">SUM(AB57,Y57,V57,S57,P57,M57,J57,G57,D57)</f>
         <v>0</v>
       </c>
       <c r="AE57" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="AE57:AE62" si="40">SUM(C57,F57,I57,L57,O57,R57,U57,X57,AA57)</f>
         <v>0</v>
       </c>
       <c r="AF57" s="21">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="AF57:AF62" si="41">SUM(D57,G57,J57,M57,P57,S57,V57,Y57,AB57)</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="34" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="9">
-        <v>6.25E-2</v>
-      </c>
+      <c r="D58" s="9"/>
       <c r="E58" s="35"/>
       <c r="F58" s="36"/>
       <c r="G58" s="36"/>
@@ -5409,40 +5493,37 @@
       <c r="AA58" s="9"/>
       <c r="AB58" s="9"/>
       <c r="AC58" s="24">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AD58" s="32">
-        <f t="shared" si="37"/>
-        <v>6.25E-2</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="AE58" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AF58" s="21">
-        <f t="shared" si="39"/>
-        <v>6.25E-2</v>
+        <f t="shared" si="41"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="34" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B59" s="8"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
+      <c r="D59" s="9">
+        <v>6.25E-2</v>
+      </c>
       <c r="E59" s="35"/>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
-      <c r="H59" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="H59" s="8"/>
       <c r="I59" s="9"/>
-      <c r="J59" s="9">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="J59" s="9"/>
       <c r="K59" s="35"/>
       <c r="L59" s="36"/>
       <c r="M59" s="36"/>
@@ -5462,25 +5543,25 @@
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
       <c r="AC59" s="24">
-        <f t="shared" si="36"/>
-        <v>1</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="AD59" s="32">
-        <f t="shared" si="37"/>
-        <v>4.1666666666666664E-2</v>
+        <f t="shared" si="39"/>
+        <v>6.25E-2</v>
       </c>
       <c r="AE59" s="21">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="AF59" s="21">
-        <f t="shared" si="39"/>
-        <v>4.1666666666666664E-2</v>
+        <f t="shared" si="41"/>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="34" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
@@ -5488,19 +5569,20 @@
       <c r="E60" s="35"/>
       <c r="F60" s="36"/>
       <c r="G60" s="36"/>
-      <c r="H60" s="8"/>
+      <c r="H60" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
+      <c r="J60" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="K60" s="35"/>
       <c r="L60" s="36"/>
       <c r="M60" s="36"/>
       <c r="N60" s="8"/>
-      <c r="O60" s="9">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="P60" s="9">
-        <v>0.41666666666666669</v>
-      </c>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
       <c r="Q60" s="35"/>
       <c r="R60" s="36"/>
       <c r="S60" s="36"/>
@@ -5514,25 +5596,25 @@
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
       <c r="AC60" s="24">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1</v>
       </c>
       <c r="AD60" s="32">
-        <f t="shared" si="37"/>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="39"/>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AE60" s="21">
-        <f t="shared" si="38"/>
-        <v>0.20833333333333334</v>
+        <f t="shared" si="40"/>
+        <v>0</v>
       </c>
       <c r="AF60" s="21">
-        <f t="shared" si="39"/>
-        <v>0.41666666666666669</v>
+        <f t="shared" si="41"/>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
@@ -5548,10 +5630,10 @@
       <c r="M61" s="36"/>
       <c r="N61" s="8"/>
       <c r="O61" s="9">
-        <v>8.3333333333333329E-2</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="P61" s="9">
-        <v>0.16666666666666666</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="Q61" s="35"/>
       <c r="R61" s="36"/>
@@ -5566,100 +5648,77 @@
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
       <c r="AC61" s="24">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AD61" s="32">
-        <f t="shared" si="37"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="39"/>
+        <v>0.41666666666666669</v>
       </c>
       <c r="AE61" s="21">
-        <f t="shared" si="38"/>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" si="40"/>
+        <v>0.20833333333333334</v>
       </c>
       <c r="AF61" s="21">
-        <f t="shared" si="39"/>
-        <v>0.16666666666666666</v>
+        <f t="shared" si="41"/>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="62" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B62" s="8"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="E62" s="35"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="8"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
-      <c r="K62" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O62" s="9"/>
-      <c r="P62" s="9"/>
-      <c r="Q62" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R62" s="31"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
+      <c r="K62" s="35"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P62" s="9">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q62" s="35"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="8"/>
       <c r="U62" s="9"/>
       <c r="V62" s="9"/>
-      <c r="W62" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X62" s="31"/>
-      <c r="Y62" s="31"/>
-      <c r="Z62" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="W62" s="35"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="36"/>
+      <c r="Z62" s="8"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
       <c r="AC62" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AD62" s="32">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AE62" s="21">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AF62" s="21">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B63" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5668,77 +5727,73 @@
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F63" s="31"/>
       <c r="G63" s="31"/>
       <c r="H63" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L63" s="31"/>
       <c r="M63" s="31"/>
-      <c r="N63" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O63" s="9">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="P63" s="9">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="N63" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
       <c r="Q63" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R63" s="31"/>
       <c r="S63" s="31"/>
       <c r="T63" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U63" s="9"/>
       <c r="V63" s="9"/>
       <c r="W63" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X63" s="31"/>
       <c r="Y63" s="31"/>
       <c r="Z63" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
       <c r="AC63" s="24">
-        <f t="shared" ref="AC63:AC66" si="40">SUM(Z63,W63,T63,Q63,N63,K63,H63,E63,B63)</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="AD63" s="32">
-        <f t="shared" ref="AD63:AD66" si="41">SUM(AB63,Y63,V63,S63,P63,M63,J63,G63,D63)</f>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="AE63" s="21">
-        <f t="shared" si="10"/>
-        <v>2.0833333333333332E-2</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="AF63" s="21">
-        <f t="shared" si="27"/>
-        <v>8.3333333333333329E-2</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="34" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B64" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5747,310 +5802,312 @@
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
       <c r="E64" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F64" s="31"/>
       <c r="G64" s="31"/>
       <c r="H64" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L64" s="31"/>
       <c r="M64" s="31"/>
       <c r="N64" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="O64" s="9">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="P64" s="9">
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="Q64" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R64" s="31"/>
       <c r="S64" s="31"/>
       <c r="T64" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U64" s="9"/>
       <c r="V64" s="9"/>
       <c r="W64" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X64" s="31"/>
       <c r="Y64" s="31"/>
       <c r="Z64" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
       <c r="AC64" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="AC64:AC67" si="42">SUM(Z64,W64,T64,Q64,N64,K64,H64,E64,B64)</f>
         <v>1</v>
       </c>
       <c r="AD64" s="32">
-        <f t="shared" si="41"/>
-        <v>4.1666666666666664E-2</v>
+        <f t="shared" ref="AD64:AD67" si="43">SUM(AB64,Y64,V64,S64,P64,M64,J64,G64,D64)</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AE64" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF64" s="21">
-        <f t="shared" si="27"/>
-        <v>4.1666666666666664E-2</v>
+        <f t="shared" si="29"/>
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="1">
+        <v>57</v>
+      </c>
+      <c r="B65" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="C65" s="9">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D65" s="9">
-        <v>0.10416666666666667</v>
-      </c>
+        <v/>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
       <c r="E65" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F65" s="31"/>
       <c r="G65" s="31"/>
       <c r="H65" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L65" s="31"/>
       <c r="M65" s="31"/>
-      <c r="N65" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
+      <c r="N65" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O65" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="P65" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="Q65" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
       <c r="T65" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U65" s="9"/>
       <c r="V65" s="9"/>
       <c r="W65" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X65" s="31"/>
       <c r="Y65" s="31"/>
       <c r="Z65" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
       <c r="AC65" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="AD65" s="32">
-        <f t="shared" si="41"/>
-        <v>0.10416666666666667</v>
+        <f t="shared" si="43"/>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AE65" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF65" s="21">
-        <f t="shared" si="27"/>
-        <v>0.10416666666666667</v>
+        <f t="shared" si="29"/>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C66" s="9"/>
+      <c r="C66" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="D66" s="9">
-        <v>4.1666666666666664E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="E66" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="31"/>
       <c r="H66" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L66" s="31"/>
       <c r="M66" s="31"/>
       <c r="N66" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O66" s="9"/>
       <c r="P66" s="9"/>
       <c r="Q66" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R66" s="31"/>
       <c r="S66" s="31"/>
       <c r="T66" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U66" s="9"/>
       <c r="V66" s="9"/>
       <c r="W66" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X66" s="31"/>
       <c r="Y66" s="31"/>
       <c r="Z66" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
       <c r="AC66" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="AD66" s="32">
-        <f t="shared" si="41"/>
-        <v>4.1666666666666664E-2</v>
+        <f t="shared" si="43"/>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AE66" s="21">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF66" s="21">
-        <f t="shared" si="27"/>
-        <v>4.1666666666666664E-2</v>
+        <f t="shared" si="29"/>
+        <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" s="1" t="str">
+        <v>59</v>
+      </c>
+      <c r="B67" s="1">
         <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
+      <c r="D67" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="E67" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F67" s="31"/>
       <c r="G67" s="31"/>
-      <c r="H67" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
+      <c r="H67" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="I67" s="9"/>
-      <c r="J67" s="9">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="J67" s="9"/>
       <c r="K67" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L67" s="31"/>
       <c r="M67" s="31"/>
       <c r="N67" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O67" s="9"/>
       <c r="P67" s="9"/>
       <c r="Q67" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R67" s="31"/>
       <c r="S67" s="31"/>
       <c r="T67" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U67" s="9"/>
       <c r="V67" s="9"/>
       <c r="W67" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X67" s="31"/>
       <c r="Y67" s="31"/>
       <c r="Z67" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
       <c r="AC67" s="24">
-        <f t="shared" ref="AC67:AC69" si="42">SUM(Z67,W67,T67,Q67,N67,K67,H67,E67,B67)</f>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="AD67" s="32">
-        <f t="shared" ref="AD67:AD69" si="43">SUM(AB67,Y67,V67,S67,P67,M67,J67,G67,D67)</f>
+        <f t="shared" si="43"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="AE67" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF67" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B68" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6059,77 +6116,75 @@
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
       <c r="E68" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="31"/>
-      <c r="H68" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="H68" s="1">
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
+      <c r="J68" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="K68" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L68" s="31"/>
       <c r="M68" s="31"/>
-      <c r="N68" s="1">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="O68" s="9">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="P68" s="9">
-        <v>0.83333333333333337</v>
-      </c>
+      <c r="N68" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
       <c r="Q68" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R68" s="31"/>
       <c r="S68" s="31"/>
       <c r="T68" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U68" s="9"/>
       <c r="V68" s="9"/>
       <c r="W68" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X68" s="31"/>
       <c r="Y68" s="31"/>
       <c r="Z68" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA68" s="9"/>
       <c r="AB68" s="9"/>
       <c r="AC68" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="AC68:AC70" si="44">SUM(Z68,W68,T68,Q68,N68,K68,H68,E68,B68)</f>
         <v>1</v>
       </c>
       <c r="AD68" s="32">
-        <f t="shared" si="43"/>
-        <v>0.83333333333333337</v>
+        <f t="shared" ref="AD68:AD70" si="45">SUM(AB68,Y68,V68,S68,P68,M68,J68,G68,D68)</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AE68" s="21">
-        <f t="shared" si="10"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="AF68" s="21">
-        <f t="shared" si="27"/>
-        <v>0.83333333333333337</v>
+        <f t="shared" si="29"/>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="34" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B69" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6138,293 +6193,303 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F69" s="31"/>
       <c r="G69" s="31"/>
       <c r="H69" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L69" s="31"/>
       <c r="M69" s="31"/>
-      <c r="N69" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O69" s="9"/>
-      <c r="P69" s="9"/>
+      <c r="N69" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O69" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="P69" s="9">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="Q69" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
       <c r="T69" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U69" s="9"/>
       <c r="V69" s="9"/>
       <c r="W69" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X69" s="31"/>
       <c r="Y69" s="31"/>
       <c r="Z69" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
       <c r="AC69" s="24">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>1</v>
       </c>
       <c r="AD69" s="32">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AE69" s="21">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="AF69" s="21">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B70" s="1">
+        <v>62</v>
+      </c>
+      <c r="B70" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="C70" s="9"/>
-      <c r="D70" s="9">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="D70" s="9"/>
       <c r="E70" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F70" s="31"/>
       <c r="G70" s="31"/>
       <c r="H70" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L70" s="31"/>
       <c r="M70" s="31"/>
       <c r="N70" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O70" s="9"/>
       <c r="P70" s="9"/>
       <c r="Q70" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R70" s="31"/>
       <c r="S70" s="31"/>
       <c r="T70" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U70" s="9"/>
       <c r="V70" s="9"/>
       <c r="W70" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X70" s="31"/>
       <c r="Y70" s="31"/>
       <c r="Z70" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
       <c r="AC70" s="24">
-        <f t="shared" ref="AC70:AC73" si="44">SUM(Z70,W70,T70,Q70,N70,K70,H70,E70,B70)</f>
-        <v>1</v>
+        <f t="shared" si="44"/>
+        <v>0</v>
       </c>
       <c r="AD70" s="32">
-        <f t="shared" ref="AD70:AD73" si="45">SUM(AB70,Y70,V70,S70,P70,M70,J70,G70,D70)</f>
-        <v>2.0833333333333332E-2</v>
+        <f t="shared" si="45"/>
+        <v>0</v>
       </c>
       <c r="AE70" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF70" s="21">
-        <f t="shared" si="27"/>
-        <v>2.0833333333333332E-2</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="B71" s="1" t="str">
+        <v>63</v>
+      </c>
+      <c r="B71" s="1">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="D71" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="E71" s="5">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
       </c>
       <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
+      <c r="G71" s="31">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="H71" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L71" s="31"/>
       <c r="M71" s="31"/>
       <c r="N71" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O71" s="9"/>
       <c r="P71" s="9"/>
       <c r="Q71" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R71" s="31"/>
       <c r="S71" s="31"/>
       <c r="T71" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U71" s="9"/>
       <c r="V71" s="9"/>
       <c r="W71" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X71" s="31"/>
       <c r="Y71" s="31"/>
       <c r="Z71" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
       <c r="AC71" s="24">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <f t="shared" ref="AC71:AC74" si="46">SUM(Z71,W71,T71,Q71,N71,K71,H71,E71,B71)</f>
+        <v>1</v>
       </c>
       <c r="AD71" s="32">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" ref="AD71:AD74" si="47">SUM(AB71,Y71,V71,S71,P71,M71,J71,G71,D71)</f>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AE71" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF71" s="21">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
+      <c r="A72" s="34" t="s">
+        <v>64</v>
+      </c>
       <c r="B72" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
-      <c r="E72" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+      <c r="E72" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
+      <c r="G72" s="31">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="H72" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L72" s="31"/>
       <c r="M72" s="31"/>
       <c r="N72" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O72" s="9"/>
       <c r="P72" s="9"/>
       <c r="Q72" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R72" s="31"/>
       <c r="S72" s="31"/>
       <c r="T72" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U72" s="9"/>
       <c r="V72" s="9"/>
       <c r="W72" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X72" s="31"/>
       <c r="Y72" s="31"/>
       <c r="Z72" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
       <c r="AC72" s="24">
-        <f t="shared" si="44"/>
-        <v>0</v>
+        <f t="shared" si="46"/>
+        <v>1</v>
       </c>
       <c r="AD72" s="32">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" si="47"/>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AE72" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF72" s="21">
-        <f t="shared" si="27"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
@@ -6436,67 +6501,67 @@
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F73" s="31"/>
       <c r="G73" s="31"/>
       <c r="H73" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L73" s="31"/>
       <c r="M73" s="31"/>
       <c r="N73" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O73" s="9"/>
       <c r="P73" s="9"/>
       <c r="Q73" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R73" s="31"/>
       <c r="S73" s="31"/>
       <c r="T73" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U73" s="9"/>
       <c r="V73" s="9"/>
       <c r="W73" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X73" s="31"/>
       <c r="Y73" s="31"/>
       <c r="Z73" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA73" s="9"/>
       <c r="AB73" s="9"/>
       <c r="AC73" s="24">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AD73" s="32">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AE73" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF73" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -6509,71 +6574,71 @@
       <c r="C74" s="9"/>
       <c r="D74" s="9"/>
       <c r="E74" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F74" s="31"/>
       <c r="G74" s="31"/>
       <c r="H74" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L74" s="31"/>
       <c r="M74" s="31"/>
       <c r="N74" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O74" s="9"/>
       <c r="P74" s="9"/>
       <c r="Q74" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R74" s="31"/>
       <c r="S74" s="31"/>
       <c r="T74" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U74" s="9"/>
       <c r="V74" s="9"/>
       <c r="W74" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X74" s="31"/>
       <c r="Y74" s="31"/>
       <c r="Z74" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA74" s="9"/>
       <c r="AB74" s="9"/>
       <c r="AC74" s="24">
-        <f t="shared" ref="AC74:AC75" si="46">SUM(Z74,W74,T74,Q74,N74,K74,H74,E74,B74)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="AD74" s="32">
-        <f t="shared" ref="AD74:AD75" si="47">SUM(AB74,Y74,V74,S74,P74,M74,J74,G74,D74)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="AE74" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF74" s="21">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
       <c r="B75" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6582,74 +6647,72 @@
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F75" s="31"/>
       <c r="G75" s="31"/>
       <c r="H75" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L75" s="31"/>
       <c r="M75" s="31"/>
       <c r="N75" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O75" s="9"/>
       <c r="P75" s="9"/>
       <c r="Q75" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R75" s="31"/>
       <c r="S75" s="31"/>
       <c r="T75" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U75" s="9"/>
       <c r="V75" s="9"/>
       <c r="W75" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X75" s="31"/>
       <c r="Y75" s="31"/>
       <c r="Z75" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
       <c r="AC75" s="24">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="AC75:AC76" si="48">SUM(Z75,W75,T75,Q75,N75,K75,H75,E75,B75)</f>
         <v>0</v>
       </c>
       <c r="AD75" s="32">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="AD75:AD76" si="49">SUM(AB75,Y75,V75,S75,P75,M75,J75,G75,D75)</f>
         <v>0</v>
       </c>
       <c r="AE75" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF75" s="21">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
-        <v>68</v>
-      </c>
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="14"/>
       <c r="B76" s="1" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -6657,122 +6720,124 @@
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
       <c r="E76" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F76" s="31"/>
       <c r="G76" s="31"/>
       <c r="H76" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L76" s="31"/>
       <c r="M76" s="31"/>
       <c r="N76" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O76" s="9"/>
       <c r="P76" s="9"/>
       <c r="Q76" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R76" s="31"/>
       <c r="S76" s="31"/>
       <c r="T76" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U76" s="9"/>
       <c r="V76" s="9"/>
       <c r="W76" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X76" s="31"/>
       <c r="Y76" s="31"/>
       <c r="Z76" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
       <c r="AC76" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AD76" s="32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AE76" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF76" s="21">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+      <c r="A77" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="B77" s="1" t="str">
-        <f t="shared" ref="B77:B85" si="48">IF(D77="", "",D77/AD77)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="9"/>
       <c r="E77" s="5" t="str">
-        <f t="shared" ref="E77:E85" si="49">IF(G77="", "",G77/AD77)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F77" s="31"/>
       <c r="G77" s="31"/>
       <c r="H77" s="1" t="str">
-        <f t="shared" ref="H77:H85" si="50">IF(J77="", "",J77/AD77)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="5" t="str">
-        <f t="shared" ref="K77:K85" si="51">IF(M77="", "",M77/AD77)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L77" s="31"/>
       <c r="M77" s="31"/>
       <c r="N77" s="1" t="str">
-        <f t="shared" ref="N77:N85" si="52">IF(P77="", "",P77/AD77)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O77" s="9"/>
       <c r="P77" s="9"/>
       <c r="Q77" s="5" t="str">
-        <f t="shared" ref="Q77:Q85" si="53">IF(S77="", "",S77/AD77)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="R77" s="31"/>
       <c r="S77" s="31"/>
       <c r="T77" s="1" t="str">
-        <f t="shared" ref="T77:T85" si="54">IF(V77="", "",V77/AD77)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U77" s="9"/>
       <c r="V77" s="9"/>
       <c r="W77" s="5" t="str">
-        <f t="shared" ref="W77:W85" si="55">IF(Y77="", "",Y77/AD77)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="X77" s="31"/>
       <c r="Y77" s="31"/>
       <c r="Z77" s="8" t="str">
-        <f t="shared" ref="Z77:Z85" si="56">IF(AB77="", "",AB77/AD77)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA77" s="9"/>
@@ -6786,66 +6851,66 @@
         <v>0</v>
       </c>
       <c r="AE77" s="21">
-        <f t="shared" ref="AE77:AE85" si="57">SUM(C77,F77,I77,L77,O77,R77,U77,X77,AA77)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF77" s="21">
-        <f t="shared" ref="AF77:AF85" si="58">SUM(D77,G77,J77,M77,P77,S77,V77,Y77,AB77)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="B78:B86" si="50">IF(D78="", "",D78/AD78)</f>
         <v/>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
       <c r="E78" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="E78:E86" si="51">IF(G78="", "",G78/AD78)</f>
         <v/>
       </c>
       <c r="F78" s="31"/>
       <c r="G78" s="31"/>
       <c r="H78" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="H78:H86" si="52">IF(J78="", "",J78/AD78)</f>
         <v/>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="K78:K86" si="53">IF(M78="", "",M78/AD78)</f>
         <v/>
       </c>
       <c r="L78" s="31"/>
       <c r="M78" s="31"/>
       <c r="N78" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="N78:N86" si="54">IF(P78="", "",P78/AD78)</f>
         <v/>
       </c>
       <c r="O78" s="9"/>
       <c r="P78" s="9"/>
       <c r="Q78" s="5" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="Q78:Q86" si="55">IF(S78="", "",S78/AD78)</f>
         <v/>
       </c>
       <c r="R78" s="31"/>
       <c r="S78" s="31"/>
       <c r="T78" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="T78:T86" si="56">IF(V78="", "",V78/AD78)</f>
         <v/>
       </c>
       <c r="U78" s="9"/>
       <c r="V78" s="9"/>
       <c r="W78" s="5" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="W78:W86" si="57">IF(Y78="", "",Y78/AD78)</f>
         <v/>
       </c>
       <c r="X78" s="31"/>
       <c r="Y78" s="31"/>
       <c r="Z78" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="Z78:Z86" si="58">IF(AB78="", "",AB78/AD78)</f>
         <v/>
       </c>
       <c r="AA78" s="9"/>
@@ -6859,66 +6924,66 @@
         <v>0</v>
       </c>
       <c r="AE78" s="21">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="AE78:AE86" si="59">SUM(C78,F78,I78,L78,O78,R78,U78,X78,AA78)</f>
         <v>0</v>
       </c>
       <c r="AF78" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="AF78:AF86" si="60">SUM(D78,G78,J78,M78,P78,S78,V78,Y78,AB78)</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
       <c r="E79" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="F79" s="31"/>
       <c r="G79" s="31"/>
       <c r="H79" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="L79" s="31"/>
       <c r="M79" s="31"/>
       <c r="N79" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="O79" s="9"/>
       <c r="P79" s="9"/>
       <c r="Q79" s="5" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="R79" s="31"/>
       <c r="S79" s="31"/>
       <c r="T79" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="U79" s="9"/>
       <c r="V79" s="9"/>
       <c r="W79" s="5" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="X79" s="31"/>
       <c r="Y79" s="31"/>
       <c r="Z79" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA79" s="9"/>
@@ -6932,66 +6997,66 @@
         <v>0</v>
       </c>
       <c r="AE79" s="21">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AF79" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
+      <c r="A80" s="14"/>
       <c r="B80" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="C80" s="9"/>
       <c r="D80" s="9"/>
       <c r="E80" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="31"/>
       <c r="H80" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="L80" s="31"/>
       <c r="M80" s="31"/>
       <c r="N80" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="O80" s="9"/>
       <c r="P80" s="9"/>
       <c r="Q80" s="5" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="R80" s="31"/>
       <c r="S80" s="31"/>
       <c r="T80" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="U80" s="9"/>
       <c r="V80" s="9"/>
       <c r="W80" s="5" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="X80" s="31"/>
       <c r="Y80" s="31"/>
       <c r="Z80" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA80" s="9"/>
@@ -7005,66 +7070,66 @@
         <v>0</v>
       </c>
       <c r="AE80" s="21">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AF80" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
       <c r="E81" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="F81" s="31"/>
       <c r="G81" s="31"/>
       <c r="H81" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="L81" s="31"/>
       <c r="M81" s="31"/>
       <c r="N81" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="O81" s="9"/>
       <c r="P81" s="9"/>
       <c r="Q81" s="5" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="R81" s="31"/>
       <c r="S81" s="31"/>
       <c r="T81" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="U81" s="9"/>
       <c r="V81" s="9"/>
       <c r="W81" s="5" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="X81" s="31"/>
       <c r="Y81" s="31"/>
       <c r="Z81" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA81" s="9"/>
@@ -7078,66 +7143,66 @@
         <v>0</v>
       </c>
       <c r="AE81" s="21">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AF81" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
       <c r="B82" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
       <c r="E82" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="F82" s="31"/>
       <c r="G82" s="31"/>
       <c r="H82" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="L82" s="31"/>
       <c r="M82" s="31"/>
       <c r="N82" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="O82" s="9"/>
       <c r="P82" s="9"/>
       <c r="Q82" s="5" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="R82" s="31"/>
       <c r="S82" s="31"/>
       <c r="T82" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="U82" s="9"/>
       <c r="V82" s="9"/>
       <c r="W82" s="5" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="X82" s="31"/>
       <c r="Y82" s="31"/>
       <c r="Z82" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA82" s="9"/>
@@ -7151,66 +7216,66 @@
         <v>0</v>
       </c>
       <c r="AE82" s="21">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AF82" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
       <c r="E83" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="F83" s="31"/>
       <c r="G83" s="31"/>
       <c r="H83" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="L83" s="31"/>
       <c r="M83" s="31"/>
       <c r="N83" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="O83" s="9"/>
       <c r="P83" s="9"/>
       <c r="Q83" s="5" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="R83" s="31"/>
       <c r="S83" s="31"/>
       <c r="T83" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="U83" s="9"/>
       <c r="V83" s="9"/>
       <c r="W83" s="5" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="X83" s="31"/>
       <c r="Y83" s="31"/>
       <c r="Z83" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA83" s="9"/>
@@ -7224,255 +7289,328 @@
         <v>0</v>
       </c>
       <c r="AE83" s="21">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AF83" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="14"/>
       <c r="B84" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="9"/>
       <c r="E84" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="F84" s="31"/>
       <c r="G84" s="31"/>
       <c r="H84" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="L84" s="31"/>
       <c r="M84" s="31"/>
       <c r="N84" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="O84" s="9"/>
       <c r="P84" s="9"/>
       <c r="Q84" s="5" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="R84" s="31"/>
       <c r="S84" s="31"/>
       <c r="T84" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="U84" s="9"/>
       <c r="V84" s="9"/>
       <c r="W84" s="5" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="X84" s="31"/>
       <c r="Y84" s="31"/>
       <c r="Z84" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA84" s="9"/>
       <c r="AB84" s="9"/>
       <c r="AC84" s="24">
-        <f t="shared" ref="AC84" si="59">SUM(Z84,W84,T84,Q84,N84,K84,H84,E84,B84)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD84" s="32">
-        <f t="shared" ref="AD84" si="60">SUM(AB84,Y84,V84,S84,P84,M84,J84,G84,D84)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE84" s="21">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="AF84" s="21">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
       <c r="B85" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
       <c r="E85" s="5" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="F85" s="31"/>
       <c r="G85" s="31"/>
       <c r="H85" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="5" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="L85" s="31"/>
       <c r="M85" s="31"/>
       <c r="N85" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="O85" s="9"/>
       <c r="P85" s="9"/>
       <c r="Q85" s="5" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="R85" s="31"/>
       <c r="S85" s="31"/>
       <c r="T85" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="U85" s="9"/>
       <c r="V85" s="9"/>
       <c r="W85" s="5" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="X85" s="31"/>
       <c r="Y85" s="31"/>
       <c r="Z85" s="8" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA85" s="9"/>
       <c r="AB85" s="9"/>
       <c r="AC85" s="24">
+        <f t="shared" ref="AC85" si="61">SUM(Z85,W85,T85,Q85,N85,K85,H85,E85,B85)</f>
+        <v>0</v>
+      </c>
+      <c r="AD85" s="32">
+        <f t="shared" ref="AD85" si="62">SUM(AB85,Y85,V85,S85,P85,M85,J85,G85,D85)</f>
+        <v>0</v>
+      </c>
+      <c r="AE85" s="21">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AF85" s="21">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="14"/>
+      <c r="B86" s="1" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="5" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="1" t="str">
+        <f t="shared" si="52"/>
+        <v/>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="5" t="str">
+        <f t="shared" si="53"/>
+        <v/>
+      </c>
+      <c r="L86" s="31"/>
+      <c r="M86" s="31"/>
+      <c r="N86" s="1" t="str">
+        <f t="shared" si="54"/>
+        <v/>
+      </c>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="5" t="str">
+        <f t="shared" si="55"/>
+        <v/>
+      </c>
+      <c r="R86" s="31"/>
+      <c r="S86" s="31"/>
+      <c r="T86" s="1" t="str">
+        <f t="shared" si="56"/>
+        <v/>
+      </c>
+      <c r="U86" s="9"/>
+      <c r="V86" s="9"/>
+      <c r="W86" s="5" t="str">
+        <f t="shared" si="57"/>
+        <v/>
+      </c>
+      <c r="X86" s="31"/>
+      <c r="Y86" s="31"/>
+      <c r="Z86" s="8" t="str">
+        <f t="shared" si="58"/>
+        <v/>
+      </c>
+      <c r="AA86" s="9"/>
+      <c r="AB86" s="9"/>
+      <c r="AC86" s="24">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD85" s="32">
+      <c r="AD86" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AE85" s="21">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="AF85" s="21">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="16"/>
-      <c r="C86" s="16">
-        <f>SUM(C5:C85)</f>
+      <c r="AE86" s="21">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="AF86" s="21">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="16"/>
+      <c r="C87" s="16">
+        <f>SUM(C5:C86)</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="D86" s="16">
-        <f>SUM(D5:D85)</f>
-        <v>2.6874999999999996</v>
-      </c>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16">
-        <f>SUM(F5:F85)</f>
-        <v>0</v>
-      </c>
-      <c r="G86" s="16">
-        <f>SUM(G5:G85)</f>
-        <v>0</v>
-      </c>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16">
-        <f>SUM(I5:I85)</f>
+      <c r="D87" s="16">
+        <f>SUM(D5:D86)</f>
+        <v>2.708333333333333</v>
+      </c>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16">
+        <f>SUM(F5:F86)</f>
+        <v>0.72569444444444453</v>
+      </c>
+      <c r="G87" s="16">
+        <f>SUM(G5:G86)</f>
+        <v>3.229166666666667</v>
+      </c>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16">
+        <f>SUM(I5:I86)</f>
         <v>0.76388888888888895</v>
       </c>
-      <c r="J86" s="16">
-        <f>SUM(J5:J85)</f>
+      <c r="J87" s="16">
+        <f>SUM(J5:J86)</f>
         <v>2.3854166666666661</v>
       </c>
-      <c r="K86" s="16"/>
-      <c r="L86" s="16">
-        <f>SUM(L5:L85)</f>
-        <v>0</v>
-      </c>
-      <c r="M86" s="16">
-        <f t="shared" ref="M86:AB86" si="61">SUM(M5:M85)</f>
-        <v>0</v>
-      </c>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16">
-        <f>SUM(O5:O85)</f>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16">
+        <f>SUM(L5:L86)</f>
+        <v>0</v>
+      </c>
+      <c r="M87" s="16">
+        <f>SUM(M5:M86)</f>
+        <v>0</v>
+      </c>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16">
+        <f>SUM(O5:O86)</f>
         <v>0.85416666666666652</v>
       </c>
-      <c r="P86" s="16">
-        <f t="shared" si="61"/>
+      <c r="P87" s="16">
+        <f>SUM(P5:P86)</f>
         <v>2.0833333333333335</v>
       </c>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="16">
-        <f>SUM(R5:R85)</f>
-        <v>0</v>
-      </c>
-      <c r="S86" s="16">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="T86" s="16"/>
-      <c r="U86" s="16">
-        <f>SUM(U5:U85)</f>
-        <v>0</v>
-      </c>
-      <c r="V86" s="16">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="W86" s="16"/>
-      <c r="X86" s="16">
-        <f>SUM(X5:X85)</f>
-        <v>0</v>
-      </c>
-      <c r="Y86" s="16">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="Z86" s="16"/>
-      <c r="AA86" s="16">
-        <f>SUM(AA5:AA85)</f>
-        <v>0</v>
-      </c>
-      <c r="AB86" s="16">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="AC86" s="16"/>
-      <c r="AD86" s="16"/>
-      <c r="AE86" s="18">
-        <f>SUM(AE5:AE85)</f>
-        <v>2.2013888888888884</v>
-      </c>
-      <c r="AF86" s="18">
-        <f>SUM(AF5:AF85)</f>
-        <v>7.1562500000000009</v>
-      </c>
-    </row>
-    <row r="87" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF87" s="16"/>
+      <c r="Q87" s="16"/>
+      <c r="R87" s="16">
+        <f>SUM(R5:R86)</f>
+        <v>0</v>
+      </c>
+      <c r="S87" s="16">
+        <f>SUM(S5:S86)</f>
+        <v>0</v>
+      </c>
+      <c r="T87" s="16"/>
+      <c r="U87" s="16">
+        <f>SUM(U5:U86)</f>
+        <v>0</v>
+      </c>
+      <c r="V87" s="16">
+        <f>SUM(V5:V86)</f>
+        <v>0</v>
+      </c>
+      <c r="W87" s="16"/>
+      <c r="X87" s="16">
+        <f>SUM(X5:X86)</f>
+        <v>0</v>
+      </c>
+      <c r="Y87" s="16">
+        <f>SUM(Y5:Y86)</f>
+        <v>0</v>
+      </c>
+      <c r="Z87" s="16"/>
+      <c r="AA87" s="16">
+        <f>SUM(AA5:AA86)</f>
+        <v>0</v>
+      </c>
+      <c r="AB87" s="16">
+        <f>SUM(AB5:AB86)</f>
+        <v>0</v>
+      </c>
+      <c r="AC87" s="16"/>
+      <c r="AD87" s="16"/>
+      <c r="AE87" s="18">
+        <f>SUM(AE5:AE86)</f>
+        <v>2.9270833333333339</v>
+      </c>
+      <c r="AF87" s="18">
+        <f>SUM(AF5:AF86)</f>
+        <v>10.239583333333329</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AF88" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/01_Planung/01_Dokumente/2015_FS_INM21_B_Aufgaben_Zeit_Projektmitglied_Zuordnung.xlsx
+++ b/01_Planung/01_Dokumente/2015_FS_INM21_B_Aufgaben_Zeit_Projektmitglied_Zuordnung.xlsx
@@ -635,9 +635,9 @@
     <xf numFmtId="9" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -947,8 +947,8 @@
   </sheetPr>
   <dimension ref="A1:DB88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -993,30 +993,30 @@
       <c r="B1" s="7"/>
       <c r="C1" s="26"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
       <c r="AA1" s="26"/>
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
@@ -4143,7 +4143,7 @@
         <v/>
       </c>
       <c r="F40" s="31"/>
-      <c r="G40" s="40"/>
+      <c r="G40" s="38"/>
       <c r="H40" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5352,7 +5352,7 @@
         <v>1.7361111111111112E-2</v>
       </c>
       <c r="G56" s="31">
-        <v>6.25E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="H56" s="1" t="str">
         <f t="shared" si="3"/>
@@ -5402,7 +5402,7 @@
       </c>
       <c r="AD56" s="32">
         <f t="shared" si="18"/>
-        <v>6.25E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AE56" s="21">
         <f t="shared" si="11"/>
@@ -5410,7 +5410,7 @@
       </c>
       <c r="AF56" s="21">
         <f t="shared" si="29"/>
-        <v>6.25E-2</v>
+        <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="G87" s="16">
         <f>SUM(G5:G86)</f>
-        <v>3.229166666666667</v>
+        <v>3.2708333333333335</v>
       </c>
       <c r="H87" s="16"/>
       <c r="I87" s="16">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="AF87" s="18">
         <f>SUM(AF5:AF86)</f>
-        <v>10.239583333333329</v>
+        <v>10.281249999999995</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">

--- a/01_Planung/01_Dokumente/2015_FS_INM21_B_Aufgaben_Zeit_Projektmitglied_Zuordnung.xlsx
+++ b/01_Planung/01_Dokumente/2015_FS_INM21_B_Aufgaben_Zeit_Projektmitglied_Zuordnung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandro\Documents\GitHub\INM21_Group_B\01_Planung\01_Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tickstero\Documents\Github\INM21_Group_B\01_Planung\01_Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="570" windowWidth="19035" windowHeight="10155"/>
+    <workbookView xWindow="4320" yWindow="576" windowWidth="19032" windowHeight="10152"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="82">
   <si>
     <t>Aufgaben  - Projektmitglied - Zuordnung</t>
   </si>
@@ -224,9 +224,6 @@
     <t>Source - Code von selber beschriebenem Code</t>
   </si>
   <si>
-    <t>8.0 …….</t>
-  </si>
-  <si>
     <t>Use Case Definieren</t>
   </si>
   <si>
@@ -252,6 +249,30 @@
   </si>
   <si>
     <t>Kontrolle / Verbesserung der Erledigten arbiten</t>
+  </si>
+  <si>
+    <t>8.0 Weiteres</t>
+  </si>
+  <si>
+    <t>Korrektur, Anpassung &amp; Formatierng arc42</t>
+  </si>
+  <si>
+    <t>Präsentation Mängel-Manager</t>
+  </si>
+  <si>
+    <t>Drucken, Zusammenstellen nötiger Dokumente arc42 &amp; abgeben in Papier- und Elektronischerform</t>
+  </si>
+  <si>
+    <t>Entwicklungsumgebung und Tools zur online Dokumentation bereitstellen</t>
+  </si>
+  <si>
+    <t>Paketstruktur der Schichten Organisieren &amp; Anpassen</t>
+  </si>
+  <si>
+    <t>Individuelles Portfolio</t>
+  </si>
+  <si>
+    <t>Idividuelles Management Summary</t>
   </si>
 </sst>
 </file>
@@ -564,7 +585,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -592,9 +613,6 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -638,6 +656,14 @@
     <xf numFmtId="20" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -947,114 +973,114 @@
   </sheetPr>
   <dimension ref="A1:DB88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.85546875" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.85546875" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.7109375" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.88671875" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.88671875" customWidth="1"/>
+    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.6640625" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
-      <c r="C1" s="26"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="26"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="25"/>
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
-      <c r="C2" s="26"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="26"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
-      <c r="L2" s="26"/>
+      <c r="L2" s="25"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="26"/>
+      <c r="O2" s="25"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
-      <c r="R2" s="26"/>
+      <c r="R2" s="25"/>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
-      <c r="U2" s="26"/>
+      <c r="U2" s="25"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
-      <c r="X2" s="26"/>
+      <c r="X2" s="25"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
-      <c r="AA2" s="26"/>
+      <c r="AA2" s="25"/>
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
     </row>
-    <row r="3" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1085,102 +1111,102 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:35" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="29" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="L4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="29" t="s">
         <v>13</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="P4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="30" t="s">
+      <c r="R4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="30" t="s">
+      <c r="S4" s="29" t="s">
         <v>13</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U4" s="27" t="s">
+      <c r="U4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="27" t="s">
+      <c r="V4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="W4" s="29" t="s">
+      <c r="W4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="30" t="s">
+      <c r="X4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="Y4" s="30" t="s">
+      <c r="Y4" s="29" t="s">
         <v>13</v>
       </c>
       <c r="Z4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AA4" s="27" t="s">
+      <c r="AA4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AB4" s="27" t="s">
+      <c r="AB4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AC4" s="17" t="s">
+      <c r="AC4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="20" t="s">
+      <c r="AE4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AF4" s="20" t="s">
+      <c r="AF4" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1190,66 +1216,66 @@
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="9"/>
-      <c r="E5" s="28" t="str">
+      <c r="E5" s="27" t="str">
         <f>IF(G5="", "",G5/AD5)</f>
         <v/>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
       <c r="H5" s="1" t="str">
         <f>IF(J5="", "",J5/AD5)</f>
         <v/>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="28" t="str">
+      <c r="K5" s="27" t="str">
         <f>IF(M5="", "",M5/AD5)</f>
         <v/>
       </c>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
       <c r="N5" s="1" t="str">
         <f>IF(P5="", "",P5/AD5)</f>
         <v/>
       </c>
       <c r="O5" s="8"/>
       <c r="P5" s="9"/>
-      <c r="Q5" s="28" t="str">
+      <c r="Q5" s="27" t="str">
         <f>IF(S5="", "",S5/AD5)</f>
         <v/>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
       <c r="T5" s="1" t="str">
         <f>IF(V5="", "",V5/AD5)</f>
         <v/>
       </c>
       <c r="U5" s="8"/>
       <c r="V5" s="9"/>
-      <c r="W5" s="28" t="str">
+      <c r="W5" s="27" t="str">
         <f t="shared" ref="W5:W6" si="0">IF(Y5="", "",Y5/AD5)</f>
         <v/>
       </c>
-      <c r="X5" s="28"/>
-      <c r="Y5" s="28"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
       <c r="Z5" s="8" t="str">
         <f>IF(AB5="", "",AB5/AD5)</f>
         <v/>
       </c>
       <c r="AA5" s="8"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="23"/>
+      <c r="AC5" s="22"/>
       <c r="AD5" s="10"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+    </row>
+    <row r="6" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="1">
         <f t="shared" ref="B6:B77" si="1">IF(D6="", "",D6/AD6)</f>
-        <v>0.63157894736842102</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9">
@@ -1257,10 +1283,10 @@
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:E77" si="2">IF(G6="", "",G6/AD6)</f>
-        <v>0.36842105263157893</v>
-      </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31">
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30">
         <v>0.14583333333333334</v>
       </c>
       <c r="H6" s="1" t="str">
@@ -1269,12 +1295,16 @@
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="5" t="str">
+      <c r="K6" s="5">
         <f>IF(M6="", "",M6/AD6)</f>
-        <v/>
-      </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="L6" s="43">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M6" s="43">
+        <v>6.25E-2</v>
+      </c>
       <c r="N6" s="1" t="str">
         <f>IF(P6="", "",P6/AD6)</f>
         <v/>
@@ -1285,8 +1315,8 @@
         <f>IF(S6="", "",S6/AD6)</f>
         <v/>
       </c>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
       <c r="T6" s="1" t="str">
         <f>IF(V6="", "",V6/AD6)</f>
         <v/>
@@ -1297,34 +1327,34 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
       <c r="Z6" s="8" t="str">
         <f>IF(AB6="", "",AB6/AD6)</f>
         <v/>
       </c>
       <c r="AA6" s="9"/>
       <c r="AB6" s="9"/>
-      <c r="AC6" s="24">
+      <c r="AC6" s="23">
         <f>SUM(Z6,W6,T6,Q6,N6,K6,H6,E6,B6)</f>
         <v>1</v>
       </c>
-      <c r="AD6" s="32">
+      <c r="AD6" s="31">
         <f>SUM(AB6,Y6,V6,S6,P6,M6,J6,G6,D6)</f>
-        <v>0.39583333333333337</v>
-      </c>
-      <c r="AE6" s="21">
+        <v>0.45833333333333337</v>
+      </c>
+      <c r="AE6" s="20">
         <f>SUM(C6,F6,I6,L6,O6,R6,U6,X6,AA6)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="21">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="AF6" s="20">
         <f>SUM(D6,G6,J6,M6,P6,S6,V6,Y6,AB6)</f>
-        <v>0.39583333333333337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+        <v>0.45833333333333337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="1">
         <f t="shared" si="1"/>
@@ -1338,8 +1368,8 @@
         <f t="shared" si="2"/>
         <v>0.57142857142857151</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31">
+      <c r="F7" s="30"/>
+      <c r="G7" s="30">
         <v>0.16666666666666666</v>
       </c>
       <c r="H7" s="1" t="str">
@@ -1352,8 +1382,8 @@
         <f t="shared" ref="K7:K77" si="4">IF(M7="", "",M7/AD7)</f>
         <v/>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
       <c r="N7" s="1" t="str">
         <f t="shared" ref="N7:N77" si="5">IF(P7="", "",P7/AD7)</f>
         <v/>
@@ -1364,8 +1394,8 @@
         <f t="shared" ref="Q7:Q77" si="6">IF(S7="", "",S7/AD7)</f>
         <v/>
       </c>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
       <c r="T7" s="1" t="str">
         <f t="shared" ref="T7:T77" si="7">IF(V7="", "",V7/AD7)</f>
         <v/>
@@ -1376,33 +1406,33 @@
         <f t="shared" ref="W7:W77" si="8">IF(Y7="", "",Y7/AD7)</f>
         <v/>
       </c>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
       <c r="Z7" s="8" t="str">
         <f t="shared" ref="Z7:Z77" si="9">IF(AB7="", "",AB7/AD7)</f>
         <v/>
       </c>
       <c r="AA7" s="9"/>
       <c r="AB7" s="9"/>
-      <c r="AC7" s="24">
+      <c r="AC7" s="23">
         <f>SUM(Z7,W7,T7,Q7,N7,K7,H7,E7,B7)</f>
         <v>1</v>
       </c>
-      <c r="AD7" s="32">
+      <c r="AD7" s="31">
         <f t="shared" ref="AD7" si="10">SUM(AB7,Y7,V7,S7,P7,M7,J7,G7,D7)</f>
         <v>0.29166666666666663</v>
       </c>
-      <c r="AE7" s="21">
+      <c r="AE7" s="20">
         <f t="shared" ref="AE7:AE77" si="11">SUM(C7,F7,I7,L7,O7,R7,U7,X7,AA7)</f>
         <v>0</v>
       </c>
-      <c r="AF7" s="21">
+      <c r="AF7" s="20">
         <f t="shared" ref="AF7:AF39" si="12">SUM(D7,G7,J7,M7,P7,S7,V7,Y7,AB7)</f>
         <v>0.29166666666666663</v>
       </c>
       <c r="AI7" s="10"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1414,8 +1444,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1426,8 +1456,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1438,8 +1468,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
       <c r="T8" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1450,33 +1480,33 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
       <c r="Z8" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA8" s="9"/>
       <c r="AB8" s="9"/>
-      <c r="AC8" s="24">
+      <c r="AC8" s="23">
         <f>SUM(Z8,W8,T8,Q8,N8,K8,H8,E8,B8)</f>
         <v>0</v>
       </c>
-      <c r="AD8" s="32">
+      <c r="AD8" s="31">
         <f t="shared" ref="AD8" si="13">SUM(AB8,Y8,V8,S8,P8,M8,J8,G8,D8)</f>
         <v>0</v>
       </c>
-      <c r="AE8" s="21">
+      <c r="AE8" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF8" s="21">
+      <c r="AF8" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI8" s="19"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI8" s="18"/>
+    </row>
+    <row r="9" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -1490,8 +1520,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1502,8 +1532,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1514,8 +1544,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
       <c r="T9" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1526,32 +1556,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
       <c r="Z9" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA9" s="9"/>
       <c r="AB9" s="9"/>
-      <c r="AC9" s="24">
+      <c r="AC9" s="23">
         <f t="shared" ref="AC9:AC86" si="14">SUM(Z9,W9,T9,Q9,N9,K9,H9,E9,B9)</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="32">
+      <c r="AD9" s="31">
         <f t="shared" ref="AD9:AD12" si="15">SUM(AB9,Y9,V9,S9,P9,M9,J9,G9,D9)</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="21">
+      <c r="AE9" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="21">
+      <c r="AF9" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -1565,8 +1595,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="1">
         <f>IF(J10="", "",J10/AD10)</f>
         <v>0.53846153846153844</v>
@@ -1581,8 +1611,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
       <c r="N10" s="1">
         <f>IF(P10="", "",P10/AD10)</f>
         <v>0.46153846153846145</v>
@@ -1597,8 +1627,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
       <c r="T10" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1609,32 +1639,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
       <c r="Z10" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA10" s="9"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="24">
+      <c r="AC10" s="23">
         <f t="shared" si="14"/>
         <v>0.99999999999999989</v>
       </c>
-      <c r="AD10" s="32">
+      <c r="AD10" s="31">
         <f t="shared" si="15"/>
         <v>0.27083333333333337</v>
       </c>
-      <c r="AE10" s="21">
+      <c r="AE10" s="20">
         <f t="shared" si="11"/>
         <v>6.25E-2</v>
       </c>
-      <c r="AF10" s="21">
+      <c r="AF10" s="20">
         <f t="shared" si="12"/>
         <v>0.27083333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>27</v>
       </c>
@@ -1650,8 +1680,8 @@
         <f t="shared" si="2"/>
         <v>0.13157894736842107</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31">
+      <c r="F11" s="30"/>
+      <c r="G11" s="30">
         <v>0.10416666666666667</v>
       </c>
       <c r="H11" s="1">
@@ -1668,8 +1698,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="1" t="str">
         <f>IF(P11="", "",P11/AD11)</f>
         <v/>
@@ -1680,8 +1710,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
       <c r="T11" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1692,32 +1722,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
       <c r="Z11" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA11" s="9"/>
       <c r="AB11" s="9"/>
-      <c r="AC11" s="24">
+      <c r="AC11" s="23">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AD11" s="32">
+      <c r="AD11" s="31">
         <f t="shared" si="15"/>
         <v>0.79166666666666663</v>
       </c>
-      <c r="AE11" s="21">
+      <c r="AE11" s="20">
         <f t="shared" si="11"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AF11" s="21">
+      <c r="AF11" s="20">
         <f t="shared" si="12"/>
         <v>0.79166666666666674</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>28</v>
       </c>
@@ -1735,10 +1765,10 @@
         <f t="shared" si="2"/>
         <v>0.50000000000000011</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="30">
         <v>0.10416666666666667</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="30">
         <v>0.47916666666666669</v>
       </c>
       <c r="H12" s="1">
@@ -1755,8 +1785,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
       <c r="N12" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1767,8 +1797,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
       <c r="T12" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1779,32 +1809,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
       <c r="Z12" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
-      <c r="AC12" s="24">
+      <c r="AC12" s="23">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AD12" s="32">
+      <c r="AD12" s="31">
         <f t="shared" si="15"/>
         <v>0.95833333333333326</v>
       </c>
-      <c r="AE12" s="21">
+      <c r="AE12" s="20">
         <f t="shared" si="11"/>
         <v>0.3125</v>
       </c>
-      <c r="AF12" s="21">
+      <c r="AF12" s="20">
         <f t="shared" si="12"/>
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>29</v>
       </c>
@@ -1818,8 +1848,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -1827,15 +1857,15 @@
       <c r="I13" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="36">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="K13" s="5" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1846,8 +1876,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
       <c r="T13" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1858,32 +1888,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
       <c r="Z13" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA13" s="9"/>
       <c r="AB13" s="9"/>
-      <c r="AC13" s="24">
+      <c r="AC13" s="23">
         <f t="shared" ref="AC13:AC14" si="16">SUM(Z13,W13,T13,Q13,N13,K13,H13,E13,B13)</f>
         <v>1</v>
       </c>
-      <c r="AD13" s="32">
+      <c r="AD13" s="31">
         <f t="shared" ref="AD13:AD14" si="17">SUM(AB13,Y13,V13,S13,P13,M13,J13,G13,D13)</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="AE13" s="21">
+      <c r="AE13" s="20">
         <f t="shared" si="11"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AF13" s="21">
+      <c r="AF13" s="20">
         <f t="shared" si="12"/>
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1895,8 +1925,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1907,8 +1937,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
       <c r="N14" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1919,8 +1949,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
       <c r="T14" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1931,32 +1961,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
       <c r="Z14" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA14" s="9"/>
       <c r="AB14" s="9"/>
-      <c r="AC14" s="24">
+      <c r="AC14" s="23">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="32">
+      <c r="AD14" s="31">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="21">
+      <c r="AE14" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF14" s="21">
+      <c r="AF14" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1968,8 +1998,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -1980,8 +2010,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1992,8 +2022,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
+      <c r="R15" s="30"/>
+      <c r="S15" s="30"/>
       <c r="T15" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2004,32 +2034,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
       <c r="Z15" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA15" s="9"/>
       <c r="AB15" s="9"/>
-      <c r="AC15" s="24">
+      <c r="AC15" s="23">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="32">
+      <c r="AD15" s="31">
         <f t="shared" ref="AD15:AD86" si="18">SUM(AB15,Y15,V15,S15,P15,M15,J15,G15,D15)</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="21">
+      <c r="AE15" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF15" s="21">
+      <c r="AF15" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2041,8 +2071,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2053,8 +2083,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2065,8 +2095,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
+      <c r="R16" s="30"/>
+      <c r="S16" s="30"/>
       <c r="T16" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2077,32 +2107,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
       <c r="Z16" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA16" s="9"/>
       <c r="AB16" s="9"/>
-      <c r="AC16" s="24">
+      <c r="AC16" s="23">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="32">
+      <c r="AD16" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AE16" s="21">
+      <c r="AE16" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF16" s="21">
+      <c r="AF16" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2114,8 +2144,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
       <c r="H17" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2126,8 +2156,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2138,8 +2168,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
       <c r="T17" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2150,32 +2180,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
       <c r="Z17" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA17" s="9"/>
       <c r="AB17" s="9"/>
-      <c r="AC17" s="24">
+      <c r="AC17" s="23">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD17" s="32">
+      <c r="AD17" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AE17" s="21">
+      <c r="AE17" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF17" s="21">
+      <c r="AF17" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:106" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2187,8 +2217,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2199,8 +2229,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2211,8 +2241,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
       <c r="T18" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2223,32 +2253,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
       <c r="Z18" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA18" s="9"/>
       <c r="AB18" s="9"/>
-      <c r="AC18" s="24">
+      <c r="AC18" s="23">
         <f t="shared" ref="AC18" si="19">SUM(Z18,W18,T18,Q18,N18,K18,H18,E18,B18)</f>
         <v>0</v>
       </c>
-      <c r="AD18" s="32">
+      <c r="AD18" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="21">
+      <c r="AE18" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF18" s="21">
+      <c r="AF18" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>7</v>
       </c>
@@ -2262,8 +2292,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2274,8 +2304,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2286,8 +2316,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
+      <c r="R19" s="30"/>
+      <c r="S19" s="30"/>
       <c r="T19" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2298,27 +2328,27 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
       <c r="Z19" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA19" s="9"/>
       <c r="AB19" s="9"/>
-      <c r="AC19" s="24">
+      <c r="AC19" s="23">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="32">
+      <c r="AD19" s="31">
         <f t="shared" ref="AD19" si="20">SUM(AB19,Y19,V19,S19,P19,M19,J19,G19,D19)</f>
         <v>0</v>
       </c>
-      <c r="AE19" s="21">
+      <c r="AE19" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF19" s="21">
+      <c r="AF19" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -2397,9 +2427,9 @@
       <c r="DA19"/>
       <c r="DB19"/>
     </row>
-    <row r="20" spans="1:106" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:106" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1">
         <f t="shared" si="1"/>
@@ -2413,8 +2443,8 @@
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31">
+      <c r="F20" s="30"/>
+      <c r="G20" s="30">
         <v>0.125</v>
       </c>
       <c r="H20" s="1" t="str">
@@ -2427,8 +2457,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2439,8 +2469,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
+      <c r="R20" s="30"/>
+      <c r="S20" s="30"/>
       <c r="T20" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2451,27 +2481,27 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
       <c r="Z20" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA20" s="9"/>
       <c r="AB20" s="9"/>
-      <c r="AC20" s="24">
+      <c r="AC20" s="23">
         <f t="shared" ref="AC20:AC29" si="21">SUM(Z20,W20,T20,Q20,N20,K20,H20,E20,B20)</f>
         <v>1</v>
       </c>
-      <c r="AD20" s="32">
+      <c r="AD20" s="31">
         <f t="shared" ref="AD20:AD29" si="22">SUM(AB20,Y20,V20,S20,P20,M20,J20,G20,D20)</f>
         <v>0.1875</v>
       </c>
-      <c r="AE20" s="21">
+      <c r="AE20" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF20" s="21">
+      <c r="AF20" s="20">
         <f t="shared" si="12"/>
         <v>0.1875</v>
       </c>
@@ -2550,7 +2580,7 @@
       <c r="DA20"/>
       <c r="DB20"/>
     </row>
-    <row r="21" spans="1:106" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:106" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>30</v>
       </c>
@@ -2564,10 +2594,10 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="30">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="30">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="H21" s="1" t="str">
@@ -2580,8 +2610,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2592,8 +2622,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
       <c r="T21" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2604,27 +2634,27 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
       <c r="Z21" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA21" s="9"/>
       <c r="AB21" s="9"/>
-      <c r="AC21" s="24">
+      <c r="AC21" s="23">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AD21" s="32">
+      <c r="AD21" s="31">
         <f t="shared" si="22"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="AE21" s="21">
+      <c r="AE21" s="20">
         <f t="shared" si="11"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AF21" s="21">
+      <c r="AF21" s="20">
         <f t="shared" si="12"/>
         <v>2.0833333333333332E-2</v>
       </c>
@@ -2703,9 +2733,9 @@
       <c r="DA21"/>
       <c r="DB21"/>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2717,10 +2747,10 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="30">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G22" s="31">
+      <c r="G22" s="30">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H22" s="1" t="str">
@@ -2733,8 +2763,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2745,8 +2775,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
       <c r="T22" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2757,32 +2787,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
       <c r="Z22" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA22" s="9"/>
       <c r="AB22" s="9"/>
-      <c r="AC22" s="24">
+      <c r="AC22" s="23">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AD22" s="32">
+      <c r="AD22" s="31">
         <f t="shared" si="22"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AE22" s="21">
+      <c r="AE22" s="20">
         <f t="shared" si="11"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AF22" s="21">
+      <c r="AF22" s="20">
         <f t="shared" si="12"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:106" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2794,8 +2824,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2806,8 +2836,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
       <c r="N23" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2818,8 +2848,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
       <c r="T23" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2830,32 +2860,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
       <c r="Z23" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
-      <c r="AC23" s="24">
+      <c r="AC23" s="23">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="32">
+      <c r="AD23" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="21">
+      <c r="AE23" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF23" s="21">
+      <c r="AF23" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>8</v>
       </c>
@@ -2869,8 +2899,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2881,8 +2911,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2893,8 +2923,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
       <c r="T24" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2905,32 +2935,32 @@
         <f>IF(Y24="", "",Y24/AD24)</f>
         <v/>
       </c>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
       <c r="Z24" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
-      <c r="AC24" s="24">
+      <c r="AC24" s="23">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="32">
+      <c r="AD24" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="21">
+      <c r="AE24" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF24" s="21">
+      <c r="AF24" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>31</v>
       </c>
@@ -2946,8 +2976,8 @@
         <f t="shared" si="2"/>
         <v>0.44444444444444448</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31">
+      <c r="F25" s="30"/>
+      <c r="G25" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H25" s="1">
@@ -2962,8 +2992,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
       <c r="N25" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2974,8 +3004,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
+      <c r="R25" s="30"/>
+      <c r="S25" s="30"/>
       <c r="T25" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2986,32 +3016,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
       <c r="Z25" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA25" s="9"/>
       <c r="AB25" s="9"/>
-      <c r="AC25" s="24">
+      <c r="AC25" s="23">
         <f t="shared" si="21"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="AD25" s="32">
+      <c r="AD25" s="31">
         <f t="shared" si="22"/>
         <v>0.18749999999999997</v>
       </c>
-      <c r="AE25" s="21">
+      <c r="AE25" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF25" s="21">
+      <c r="AF25" s="20">
         <f t="shared" si="12"/>
         <v>0.1875</v>
       </c>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>32</v>
       </c>
@@ -3027,8 +3057,8 @@
         <f t="shared" si="2"/>
         <v>0.28571428571428575</v>
       </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31">
+      <c r="F26" s="30"/>
+      <c r="G26" s="30">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H26" s="1">
@@ -3043,8 +3073,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
       <c r="N26" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3055,8 +3085,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
       <c r="T26" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3067,34 +3097,34 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
       <c r="Z26" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA26" s="9"/>
       <c r="AB26" s="9"/>
-      <c r="AC26" s="24">
+      <c r="AC26" s="23">
         <f t="shared" si="21"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="AD26" s="32">
+      <c r="AD26" s="31">
         <f t="shared" si="22"/>
         <v>0.14583333333333331</v>
       </c>
-      <c r="AE26" s="21">
+      <c r="AE26" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF26" s="21">
+      <c r="AF26" s="20">
         <f t="shared" si="12"/>
         <v>0.14583333333333331</v>
       </c>
     </row>
-    <row r="27" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="1">
         <f t="shared" si="1"/>
@@ -3108,8 +3138,8 @@
         <f t="shared" si="2"/>
         <v>0.27272727272727276</v>
       </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31">
+      <c r="F27" s="30"/>
+      <c r="G27" s="30">
         <v>6.25E-2</v>
       </c>
       <c r="H27" s="1">
@@ -3124,8 +3154,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="1">
         <f t="shared" si="5"/>
         <v>0.18181818181818182</v>
@@ -3140,8 +3170,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
       <c r="T27" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3152,38 +3182,38 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
       <c r="Z27" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
-      <c r="AC27" s="24">
+      <c r="AC27" s="23">
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="AD27" s="32">
+      <c r="AD27" s="31">
         <f t="shared" si="22"/>
         <v>0.22916666666666666</v>
       </c>
-      <c r="AE27" s="21">
+      <c r="AE27" s="20">
         <f t="shared" si="11"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="AF27" s="21">
+      <c r="AF27" s="20">
         <f t="shared" si="12"/>
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="28" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:106" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1">
         <f t="shared" si="1"/>
-        <v>0.27777777777777773</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="C28" s="9">
         <v>2.0833333333333332E-2</v>
@@ -3193,17 +3223,17 @@
       </c>
       <c r="E28" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333326</v>
-      </c>
-      <c r="F28" s="31">
+        <v>0.24</v>
+      </c>
+      <c r="F28" s="30">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G28" s="31">
+      <c r="G28" s="30">
         <v>0.125</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="3"/>
-        <v>0.38888888888888884</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="I28" s="9">
         <v>3.4722222222222224E-2</v>
@@ -3211,12 +3241,16 @@
       <c r="J28" s="9">
         <v>0.14583333333333334</v>
       </c>
-      <c r="K28" s="5" t="str">
+      <c r="K28" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="L28" s="43">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M28" s="43">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="N28" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3227,8 +3261,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
       <c r="T28" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3239,32 +3273,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
       <c r="Z28" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
-      <c r="AC28" s="24">
+      <c r="AC28" s="23">
         <f t="shared" si="21"/>
-        <v>0.99999999999999978</v>
-      </c>
-      <c r="AD28" s="32">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AD28" s="31">
         <f t="shared" si="22"/>
-        <v>0.37500000000000006</v>
-      </c>
-      <c r="AE28" s="21">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="AE28" s="20">
         <f t="shared" si="11"/>
-        <v>7.6388888888888895E-2</v>
-      </c>
-      <c r="AF28" s="21">
+        <v>0.11805555555555555</v>
+      </c>
+      <c r="AF28" s="20">
         <f t="shared" si="12"/>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:106" x14ac:dyDescent="0.25">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>9</v>
       </c>
@@ -3278,8 +3312,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -3290,8 +3324,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
       <c r="N29" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3302,8 +3336,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
       <c r="T29" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3314,34 +3348,34 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
       <c r="Z29" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
-      <c r="AC29" s="24">
+      <c r="AC29" s="23">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AD29" s="32">
+      <c r="AD29" s="31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AE29" s="21">
+      <c r="AE29" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF29" s="21">
+      <c r="AF29" s="20">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1" t="str">
         <f t="shared" ref="B30" si="23">IF(D30="", "",D30/AD30)</f>
@@ -3350,8 +3384,8 @@
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31">
+      <c r="F30" s="30"/>
+      <c r="G30" s="30">
         <v>0.16666666666666666</v>
       </c>
       <c r="H30" s="1" t="str">
@@ -3360,32 +3394,32 @@
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
       <c r="N30" s="8"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="36"/>
-      <c r="S30" s="36"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
       <c r="T30" s="8"/>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
+      <c r="W30" s="34"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
       <c r="Z30" s="8"/>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
-      <c r="AC30" s="24"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="21"/>
-      <c r="AF30" s="21"/>
-    </row>
-    <row r="31" spans="1:106" x14ac:dyDescent="0.25">
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+    </row>
+    <row r="31" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3395,12 +3429,12 @@
       <c r="D31" s="9"/>
       <c r="E31" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F31" s="31">
+        <v>0.75</v>
+      </c>
+      <c r="F31" s="30">
         <v>0.16666666666666666</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="30">
         <v>0.25</v>
       </c>
       <c r="H31" s="1" t="str">
@@ -3409,12 +3443,16 @@
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="5" t="str">
+      <c r="K31" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
+        <v>0.25</v>
+      </c>
+      <c r="L31" s="43">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M31" s="43">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="N31" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3425,8 +3463,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
+      <c r="R31" s="30"/>
+      <c r="S31" s="30"/>
       <c r="T31" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3437,32 +3475,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
       <c r="Z31" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA31" s="9"/>
       <c r="AB31" s="9"/>
-      <c r="AC31" s="24">
+      <c r="AC31" s="23">
         <f t="shared" ref="AC31:AC50" si="25">SUM(Z31,W31,T31,Q31,N31,K31,H31,E31,B31)</f>
         <v>1</v>
       </c>
-      <c r="AD31" s="32">
+      <c r="AD31" s="31">
         <f t="shared" ref="AD31:AD50" si="26">SUM(AB31,Y31,V31,S31,P31,M31,J31,G31,D31)</f>
-        <v>0.25</v>
-      </c>
-      <c r="AE31" s="21">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AE31" s="20">
         <f t="shared" si="11"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="AF31" s="21">
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="AF31" s="20">
         <f t="shared" si="12"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:106" x14ac:dyDescent="0.25">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>33</v>
       </c>
@@ -3478,10 +3516,10 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="30">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G32" s="31">
+      <c r="G32" s="30">
         <v>0.14583333333333334</v>
       </c>
       <c r="H32" s="1">
@@ -3498,8 +3536,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
       <c r="N32" s="1">
         <f t="shared" si="5"/>
         <v>0.2857142857142857</v>
@@ -3514,8 +3552,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
       <c r="T32" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3526,38 +3564,38 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
       <c r="Z32" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA32" s="9"/>
       <c r="AB32" s="9"/>
-      <c r="AC32" s="24">
+      <c r="AC32" s="23">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="AD32" s="32">
+      <c r="AD32" s="31">
         <f t="shared" si="26"/>
         <v>0.43750000000000006</v>
       </c>
-      <c r="AE32" s="21">
+      <c r="AE32" s="20">
         <f t="shared" si="11"/>
         <v>0.14583333333333331</v>
       </c>
-      <c r="AF32" s="21">
+      <c r="AF32" s="20">
         <f t="shared" si="12"/>
         <v>0.4375</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C33" s="9">
         <v>0.125</v>
@@ -3569,20 +3607,24 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
       <c r="H33" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="5" t="str">
+      <c r="K33" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
+        <v>0.2</v>
+      </c>
+      <c r="L33" s="43">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M33" s="43">
+        <v>6.25E-2</v>
+      </c>
       <c r="N33" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3593,8 +3635,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
+      <c r="R33" s="30"/>
+      <c r="S33" s="30"/>
       <c r="T33" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3605,38 +3647,38 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
       <c r="Z33" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
-      <c r="AC33" s="24">
+      <c r="AC33" s="23">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="AD33" s="32">
+      <c r="AD33" s="31">
         <f t="shared" si="26"/>
-        <v>0.25</v>
-      </c>
-      <c r="AE33" s="21">
+        <v>0.3125</v>
+      </c>
+      <c r="AE33" s="20">
         <f t="shared" si="11"/>
-        <v>0.125</v>
-      </c>
-      <c r="AF33" s="21">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AF33" s="20">
         <f t="shared" si="12"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
-        <v>0.30000000000000004</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9">
@@ -3644,17 +3686,17 @@
       </c>
       <c r="E34" s="5">
         <f t="shared" si="2"/>
-        <v>0.4</v>
-      </c>
-      <c r="F34" s="31">
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="F34" s="30">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="G34" s="31">
+      <c r="G34" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="3"/>
-        <v>0.30000000000000004</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="I34" s="9">
         <v>2.0833333333333332E-2</v>
@@ -3662,12 +3704,16 @@
       <c r="J34" s="9">
         <v>6.25E-2</v>
       </c>
-      <c r="K34" s="5" t="str">
+      <c r="K34" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="L34" s="43">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M34" s="43">
+        <v>6.25E-2</v>
+      </c>
       <c r="N34" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3678,8 +3724,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
+      <c r="R34" s="30"/>
+      <c r="S34" s="30"/>
       <c r="T34" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3690,38 +3736,38 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
       <c r="Z34" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
-      <c r="AC34" s="24">
+      <c r="AC34" s="23">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="AD34" s="32">
+      <c r="AD34" s="31">
         <f t="shared" si="26"/>
-        <v>0.20833333333333331</v>
-      </c>
-      <c r="AE34" s="21">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="AE34" s="20">
         <f t="shared" si="11"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AF34" s="21">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AF34" s="20">
         <f t="shared" si="12"/>
-        <v>0.20833333333333331</v>
-      </c>
-    </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
-        <v>0.22222222222222224</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9">
@@ -3729,15 +3775,15 @@
       </c>
       <c r="E35" s="5">
         <f t="shared" si="2"/>
-        <v>0.44444444444444448</v>
-      </c>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="3"/>
-        <v>0.33333333333333337</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="I35" s="9">
         <v>2.0833333333333332E-2</v>
@@ -3745,12 +3791,16 @@
       <c r="J35" s="9">
         <v>6.25E-2</v>
       </c>
-      <c r="K35" s="5" t="str">
+      <c r="K35" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="L35" s="43">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M35" s="43">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="N35" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3761,8 +3811,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
+      <c r="R35" s="30"/>
+      <c r="S35" s="30"/>
       <c r="T35" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3773,32 +3823,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
       <c r="Z35" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
-      <c r="AC35" s="24">
+      <c r="AC35" s="23">
         <f t="shared" si="25"/>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="AD35" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="31">
         <f t="shared" si="26"/>
-        <v>0.18749999999999997</v>
-      </c>
-      <c r="AE35" s="21">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="AE35" s="20">
         <f t="shared" si="11"/>
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="AF35" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AF35" s="20">
         <f t="shared" si="12"/>
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.29166666666666669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>37</v>
       </c>
@@ -3816,10 +3866,10 @@
         <f t="shared" si="2"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="30">
         <v>6.25E-2</v>
       </c>
-      <c r="G36" s="31">
+      <c r="G36" s="30">
         <v>0.16666666666666666</v>
       </c>
       <c r="H36" s="1" t="str">
@@ -3832,8 +3882,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
       <c r="N36" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3844,8 +3894,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
       <c r="T36" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3856,32 +3906,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
+      <c r="X36" s="30"/>
+      <c r="Y36" s="30"/>
       <c r="Z36" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA36" s="9"/>
       <c r="AB36" s="9"/>
-      <c r="AC36" s="24">
+      <c r="AC36" s="23">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="AD36" s="32">
+      <c r="AD36" s="31">
         <f t="shared" si="26"/>
         <v>0.375</v>
       </c>
-      <c r="AE36" s="21">
+      <c r="AE36" s="20">
         <f t="shared" si="11"/>
         <v>0.14583333333333331</v>
       </c>
-      <c r="AF36" s="21">
+      <c r="AF36" s="20">
         <f t="shared" si="12"/>
         <v>0.375</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>38</v>
       </c>
@@ -3895,8 +3945,8 @@
         <f t="shared" si="2"/>
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31">
+      <c r="F37" s="30"/>
+      <c r="G37" s="30">
         <v>6.25E-2</v>
       </c>
       <c r="H37" s="1">
@@ -3913,8 +3963,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
       <c r="N37" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3925,8 +3975,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
+      <c r="R37" s="30"/>
+      <c r="S37" s="30"/>
       <c r="T37" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -3937,32 +3987,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
+      <c r="X37" s="30"/>
+      <c r="Y37" s="30"/>
       <c r="Z37" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA37" s="9"/>
       <c r="AB37" s="9"/>
-      <c r="AC37" s="24">
+      <c r="AC37" s="23">
         <f t="shared" ref="AC37:AC39" si="27">SUM(Z37,W37,T37,Q37,N37,K37,H37,E37,B37)</f>
         <v>1</v>
       </c>
-      <c r="AD37" s="32">
+      <c r="AD37" s="31">
         <f t="shared" ref="AD37:AD39" si="28">SUM(AB37,Y37,V37,S37,P37,M37,J37,G37,D37)</f>
         <v>0.6875</v>
       </c>
-      <c r="AE37" s="21">
+      <c r="AE37" s="20">
         <f t="shared" si="11"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AF37" s="21">
+      <c r="AF37" s="20">
         <f t="shared" si="12"/>
         <v>0.6875</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>39</v>
       </c>
@@ -3978,8 +4028,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
       <c r="H38" s="1">
         <f t="shared" si="3"/>
         <v>0.78947368421052633</v>
@@ -3994,8 +4044,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
       <c r="N38" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4006,8 +4056,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
+      <c r="R38" s="30"/>
+      <c r="S38" s="30"/>
       <c r="T38" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4018,34 +4068,34 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
       <c r="Z38" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA38" s="9"/>
       <c r="AB38" s="9"/>
-      <c r="AC38" s="24">
+      <c r="AC38" s="23">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="AD38" s="32">
+      <c r="AD38" s="31">
         <f t="shared" si="28"/>
         <v>0.19791666666666666</v>
       </c>
-      <c r="AE38" s="21">
+      <c r="AE38" s="20">
         <f t="shared" si="11"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="AF38" s="21">
+      <c r="AF38" s="20">
         <f t="shared" si="12"/>
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B39" s="1">
         <f t="shared" si="1"/>
@@ -4061,10 +4111,10 @@
         <f t="shared" si="2"/>
         <v>0.57692307692307698</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F39" s="30">
         <v>0.125</v>
       </c>
-      <c r="G39" s="31">
+      <c r="G39" s="30">
         <v>0.625</v>
       </c>
       <c r="H39" s="1" t="str">
@@ -4077,8 +4127,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
       <c r="N39" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4089,8 +4139,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
+      <c r="R39" s="30"/>
+      <c r="S39" s="30"/>
       <c r="T39" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4101,32 +4151,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="30"/>
       <c r="Z39" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
-      <c r="AC39" s="24">
+      <c r="AC39" s="23">
         <f t="shared" si="27"/>
         <v>1</v>
       </c>
-      <c r="AD39" s="32">
+      <c r="AD39" s="31">
         <f t="shared" si="28"/>
         <v>1.0833333333333333</v>
       </c>
-      <c r="AE39" s="21">
+      <c r="AE39" s="20">
         <f t="shared" si="11"/>
         <v>0.29166666666666663</v>
       </c>
-      <c r="AF39" s="21">
+      <c r="AF39" s="20">
         <f t="shared" si="12"/>
         <v>1.0833333333333333</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>40</v>
       </c>
@@ -4142,8 +4192,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="38"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="37"/>
       <c r="H40" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4154,8 +4204,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
       <c r="N40" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4166,8 +4216,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
       <c r="T40" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4178,34 +4228,34 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="31"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="30"/>
       <c r="Z40" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
-      <c r="AC40" s="24">
+      <c r="AC40" s="23">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="AD40" s="32">
+      <c r="AD40" s="31">
         <f t="shared" si="26"/>
         <v>0.125</v>
       </c>
-      <c r="AE40" s="21">
+      <c r="AE40" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF40" s="21">
+      <c r="AF40" s="20">
         <f t="shared" ref="AF40:AF77" si="29">SUM(D40,G40,J40,M40,P40,S40,V40,Y40,AB40)</f>
         <v>0.125</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B41" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4217,10 +4267,10 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F41" s="31">
+      <c r="F41" s="30">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G41" s="31">
+      <c r="G41" s="30">
         <v>0.125</v>
       </c>
       <c r="H41" s="1" t="str">
@@ -4233,8 +4283,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
       <c r="N41" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4245,8 +4295,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
       <c r="T41" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4257,32 +4307,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="31"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
       <c r="Z41" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
-      <c r="AC41" s="24">
+      <c r="AC41" s="23">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="AD41" s="32">
+      <c r="AD41" s="31">
         <f t="shared" si="26"/>
         <v>0.125</v>
       </c>
-      <c r="AE41" s="21">
+      <c r="AE41" s="20">
         <f t="shared" si="11"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="AF41" s="21">
+      <c r="AF41" s="20">
         <f t="shared" si="29"/>
         <v>0.125</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>10</v>
       </c>
@@ -4296,8 +4346,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
       <c r="H42" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4308,8 +4358,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
       <c r="N42" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4320,8 +4370,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
       <c r="T42" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4332,32 +4382,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
       <c r="Z42" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
-      <c r="AC42" s="24">
+      <c r="AC42" s="23">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AD42" s="32">
+      <c r="AD42" s="31">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AE42" s="21">
+      <c r="AE42" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF42" s="21">
+      <c r="AF42" s="20">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>41</v>
       </c>
@@ -4373,8 +4423,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
       <c r="H43" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4385,8 +4435,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
       <c r="N43" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4397,8 +4447,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
       <c r="T43" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4409,32 +4459,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="31"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="30"/>
       <c r="Z43" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA43" s="9"/>
       <c r="AB43" s="9"/>
-      <c r="AC43" s="24">
+      <c r="AC43" s="23">
         <f t="shared" ref="AC43" si="30">SUM(Z43,W43,T43,Q43,N43,K43,H43,E43,B43)</f>
         <v>1</v>
       </c>
-      <c r="AD43" s="32">
+      <c r="AD43" s="31">
         <f t="shared" ref="AD43" si="31">SUM(AB43,Y43,V43,S43,P43,M43,J43,G43,D43)</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AE43" s="21">
+      <c r="AE43" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF43" s="21">
+      <c r="AF43" s="20">
         <f t="shared" si="29"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>42</v>
       </c>
@@ -4450,8 +4500,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
       <c r="H44" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4462,8 +4512,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
       <c r="N44" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4474,8 +4524,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
+      <c r="R44" s="30"/>
+      <c r="S44" s="30"/>
       <c r="T44" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4486,32 +4536,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="31"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="30"/>
       <c r="Z44" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
-      <c r="AC44" s="24">
+      <c r="AC44" s="23">
         <f t="shared" ref="AC44:AC45" si="32">SUM(Z44,W44,T44,Q44,N44,K44,H44,E44,B44)</f>
         <v>1</v>
       </c>
-      <c r="AD44" s="32">
+      <c r="AD44" s="31">
         <f t="shared" ref="AD44:AD45" si="33">SUM(AB44,Y44,V44,S44,P44,M44,J44,G44,D44)</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="AE44" s="21">
+      <c r="AE44" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF44" s="21">
+      <c r="AF44" s="20">
         <f t="shared" si="29"/>
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>43</v>
       </c>
@@ -4527,8 +4577,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
       <c r="H45" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4539,8 +4589,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
       <c r="N45" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4551,8 +4601,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
       <c r="T45" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4563,32 +4613,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X45" s="31"/>
-      <c r="Y45" s="31"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
       <c r="Z45" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA45" s="9"/>
       <c r="AB45" s="9"/>
-      <c r="AC45" s="24">
+      <c r="AC45" s="23">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="AD45" s="32">
+      <c r="AD45" s="31">
         <f t="shared" si="33"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AE45" s="21">
+      <c r="AE45" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF45" s="21">
+      <c r="AF45" s="20">
         <f t="shared" si="29"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4600,8 +4650,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
       <c r="H46" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4612,8 +4662,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
       <c r="N46" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4624,8 +4674,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R46" s="31"/>
-      <c r="S46" s="31"/>
+      <c r="R46" s="30"/>
+      <c r="S46" s="30"/>
       <c r="T46" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4636,32 +4686,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X46" s="31"/>
-      <c r="Y46" s="31"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
       <c r="Z46" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA46" s="9"/>
       <c r="AB46" s="9"/>
-      <c r="AC46" s="24">
+      <c r="AC46" s="23">
         <f t="shared" ref="AC46:AC47" si="34">SUM(Z46,W46,T46,Q46,N46,K46,H46,E46,B46)</f>
         <v>0</v>
       </c>
-      <c r="AD46" s="32">
+      <c r="AD46" s="31">
         <f t="shared" ref="AD46:AD47" si="35">SUM(AB46,Y46,V46,S46,P46,M46,J46,G46,D46)</f>
         <v>0</v>
       </c>
-      <c r="AE46" s="21">
+      <c r="AE46" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF46" s="21">
+      <c r="AF46" s="20">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4673,8 +4723,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
       <c r="H47" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4685,8 +4735,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
       <c r="N47" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4697,8 +4747,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
       <c r="T47" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4709,32 +4759,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="31"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
       <c r="Z47" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA47" s="9"/>
       <c r="AB47" s="9"/>
-      <c r="AC47" s="24">
+      <c r="AC47" s="23">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="AD47" s="32">
+      <c r="AD47" s="31">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="AE47" s="21">
+      <c r="AE47" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF47" s="21">
+      <c r="AF47" s="20">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4746,8 +4796,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
       <c r="H48" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4758,8 +4808,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
       <c r="N48" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4770,8 +4820,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
       <c r="T48" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4782,32 +4832,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X48" s="31"/>
-      <c r="Y48" s="31"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
       <c r="Z48" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA48" s="9"/>
       <c r="AB48" s="9"/>
-      <c r="AC48" s="24">
+      <c r="AC48" s="23">
         <f t="shared" ref="AC48:AC49" si="36">SUM(Z48,W48,T48,Q48,N48,K48,H48,E48,B48)</f>
         <v>0</v>
       </c>
-      <c r="AD48" s="32">
+      <c r="AD48" s="31">
         <f t="shared" ref="AD48:AD49" si="37">SUM(AB48,Y48,V48,S48,P48,M48,J48,G48,D48)</f>
         <v>0</v>
       </c>
-      <c r="AE48" s="21">
+      <c r="AE48" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF48" s="21">
+      <c r="AF48" s="20">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4819,8 +4869,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
       <c r="H49" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4831,8 +4881,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
       <c r="N49" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4843,8 +4893,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R49" s="31"/>
-      <c r="S49" s="31"/>
+      <c r="R49" s="30"/>
+      <c r="S49" s="30"/>
       <c r="T49" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4855,32 +4905,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X49" s="31"/>
-      <c r="Y49" s="31"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="30"/>
       <c r="Z49" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA49" s="9"/>
       <c r="AB49" s="9"/>
-      <c r="AC49" s="24">
+      <c r="AC49" s="23">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="AD49" s="32">
+      <c r="AD49" s="31">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="AE49" s="21">
+      <c r="AE49" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF49" s="21">
+      <c r="AF49" s="20">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="14"/>
       <c r="B50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4892,8 +4942,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
       <c r="H50" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4904,8 +4954,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
       <c r="N50" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4916,8 +4966,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R50" s="31"/>
-      <c r="S50" s="31"/>
+      <c r="R50" s="30"/>
+      <c r="S50" s="30"/>
       <c r="T50" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -4928,32 +4978,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X50" s="31"/>
-      <c r="Y50" s="31"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="30"/>
       <c r="Z50" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA50" s="9"/>
       <c r="AB50" s="9"/>
-      <c r="AC50" s="24">
+      <c r="AC50" s="23">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="AD50" s="32">
+      <c r="AD50" s="31">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AE50" s="21">
+      <c r="AE50" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF50" s="21">
+      <c r="AF50" s="20">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>11</v>
       </c>
@@ -4967,20 +5017,24 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
       <c r="H51" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
-      <c r="K51" s="5" t="str">
+      <c r="K51" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="L51" s="43">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M51" s="43">
+        <v>0.1875</v>
+      </c>
       <c r="N51" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4991,8 +5045,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
       <c r="T51" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5003,33 +5057,33 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X51" s="31"/>
-      <c r="Y51" s="31"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
       <c r="Z51" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA51" s="9"/>
       <c r="AB51" s="9"/>
-      <c r="AC51" s="24">
+      <c r="AC51" s="23">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AD51" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="31">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE51" s="21">
+        <v>0.1875</v>
+      </c>
+      <c r="AE51" s="20">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AF51" s="21">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="AF51" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="33" t="s">
         <v>44</v>
       </c>
       <c r="B52" s="1" t="str">
@@ -5042,23 +5096,27 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
       <c r="H52" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
-      <c r="K52" s="5" t="str">
+      <c r="K52" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
+        <v>0.6</v>
+      </c>
+      <c r="L52" s="43">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M52" s="43">
+        <v>0.1875</v>
+      </c>
       <c r="N52" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="O52" s="9"/>
       <c r="P52" s="9">
@@ -5068,8 +5126,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
+      <c r="R52" s="30"/>
+      <c r="S52" s="30"/>
       <c r="T52" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5080,33 +5138,33 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X52" s="31"/>
-      <c r="Y52" s="31"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="30"/>
       <c r="Z52" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA52" s="9"/>
       <c r="AB52" s="9"/>
-      <c r="AC52" s="24">
+      <c r="AC52" s="23">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AD52" s="32">
+      <c r="AD52" s="31">
         <f t="shared" si="18"/>
-        <v>0.125</v>
-      </c>
-      <c r="AE52" s="21">
+        <v>0.3125</v>
+      </c>
+      <c r="AE52" s="20">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AF52" s="21">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AF52" s="20">
         <f t="shared" si="29"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="33" t="s">
         <v>45</v>
       </c>
       <c r="B53" s="1" t="str">
@@ -5119,8 +5177,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
       <c r="H53" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5131,8 +5189,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
+      <c r="L53" s="43"/>
+      <c r="M53" s="43"/>
       <c r="N53" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5143,8 +5201,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R53" s="31"/>
-      <c r="S53" s="31"/>
+      <c r="R53" s="30"/>
+      <c r="S53" s="30"/>
       <c r="T53" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5155,33 +5213,33 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X53" s="31"/>
-      <c r="Y53" s="31"/>
+      <c r="X53" s="30"/>
+      <c r="Y53" s="30"/>
       <c r="Z53" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA53" s="9"/>
       <c r="AB53" s="9"/>
-      <c r="AC53" s="24">
+      <c r="AC53" s="23">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD53" s="32">
+      <c r="AD53" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AE53" s="21">
+      <c r="AE53" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF53" s="21">
+      <c r="AF53" s="20">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
+    <row r="54" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="33" t="s">
         <v>46</v>
       </c>
       <c r="B54" s="1" t="str">
@@ -5194,23 +5252,27 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
       <c r="H54" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
-      <c r="K54" s="5" t="str">
+      <c r="K54" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="L54" s="43">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M54" s="43">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="N54" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="O54" s="9">
         <v>4.1666666666666664E-2</v>
@@ -5222,8 +5284,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R54" s="31"/>
-      <c r="S54" s="31"/>
+      <c r="R54" s="30"/>
+      <c r="S54" s="30"/>
       <c r="T54" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5234,33 +5296,33 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X54" s="31"/>
-      <c r="Y54" s="31"/>
+      <c r="X54" s="30"/>
+      <c r="Y54" s="30"/>
       <c r="Z54" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA54" s="9"/>
       <c r="AB54" s="9"/>
-      <c r="AC54" s="24">
+      <c r="AC54" s="23">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AD54" s="32">
+      <c r="AD54" s="31">
         <f t="shared" si="18"/>
-        <v>0.125</v>
-      </c>
-      <c r="AE54" s="21">
+        <v>0.22916666666666669</v>
+      </c>
+      <c r="AE54" s="20">
         <f t="shared" si="11"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AF54" s="21">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AF54" s="20">
         <f t="shared" si="29"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A55" s="34" t="s">
+        <v>0.22916666666666669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="33" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="1" t="str">
@@ -5273,8 +5335,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
       <c r="H55" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5285,8 +5347,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
+      <c r="L55" s="43"/>
+      <c r="M55" s="43"/>
       <c r="N55" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5297,8 +5359,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R55" s="31"/>
-      <c r="S55" s="31"/>
+      <c r="R55" s="30"/>
+      <c r="S55" s="30"/>
       <c r="T55" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5309,33 +5371,33 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X55" s="31"/>
-      <c r="Y55" s="31"/>
+      <c r="X55" s="30"/>
+      <c r="Y55" s="30"/>
       <c r="Z55" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA55" s="9"/>
       <c r="AB55" s="9"/>
-      <c r="AC55" s="24">
+      <c r="AC55" s="23">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD55" s="32">
+      <c r="AD55" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AE55" s="21">
+      <c r="AE55" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF55" s="21">
+      <c r="AF55" s="20">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A56" s="34" t="s">
+    <row r="56" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="33" t="s">
         <v>48</v>
       </c>
       <c r="B56" s="1" t="str">
@@ -5346,12 +5408,12 @@
       <c r="D56" s="9"/>
       <c r="E56" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F56" s="31">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F56" s="30">
         <v>1.7361111111111112E-2</v>
       </c>
-      <c r="G56" s="31">
+      <c r="G56" s="30">
         <v>0.10416666666666667</v>
       </c>
       <c r="H56" s="1" t="str">
@@ -5360,12 +5422,16 @@
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
-      <c r="K56" s="5" t="str">
+      <c r="K56" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="L56" s="43">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M56" s="43">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="N56" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5376,8 +5442,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
+      <c r="R56" s="30"/>
+      <c r="S56" s="30"/>
       <c r="T56" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5388,129 +5454,133 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X56" s="31"/>
-      <c r="Y56" s="31"/>
+      <c r="X56" s="30"/>
+      <c r="Y56" s="30"/>
       <c r="Z56" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA56" s="9"/>
       <c r="AB56" s="9"/>
-      <c r="AC56" s="24">
+      <c r="AC56" s="23">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AD56" s="32">
+      <c r="AD56" s="31">
         <f t="shared" si="18"/>
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="AE56" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="AE56" s="20">
         <f t="shared" si="11"/>
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="AF56" s="21">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="AF56" s="20">
         <f t="shared" si="29"/>
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A57" s="34" t="s">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="33" t="s">
         <v>49</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
       <c r="H57" s="8"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
+      <c r="K57" s="34"/>
+      <c r="L57" s="43"/>
+      <c r="M57" s="43"/>
       <c r="N57" s="8"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="36"/>
+      <c r="Q57" s="34"/>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35"/>
       <c r="T57" s="8"/>
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="36"/>
-      <c r="Y57" s="36"/>
+      <c r="W57" s="34"/>
+      <c r="X57" s="35"/>
+      <c r="Y57" s="35"/>
       <c r="Z57" s="8"/>
       <c r="AA57" s="9"/>
       <c r="AB57" s="9"/>
-      <c r="AC57" s="24">
+      <c r="AC57" s="23">
         <f t="shared" ref="AC57:AC62" si="38">SUM(Z57,W57,T57,Q57,N57,K57,H57,E57,B57)</f>
         <v>0</v>
       </c>
-      <c r="AD57" s="32">
+      <c r="AD57" s="31">
         <f t="shared" ref="AD57:AD62" si="39">SUM(AB57,Y57,V57,S57,P57,M57,J57,G57,D57)</f>
         <v>0</v>
       </c>
-      <c r="AE57" s="21">
+      <c r="AE57" s="20">
         <f t="shared" ref="AE57:AE62" si="40">SUM(C57,F57,I57,L57,O57,R57,U57,X57,AA57)</f>
         <v>0</v>
       </c>
-      <c r="AF57" s="21">
+      <c r="AF57" s="20">
         <f t="shared" ref="AF57:AF62" si="41">SUM(D57,G57,J57,M57,P57,S57,V57,Y57,AB57)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
+    <row r="58" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="33" t="s">
         <v>50</v>
       </c>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="36"/>
-      <c r="G58" s="36"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
       <c r="H58" s="8"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="36"/>
+      <c r="K58" s="34"/>
+      <c r="L58" s="43">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M58" s="43">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="N58" s="8"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="36"/>
-      <c r="S58" s="36"/>
+      <c r="Q58" s="34"/>
+      <c r="R58" s="35"/>
+      <c r="S58" s="35"/>
       <c r="T58" s="8"/>
       <c r="U58" s="9"/>
       <c r="V58" s="9"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="36"/>
-      <c r="Y58" s="36"/>
+      <c r="W58" s="34"/>
+      <c r="X58" s="35"/>
+      <c r="Y58" s="35"/>
       <c r="Z58" s="8"/>
       <c r="AA58" s="9"/>
       <c r="AB58" s="9"/>
-      <c r="AC58" s="24">
+      <c r="AC58" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AD58" s="32">
+      <c r="AD58" s="31">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="AE58" s="21">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AE58" s="20">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="AF58" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AF58" s="20">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A59" s="34" t="s">
+        <v>0.14583333333333334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="33" t="s">
         <v>51</v>
       </c>
       <c r="B59" s="8"/>
@@ -5518,57 +5588,57 @@
       <c r="D59" s="9">
         <v>6.25E-2</v>
       </c>
-      <c r="E59" s="35"/>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
       <c r="H59" s="8"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="36"/>
+      <c r="K59" s="34"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="43"/>
       <c r="N59" s="8"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="36"/>
-      <c r="S59" s="36"/>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
       <c r="T59" s="8"/>
       <c r="U59" s="9"/>
       <c r="V59" s="9"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="36"/>
-      <c r="Y59" s="36"/>
+      <c r="W59" s="34"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
       <c r="Z59" s="8"/>
       <c r="AA59" s="9"/>
       <c r="AB59" s="9"/>
-      <c r="AC59" s="24">
+      <c r="AC59" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AD59" s="32">
+      <c r="AD59" s="31">
         <f t="shared" si="39"/>
         <v>6.25E-2</v>
       </c>
-      <c r="AE59" s="21">
+      <c r="AE59" s="20">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AF59" s="21">
+      <c r="AF59" s="20">
         <f t="shared" si="41"/>
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A60" s="34" t="s">
+    <row r="60" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="33" t="s">
         <v>52</v>
       </c>
       <c r="B60" s="8"/>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
       <c r="H60" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -5577,57 +5647,57 @@
       <c r="J60" s="9">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="K60" s="35"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="36"/>
+      <c r="K60" s="34"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="43"/>
       <c r="N60" s="8"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="36"/>
-      <c r="S60" s="36"/>
+      <c r="Q60" s="34"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="35"/>
       <c r="T60" s="8"/>
       <c r="U60" s="9"/>
       <c r="V60" s="9"/>
-      <c r="W60" s="35"/>
-      <c r="X60" s="36"/>
-      <c r="Y60" s="36"/>
+      <c r="W60" s="34"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35"/>
       <c r="Z60" s="8"/>
       <c r="AA60" s="9"/>
       <c r="AB60" s="9"/>
-      <c r="AC60" s="24">
+      <c r="AC60" s="23">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="AD60" s="32">
+      <c r="AD60" s="31">
         <f t="shared" si="39"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AE60" s="21">
+      <c r="AE60" s="20">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="AF60" s="21">
+      <c r="AF60" s="20">
         <f t="shared" si="41"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A61" s="34" t="s">
+    <row r="61" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="33" t="s">
         <v>53</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="9"/>
       <c r="D61" s="9"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
       <c r="H61" s="8"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="43"/>
       <c r="N61" s="8"/>
       <c r="O61" s="9">
         <v>0.20833333333333334</v>
@@ -5635,51 +5705,55 @@
       <c r="P61" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="35"/>
       <c r="T61" s="8"/>
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
-      <c r="W61" s="35"/>
-      <c r="X61" s="36"/>
-      <c r="Y61" s="36"/>
+      <c r="W61" s="34"/>
+      <c r="X61" s="35"/>
+      <c r="Y61" s="35"/>
       <c r="Z61" s="8"/>
       <c r="AA61" s="9"/>
       <c r="AB61" s="9"/>
-      <c r="AC61" s="24">
+      <c r="AC61" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AD61" s="32">
+      <c r="AD61" s="31">
         <f t="shared" si="39"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="AE61" s="21">
+      <c r="AE61" s="20">
         <f t="shared" si="40"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="AF61" s="21">
+      <c r="AF61" s="20">
         <f t="shared" si="41"/>
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="34" t="s">
+    <row r="62" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="33" t="s">
         <v>54</v>
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="9"/>
       <c r="D62" s="9"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
       <c r="H62" s="8"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
+      <c r="K62" s="34"/>
+      <c r="L62" s="43">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M62" s="43">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="N62" s="8"/>
       <c r="O62" s="9">
         <v>8.3333333333333329E-2</v>
@@ -5687,37 +5761,37 @@
       <c r="P62" s="9">
         <v>0.16666666666666666</v>
       </c>
-      <c r="Q62" s="35"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="35"/>
+      <c r="S62" s="35"/>
       <c r="T62" s="8"/>
       <c r="U62" s="9"/>
       <c r="V62" s="9"/>
-      <c r="W62" s="35"/>
-      <c r="X62" s="36"/>
-      <c r="Y62" s="36"/>
+      <c r="W62" s="34"/>
+      <c r="X62" s="35"/>
+      <c r="Y62" s="35"/>
       <c r="Z62" s="8"/>
       <c r="AA62" s="9"/>
       <c r="AB62" s="9"/>
-      <c r="AC62" s="24">
+      <c r="AC62" s="23">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="AD62" s="32">
+      <c r="AD62" s="31">
         <f t="shared" si="39"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="AE62" s="21">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="AE62" s="20">
         <f t="shared" si="40"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AF62" s="21">
+        <v>0.125</v>
+      </c>
+      <c r="AF62" s="20">
         <f t="shared" si="41"/>
-        <v>0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="s">
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="33" t="s">
         <v>55</v>
       </c>
       <c r="B63" s="1" t="str">
@@ -5730,8 +5804,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
       <c r="H63" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5742,8 +5816,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="43"/>
       <c r="N63" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5754,8 +5828,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
       <c r="T63" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5766,33 +5840,33 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X63" s="31"/>
-      <c r="Y63" s="31"/>
+      <c r="X63" s="30"/>
+      <c r="Y63" s="30"/>
       <c r="Z63" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA63" s="9"/>
       <c r="AB63" s="9"/>
-      <c r="AC63" s="24">
+      <c r="AC63" s="23">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD63" s="32">
+      <c r="AD63" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AE63" s="21">
+      <c r="AE63" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF63" s="21">
+      <c r="AF63" s="20">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A64" s="34" t="s">
+    <row r="64" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="33" t="s">
         <v>56</v>
       </c>
       <c r="B64" s="1" t="str">
@@ -5805,23 +5879,27 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
       <c r="H64" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
-      <c r="K64" s="5" t="str">
+      <c r="K64" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L64" s="31"/>
-      <c r="M64" s="31"/>
+        <v>0.63636363636363635</v>
+      </c>
+      <c r="L64" s="43">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M64" s="43">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="N64" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.36363636363636359</v>
       </c>
       <c r="O64" s="9">
         <v>2.0833333333333332E-2</v>
@@ -5833,8 +5911,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R64" s="31"/>
-      <c r="S64" s="31"/>
+      <c r="R64" s="30"/>
+      <c r="S64" s="30"/>
       <c r="T64" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5845,33 +5923,33 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X64" s="31"/>
-      <c r="Y64" s="31"/>
+      <c r="X64" s="30"/>
+      <c r="Y64" s="30"/>
       <c r="Z64" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA64" s="9"/>
       <c r="AB64" s="9"/>
-      <c r="AC64" s="24">
+      <c r="AC64" s="23">
         <f t="shared" ref="AC64:AC67" si="42">SUM(Z64,W64,T64,Q64,N64,K64,H64,E64,B64)</f>
         <v>1</v>
       </c>
-      <c r="AD64" s="32">
+      <c r="AD64" s="31">
         <f t="shared" ref="AD64:AD67" si="43">SUM(AB64,Y64,V64,S64,P64,M64,J64,G64,D64)</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="AE64" s="21">
+        <v>0.22916666666666669</v>
+      </c>
+      <c r="AE64" s="20">
         <f t="shared" si="11"/>
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="AF64" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AF64" s="20">
         <f t="shared" si="29"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
+        <v>0.22916666666666669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="33" t="s">
         <v>57</v>
       </c>
       <c r="B65" s="1" t="str">
@@ -5884,8 +5962,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
       <c r="H65" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5896,8 +5974,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="43"/>
       <c r="N65" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -5912,8 +5990,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R65" s="31"/>
-      <c r="S65" s="31"/>
+      <c r="R65" s="30"/>
+      <c r="S65" s="30"/>
       <c r="T65" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -5924,38 +6002,38 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X65" s="31"/>
-      <c r="Y65" s="31"/>
+      <c r="X65" s="30"/>
+      <c r="Y65" s="30"/>
       <c r="Z65" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA65" s="9"/>
       <c r="AB65" s="9"/>
-      <c r="AC65" s="24">
+      <c r="AC65" s="23">
         <f t="shared" si="42"/>
         <v>1</v>
       </c>
-      <c r="AD65" s="32">
+      <c r="AD65" s="31">
         <f t="shared" si="43"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AE65" s="21">
+      <c r="AE65" s="20">
         <f t="shared" si="11"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="AF65" s="21">
+      <c r="AF65" s="20">
         <f t="shared" si="29"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A66" s="34" t="s">
+    <row r="66" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="33" t="s">
         <v>58</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C66" s="9">
         <v>2.0833333333333332E-2</v>
@@ -5967,20 +6045,24 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
       <c r="H66" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
-      <c r="K66" s="5" t="str">
+      <c r="K66" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L66" s="43">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M66" s="43">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="N66" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5991,8 +6073,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R66" s="31"/>
-      <c r="S66" s="31"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="30"/>
       <c r="T66" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6003,33 +6085,33 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X66" s="31"/>
-      <c r="Y66" s="31"/>
+      <c r="X66" s="30"/>
+      <c r="Y66" s="30"/>
       <c r="Z66" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA66" s="9"/>
       <c r="AB66" s="9"/>
-      <c r="AC66" s="24">
+      <c r="AC66" s="23">
         <f t="shared" si="42"/>
         <v>1</v>
       </c>
-      <c r="AD66" s="32">
+      <c r="AD66" s="31">
         <f t="shared" si="43"/>
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="AE66" s="21">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="AE66" s="20">
         <f t="shared" si="11"/>
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="AF66" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AF66" s="20">
         <f t="shared" si="29"/>
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A67" s="34" t="s">
+        <v>0.14583333333333334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="33" t="s">
         <v>59</v>
       </c>
       <c r="B67" s="1">
@@ -6044,8 +6126,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
       <c r="H67" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -6056,8 +6138,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="43"/>
       <c r="N67" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6068,8 +6150,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R67" s="31"/>
-      <c r="S67" s="31"/>
+      <c r="R67" s="30"/>
+      <c r="S67" s="30"/>
       <c r="T67" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6080,33 +6162,33 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X67" s="31"/>
-      <c r="Y67" s="31"/>
+      <c r="X67" s="30"/>
+      <c r="Y67" s="30"/>
       <c r="Z67" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA67" s="9"/>
       <c r="AB67" s="9"/>
-      <c r="AC67" s="24">
+      <c r="AC67" s="23">
         <f t="shared" si="42"/>
         <v>1</v>
       </c>
-      <c r="AD67" s="32">
+      <c r="AD67" s="31">
         <f t="shared" si="43"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AE67" s="21">
+      <c r="AE67" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF67" s="21">
+      <c r="AF67" s="20">
         <f t="shared" si="29"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A68" s="34" t="s">
+    <row r="68" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="33" t="s">
         <v>60</v>
       </c>
       <c r="B68" s="1" t="str">
@@ -6119,8 +6201,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
       <c r="H68" s="1">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -6133,8 +6215,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L68" s="31"/>
-      <c r="M68" s="31"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="43"/>
       <c r="N68" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6145,8 +6227,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R68" s="31"/>
-      <c r="S68" s="31"/>
+      <c r="R68" s="30"/>
+      <c r="S68" s="30"/>
       <c r="T68" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6157,33 +6239,33 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X68" s="31"/>
-      <c r="Y68" s="31"/>
+      <c r="X68" s="30"/>
+      <c r="Y68" s="30"/>
       <c r="Z68" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA68" s="9"/>
       <c r="AB68" s="9"/>
-      <c r="AC68" s="24">
+      <c r="AC68" s="23">
         <f t="shared" ref="AC68:AC70" si="44">SUM(Z68,W68,T68,Q68,N68,K68,H68,E68,B68)</f>
         <v>1</v>
       </c>
-      <c r="AD68" s="32">
+      <c r="AD68" s="31">
         <f t="shared" ref="AD68:AD70" si="45">SUM(AB68,Y68,V68,S68,P68,M68,J68,G68,D68)</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AE68" s="21">
+      <c r="AE68" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF68" s="21">
+      <c r="AF68" s="20">
         <f t="shared" si="29"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A69" s="34" t="s">
+    <row r="69" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="33" t="s">
         <v>61</v>
       </c>
       <c r="B69" s="1" t="str">
@@ -6196,23 +6278,25 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
       <c r="H69" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
-      <c r="K69" s="5" t="str">
+      <c r="K69" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="L69" s="43"/>
+      <c r="M69" s="43">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="N69" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.95238095238095244</v>
       </c>
       <c r="O69" s="9">
         <v>0.33333333333333331</v>
@@ -6224,8 +6308,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R69" s="31"/>
-      <c r="S69" s="31"/>
+      <c r="R69" s="30"/>
+      <c r="S69" s="30"/>
       <c r="T69" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6236,33 +6320,33 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X69" s="31"/>
-      <c r="Y69" s="31"/>
+      <c r="X69" s="30"/>
+      <c r="Y69" s="30"/>
       <c r="Z69" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA69" s="9"/>
       <c r="AB69" s="9"/>
-      <c r="AC69" s="24">
+      <c r="AC69" s="23">
         <f t="shared" si="44"/>
         <v>1</v>
       </c>
-      <c r="AD69" s="32">
+      <c r="AD69" s="31">
         <f t="shared" si="45"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="AE69" s="21">
+        <v>0.875</v>
+      </c>
+      <c r="AE69" s="20">
         <f t="shared" si="11"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AF69" s="21">
+      <c r="AF69" s="20">
         <f t="shared" si="29"/>
-        <v>0.83333333333333337</v>
-      </c>
-    </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A70" s="34" t="s">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="33" t="s">
         <v>62</v>
       </c>
       <c r="B70" s="1" t="str">
@@ -6275,20 +6359,22 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
       <c r="H70" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
-      <c r="K70" s="5" t="str">
+      <c r="K70" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L70" s="31"/>
-      <c r="M70" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="L70" s="43"/>
+      <c r="M70" s="43">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="N70" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6299,8 +6385,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R70" s="31"/>
-      <c r="S70" s="31"/>
+      <c r="R70" s="30"/>
+      <c r="S70" s="30"/>
       <c r="T70" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6311,38 +6397,38 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X70" s="31"/>
-      <c r="Y70" s="31"/>
+      <c r="X70" s="30"/>
+      <c r="Y70" s="30"/>
       <c r="Z70" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA70" s="9"/>
       <c r="AB70" s="9"/>
-      <c r="AC70" s="24">
+      <c r="AC70" s="23">
         <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="AD70" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD70" s="31">
         <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="AE70" s="21">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="AE70" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF70" s="21">
+      <c r="AF70" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A71" s="34" t="s">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="33" t="s">
         <v>63</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9">
@@ -6350,10 +6436,10 @@
       </c>
       <c r="E71" s="5">
         <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31">
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="H71" s="1" t="str">
@@ -6362,12 +6448,14 @@
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
-      <c r="K71" s="5" t="str">
+      <c r="K71" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L71" s="31"/>
-      <c r="M71" s="31"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="L71" s="43"/>
+      <c r="M71" s="43">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="N71" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6378,8 +6466,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R71" s="31"/>
-      <c r="S71" s="31"/>
+      <c r="R71" s="30"/>
+      <c r="S71" s="30"/>
       <c r="T71" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6390,33 +6478,33 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X71" s="31"/>
-      <c r="Y71" s="31"/>
+      <c r="X71" s="30"/>
+      <c r="Y71" s="30"/>
       <c r="Z71" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA71" s="9"/>
       <c r="AB71" s="9"/>
-      <c r="AC71" s="24">
+      <c r="AC71" s="23">
         <f t="shared" ref="AC71:AC74" si="46">SUM(Z71,W71,T71,Q71,N71,K71,H71,E71,B71)</f>
-        <v>1</v>
-      </c>
-      <c r="AD71" s="32">
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="AD71" s="31">
         <f t="shared" ref="AD71:AD74" si="47">SUM(AB71,Y71,V71,S71,P71,M71,J71,G71,D71)</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="AE71" s="21">
+        <v>0.12499999999999999</v>
+      </c>
+      <c r="AE71" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF71" s="21">
+      <c r="AF71" s="20">
         <f t="shared" si="29"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A72" s="34" t="s">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="33" t="s">
         <v>64</v>
       </c>
       <c r="B72" s="1" t="str">
@@ -6429,8 +6517,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31">
+      <c r="F72" s="30"/>
+      <c r="G72" s="30">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="H72" s="1" t="str">
@@ -6443,8 +6531,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L72" s="31"/>
-      <c r="M72" s="31"/>
+      <c r="L72" s="43"/>
+      <c r="M72" s="43"/>
       <c r="N72" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6455,8 +6543,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R72" s="31"/>
-      <c r="S72" s="31"/>
+      <c r="R72" s="30"/>
+      <c r="S72" s="30"/>
       <c r="T72" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6467,32 +6555,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X72" s="31"/>
-      <c r="Y72" s="31"/>
+      <c r="X72" s="30"/>
+      <c r="Y72" s="30"/>
       <c r="Z72" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA72" s="9"/>
       <c r="AB72" s="9"/>
-      <c r="AC72" s="24">
+      <c r="AC72" s="23">
         <f t="shared" si="46"/>
         <v>1</v>
       </c>
-      <c r="AD72" s="32">
+      <c r="AD72" s="31">
         <f t="shared" si="47"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AE72" s="21">
+      <c r="AE72" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF72" s="21">
+      <c r="AF72" s="20">
         <f t="shared" si="29"/>
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6504,8 +6592,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
       <c r="H73" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -6516,8 +6604,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L73" s="31"/>
-      <c r="M73" s="31"/>
+      <c r="L73" s="43"/>
+      <c r="M73" s="43"/>
       <c r="N73" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6528,8 +6616,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R73" s="31"/>
-      <c r="S73" s="31"/>
+      <c r="R73" s="30"/>
+      <c r="S73" s="30"/>
       <c r="T73" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6540,32 +6628,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X73" s="31"/>
-      <c r="Y73" s="31"/>
+      <c r="X73" s="30"/>
+      <c r="Y73" s="30"/>
       <c r="Z73" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA73" s="9"/>
       <c r="AB73" s="9"/>
-      <c r="AC73" s="24">
+      <c r="AC73" s="23">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AD73" s="32">
+      <c r="AD73" s="31">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AE73" s="21">
+      <c r="AE73" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF73" s="21">
+      <c r="AF73" s="20">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6577,8 +6665,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
       <c r="H74" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -6589,8 +6677,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L74" s="31"/>
-      <c r="M74" s="31"/>
+      <c r="L74" s="43"/>
+      <c r="M74" s="43"/>
       <c r="N74" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6601,8 +6689,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R74" s="31"/>
-      <c r="S74" s="31"/>
+      <c r="R74" s="30"/>
+      <c r="S74" s="30"/>
       <c r="T74" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6613,32 +6701,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X74" s="31"/>
-      <c r="Y74" s="31"/>
+      <c r="X74" s="30"/>
+      <c r="Y74" s="30"/>
       <c r="Z74" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA74" s="9"/>
       <c r="AB74" s="9"/>
-      <c r="AC74" s="24">
+      <c r="AC74" s="23">
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="AD74" s="32">
+      <c r="AD74" s="31">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="AE74" s="21">
+      <c r="AE74" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF74" s="21">
+      <c r="AF74" s="20">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6650,8 +6738,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
       <c r="H75" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -6662,8 +6750,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L75" s="31"/>
-      <c r="M75" s="31"/>
+      <c r="L75" s="43"/>
+      <c r="M75" s="43"/>
       <c r="N75" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6674,8 +6762,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R75" s="31"/>
-      <c r="S75" s="31"/>
+      <c r="R75" s="30"/>
+      <c r="S75" s="30"/>
       <c r="T75" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6686,32 +6774,32 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X75" s="31"/>
-      <c r="Y75" s="31"/>
+      <c r="X75" s="30"/>
+      <c r="Y75" s="30"/>
       <c r="Z75" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA75" s="9"/>
       <c r="AB75" s="9"/>
-      <c r="AC75" s="24">
+      <c r="AC75" s="23">
         <f t="shared" ref="AC75:AC76" si="48">SUM(Z75,W75,T75,Q75,N75,K75,H75,E75,B75)</f>
         <v>0</v>
       </c>
-      <c r="AD75" s="32">
+      <c r="AD75" s="31">
         <f t="shared" ref="AD75:AD76" si="49">SUM(AB75,Y75,V75,S75,P75,M75,J75,G75,D75)</f>
         <v>0</v>
       </c>
-      <c r="AE75" s="21">
+      <c r="AE75" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF75" s="21">
+      <c r="AF75" s="20">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:32" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="14"/>
       <c r="B76" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6723,8 +6811,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
       <c r="H76" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -6735,8 +6823,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L76" s="31"/>
-      <c r="M76" s="31"/>
+      <c r="L76" s="43"/>
+      <c r="M76" s="43"/>
       <c r="N76" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6747,8 +6835,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R76" s="31"/>
-      <c r="S76" s="31"/>
+      <c r="R76" s="30"/>
+      <c r="S76" s="30"/>
       <c r="T76" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6759,34 +6847,34 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X76" s="31"/>
-      <c r="Y76" s="31"/>
+      <c r="X76" s="30"/>
+      <c r="Y76" s="30"/>
       <c r="Z76" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA76" s="9"/>
       <c r="AB76" s="9"/>
-      <c r="AC76" s="24">
+      <c r="AC76" s="23">
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="AD76" s="32">
+      <c r="AD76" s="31">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="AE76" s="21">
+      <c r="AE76" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF76" s="21">
+      <c r="AF76" s="20">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>65</v>
+    <row r="77" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="40" t="s">
+        <v>74</v>
       </c>
       <c r="B77" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6798,20 +6886,22 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
       <c r="H77" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
-      <c r="K77" s="5" t="str">
+      <c r="K77" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L77" s="31"/>
-      <c r="M77" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="L77" s="43"/>
+      <c r="M77" s="43">
+        <v>0.1875</v>
+      </c>
       <c r="N77" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6822,8 +6912,8 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="R77" s="31"/>
-      <c r="S77" s="31"/>
+      <c r="R77" s="30"/>
+      <c r="S77" s="30"/>
       <c r="T77" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -6834,33 +6924,35 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X77" s="31"/>
-      <c r="Y77" s="31"/>
+      <c r="X77" s="30"/>
+      <c r="Y77" s="30"/>
       <c r="Z77" s="8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AA77" s="9"/>
       <c r="AB77" s="9"/>
-      <c r="AC77" s="24">
+      <c r="AC77" s="23">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AD77" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD77" s="31">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE77" s="21">
+        <v>0.1875</v>
+      </c>
+      <c r="AE77" s="20">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AF77" s="21">
+      <c r="AF77" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="33" t="s">
+        <v>75</v>
+      </c>
       <c r="B78" s="1" t="str">
         <f t="shared" ref="B78:B86" si="50">IF(D78="", "",D78/AD78)</f>
         <v/>
@@ -6871,20 +6963,22 @@
         <f t="shared" ref="E78:E86" si="51">IF(G78="", "",G78/AD78)</f>
         <v/>
       </c>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
       <c r="H78" s="1" t="str">
         <f t="shared" ref="H78:H86" si="52">IF(J78="", "",J78/AD78)</f>
         <v/>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
-      <c r="K78" s="5" t="str">
+      <c r="K78" s="5">
         <f t="shared" ref="K78:K86" si="53">IF(M78="", "",M78/AD78)</f>
-        <v/>
-      </c>
-      <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="L78" s="43"/>
+      <c r="M78" s="43">
+        <v>6.25E-2</v>
+      </c>
       <c r="N78" s="1" t="str">
         <f t="shared" ref="N78:N86" si="54">IF(P78="", "",P78/AD78)</f>
         <v/>
@@ -6895,8 +6989,8 @@
         <f t="shared" ref="Q78:Q86" si="55">IF(S78="", "",S78/AD78)</f>
         <v/>
       </c>
-      <c r="R78" s="31"/>
-      <c r="S78" s="31"/>
+      <c r="R78" s="30"/>
+      <c r="S78" s="30"/>
       <c r="T78" s="1" t="str">
         <f t="shared" ref="T78:T86" si="56">IF(V78="", "",V78/AD78)</f>
         <v/>
@@ -6907,33 +7001,35 @@
         <f t="shared" ref="W78:W86" si="57">IF(Y78="", "",Y78/AD78)</f>
         <v/>
       </c>
-      <c r="X78" s="31"/>
-      <c r="Y78" s="31"/>
+      <c r="X78" s="30"/>
+      <c r="Y78" s="30"/>
       <c r="Z78" s="8" t="str">
         <f t="shared" ref="Z78:Z86" si="58">IF(AB78="", "",AB78/AD78)</f>
         <v/>
       </c>
       <c r="AA78" s="9"/>
       <c r="AB78" s="9"/>
-      <c r="AC78" s="24">
+      <c r="AC78" s="23">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AD78" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD78" s="31">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE78" s="21">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AE78" s="20">
         <f t="shared" ref="AE78:AE86" si="59">SUM(C78,F78,I78,L78,O78,R78,U78,X78,AA78)</f>
         <v>0</v>
       </c>
-      <c r="AF78" s="21">
+      <c r="AF78" s="20">
         <f t="shared" ref="AF78:AF86" si="60">SUM(D78,G78,J78,M78,P78,S78,V78,Y78,AB78)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="33" t="s">
+        <v>76</v>
+      </c>
       <c r="B79" s="1" t="str">
         <f t="shared" si="50"/>
         <v/>
@@ -6944,20 +7040,22 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
       <c r="H79" s="1" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
-      <c r="K79" s="5" t="str">
+      <c r="K79" s="5">
         <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="L79" s="31"/>
-      <c r="M79" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="L79" s="43"/>
+      <c r="M79" s="43">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="N79" s="1" t="str">
         <f t="shared" si="54"/>
         <v/>
@@ -6968,8 +7066,8 @@
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="R79" s="31"/>
-      <c r="S79" s="31"/>
+      <c r="R79" s="30"/>
+      <c r="S79" s="30"/>
       <c r="T79" s="1" t="str">
         <f t="shared" si="56"/>
         <v/>
@@ -6980,33 +7078,35 @@
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="X79" s="31"/>
-      <c r="Y79" s="31"/>
+      <c r="X79" s="30"/>
+      <c r="Y79" s="30"/>
       <c r="Z79" s="8" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA79" s="9"/>
       <c r="AB79" s="9"/>
-      <c r="AC79" s="24">
+      <c r="AC79" s="23">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AD79" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD79" s="31">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE79" s="21">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="AE79" s="20">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="AF79" s="21">
+      <c r="AF79" s="20">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="33" t="s">
+        <v>77</v>
+      </c>
       <c r="B80" s="1" t="str">
         <f t="shared" si="50"/>
         <v/>
@@ -7017,20 +7117,24 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
       <c r="H80" s="1" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
-      <c r="K80" s="5" t="str">
+      <c r="K80" s="5">
         <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="L80" s="31"/>
-      <c r="M80" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="L80" s="43">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M80" s="43">
+        <v>6.25E-2</v>
+      </c>
       <c r="N80" s="1" t="str">
         <f t="shared" si="54"/>
         <v/>
@@ -7041,8 +7145,8 @@
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="R80" s="31"/>
-      <c r="S80" s="31"/>
+      <c r="R80" s="30"/>
+      <c r="S80" s="30"/>
       <c r="T80" s="1" t="str">
         <f t="shared" si="56"/>
         <v/>
@@ -7053,33 +7157,35 @@
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="X80" s="31"/>
-      <c r="Y80" s="31"/>
+      <c r="X80" s="30"/>
+      <c r="Y80" s="30"/>
       <c r="Z80" s="8" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA80" s="9"/>
       <c r="AB80" s="9"/>
-      <c r="AC80" s="24">
+      <c r="AC80" s="23">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AD80" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD80" s="31">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE80" s="21">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AE80" s="20">
         <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="AF80" s="21">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="AF80" s="20">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" ht="24.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="41" t="s">
+        <v>78</v>
+      </c>
       <c r="B81" s="1" t="str">
         <f t="shared" si="50"/>
         <v/>
@@ -7090,20 +7196,22 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
       <c r="H81" s="1" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
-      <c r="K81" s="5" t="str">
+      <c r="K81" s="5">
         <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="L81" s="31"/>
-      <c r="M81" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="L81" s="43"/>
+      <c r="M81" s="43">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="N81" s="1" t="str">
         <f t="shared" si="54"/>
         <v/>
@@ -7114,8 +7222,8 @@
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="R81" s="31"/>
-      <c r="S81" s="31"/>
+      <c r="R81" s="30"/>
+      <c r="S81" s="30"/>
       <c r="T81" s="1" t="str">
         <f t="shared" si="56"/>
         <v/>
@@ -7126,33 +7234,35 @@
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="X81" s="31"/>
-      <c r="Y81" s="31"/>
+      <c r="X81" s="30"/>
+      <c r="Y81" s="30"/>
       <c r="Z81" s="8" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA81" s="9"/>
       <c r="AB81" s="9"/>
-      <c r="AC81" s="24">
+      <c r="AC81" s="23">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AD81" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD81" s="31">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE81" s="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AE81" s="20">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="AF81" s="21">
+      <c r="AF81" s="20">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="33" t="s">
+        <v>79</v>
+      </c>
       <c r="B82" s="1" t="str">
         <f t="shared" si="50"/>
         <v/>
@@ -7163,20 +7273,22 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
       <c r="H82" s="1" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
-      <c r="K82" s="5" t="str">
+      <c r="K82" s="5">
         <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="L82" s="31"/>
-      <c r="M82" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="L82" s="43"/>
+      <c r="M82" s="43">
+        <v>0.1875</v>
+      </c>
       <c r="N82" s="1" t="str">
         <f t="shared" si="54"/>
         <v/>
@@ -7187,8 +7299,8 @@
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="R82" s="31"/>
-      <c r="S82" s="31"/>
+      <c r="R82" s="30"/>
+      <c r="S82" s="30"/>
       <c r="T82" s="1" t="str">
         <f t="shared" si="56"/>
         <v/>
@@ -7199,33 +7311,35 @@
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="X82" s="31"/>
-      <c r="Y82" s="31"/>
+      <c r="X82" s="30"/>
+      <c r="Y82" s="30"/>
       <c r="Z82" s="8" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA82" s="9"/>
       <c r="AB82" s="9"/>
-      <c r="AC82" s="24">
+      <c r="AC82" s="23">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AD82" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD82" s="31">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE82" s="21">
+        <v>0.1875</v>
+      </c>
+      <c r="AE82" s="20">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="AF82" s="21">
+      <c r="AF82" s="20">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="33" t="s">
+        <v>80</v>
+      </c>
       <c r="B83" s="1" t="str">
         <f t="shared" si="50"/>
         <v/>
@@ -7236,20 +7350,22 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
       <c r="H83" s="1" t="str">
         <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
-      <c r="K83" s="5" t="str">
+      <c r="K83" s="5">
         <f t="shared" si="53"/>
-        <v/>
-      </c>
-      <c r="L83" s="31"/>
-      <c r="M83" s="31"/>
+        <v>1</v>
+      </c>
+      <c r="L83" s="43"/>
+      <c r="M83" s="43">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="N83" s="1" t="str">
         <f t="shared" si="54"/>
         <v/>
@@ -7260,8 +7376,8 @@
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="R83" s="31"/>
-      <c r="S83" s="31"/>
+      <c r="R83" s="30"/>
+      <c r="S83" s="30"/>
       <c r="T83" s="1" t="str">
         <f t="shared" si="56"/>
         <v/>
@@ -7272,33 +7388,35 @@
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="X83" s="31"/>
-      <c r="Y83" s="31"/>
+      <c r="X83" s="30"/>
+      <c r="Y83" s="30"/>
       <c r="Z83" s="8" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA83" s="9"/>
       <c r="AB83" s="9"/>
-      <c r="AC83" s="24">
+      <c r="AC83" s="23">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="AD83" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD83" s="31">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="AE83" s="21">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="AE83" s="20">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="AF83" s="21">
+      <c r="AF83" s="20">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="33" t="s">
+        <v>81</v>
+      </c>
       <c r="B84" s="1" t="str">
         <f t="shared" si="50"/>
         <v/>
@@ -7309,8 +7427,8 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
       <c r="H84" s="1" t="str">
         <f t="shared" si="52"/>
         <v/>
@@ -7321,8 +7439,8 @@
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
+      <c r="L84" s="43"/>
+      <c r="M84" s="43"/>
       <c r="N84" s="1" t="str">
         <f t="shared" si="54"/>
         <v/>
@@ -7333,8 +7451,8 @@
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="R84" s="31"/>
-      <c r="S84" s="31"/>
+      <c r="R84" s="30"/>
+      <c r="S84" s="30"/>
       <c r="T84" s="1" t="str">
         <f t="shared" si="56"/>
         <v/>
@@ -7345,32 +7463,32 @@
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="X84" s="31"/>
-      <c r="Y84" s="31"/>
+      <c r="X84" s="30"/>
+      <c r="Y84" s="30"/>
       <c r="Z84" s="8" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA84" s="9"/>
       <c r="AB84" s="9"/>
-      <c r="AC84" s="24">
+      <c r="AC84" s="23">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD84" s="32">
+      <c r="AD84" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AE84" s="21">
+      <c r="AE84" s="20">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="AF84" s="21">
+      <c r="AF84" s="20">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="1" t="str">
         <f t="shared" si="50"/>
@@ -7382,8 +7500,8 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
       <c r="H85" s="1" t="str">
         <f t="shared" si="52"/>
         <v/>
@@ -7394,8 +7512,8 @@
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="L85" s="31"/>
-      <c r="M85" s="31"/>
+      <c r="L85" s="43"/>
+      <c r="M85" s="43"/>
       <c r="N85" s="1" t="str">
         <f t="shared" si="54"/>
         <v/>
@@ -7406,8 +7524,8 @@
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="R85" s="31"/>
-      <c r="S85" s="31"/>
+      <c r="R85" s="30"/>
+      <c r="S85" s="30"/>
       <c r="T85" s="1" t="str">
         <f t="shared" si="56"/>
         <v/>
@@ -7418,32 +7536,32 @@
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="X85" s="31"/>
-      <c r="Y85" s="31"/>
+      <c r="X85" s="30"/>
+      <c r="Y85" s="30"/>
       <c r="Z85" s="8" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA85" s="9"/>
       <c r="AB85" s="9"/>
-      <c r="AC85" s="24">
+      <c r="AC85" s="23">
         <f t="shared" ref="AC85" si="61">SUM(Z85,W85,T85,Q85,N85,K85,H85,E85,B85)</f>
         <v>0</v>
       </c>
-      <c r="AD85" s="32">
+      <c r="AD85" s="31">
         <f t="shared" ref="AD85" si="62">SUM(AB85,Y85,V85,S85,P85,M85,J85,G85,D85)</f>
         <v>0</v>
       </c>
-      <c r="AE85" s="21">
+      <c r="AE85" s="20">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="AF85" s="21">
+      <c r="AF85" s="20">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
       <c r="B86" s="1" t="str">
         <f t="shared" si="50"/>
@@ -7455,8 +7573,8 @@
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
       <c r="H86" s="1" t="str">
         <f t="shared" si="52"/>
         <v/>
@@ -7467,8 +7585,8 @@
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="L86" s="31"/>
-      <c r="M86" s="31"/>
+      <c r="L86" s="30"/>
+      <c r="M86" s="30"/>
       <c r="N86" s="1" t="str">
         <f t="shared" si="54"/>
         <v/>
@@ -7479,8 +7597,8 @@
         <f t="shared" si="55"/>
         <v/>
       </c>
-      <c r="R86" s="31"/>
-      <c r="S86" s="31"/>
+      <c r="R86" s="30"/>
+      <c r="S86" s="30"/>
       <c r="T86" s="1" t="str">
         <f t="shared" si="56"/>
         <v/>
@@ -7491,126 +7609,126 @@
         <f t="shared" si="57"/>
         <v/>
       </c>
-      <c r="X86" s="31"/>
-      <c r="Y86" s="31"/>
+      <c r="X86" s="30"/>
+      <c r="Y86" s="30"/>
       <c r="Z86" s="8" t="str">
         <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AA86" s="9"/>
       <c r="AB86" s="9"/>
-      <c r="AC86" s="24">
+      <c r="AC86" s="23">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD86" s="32">
+      <c r="AD86" s="31">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AE86" s="21">
+      <c r="AE86" s="20">
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="AF86" s="21">
+      <c r="AF86" s="20">
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="16"/>
-      <c r="C87" s="16">
+    <row r="87" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="15"/>
+      <c r="C87" s="15">
         <f>SUM(C5:C86)</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D87" s="15">
         <f>SUM(D5:D86)</f>
         <v>2.708333333333333</v>
       </c>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16">
+      <c r="E87" s="15"/>
+      <c r="F87" s="15">
         <f>SUM(F5:F86)</f>
         <v>0.72569444444444453</v>
       </c>
-      <c r="G87" s="16">
+      <c r="G87" s="15">
         <f>SUM(G5:G86)</f>
         <v>3.2708333333333335</v>
       </c>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16">
+      <c r="H87" s="15"/>
+      <c r="I87" s="15">
         <f>SUM(I5:I86)</f>
         <v>0.76388888888888895</v>
       </c>
-      <c r="J87" s="16">
+      <c r="J87" s="15">
         <f>SUM(J5:J86)</f>
         <v>2.3854166666666661</v>
       </c>
-      <c r="K87" s="16"/>
-      <c r="L87" s="16">
+      <c r="K87" s="15"/>
+      <c r="L87" s="15">
         <f>SUM(L5:L86)</f>
-        <v>0</v>
-      </c>
-      <c r="M87" s="16">
+        <v>0.47916666666666663</v>
+      </c>
+      <c r="M87" s="15">
         <f>SUM(M5:M86)</f>
-        <v>0</v>
-      </c>
-      <c r="N87" s="16"/>
-      <c r="O87" s="16">
+        <v>2.6041666666666665</v>
+      </c>
+      <c r="N87" s="15"/>
+      <c r="O87" s="15">
         <f>SUM(O5:O86)</f>
         <v>0.85416666666666652</v>
       </c>
-      <c r="P87" s="16">
+      <c r="P87" s="15">
         <f>SUM(P5:P86)</f>
         <v>2.0833333333333335</v>
       </c>
-      <c r="Q87" s="16"/>
-      <c r="R87" s="16">
+      <c r="Q87" s="15"/>
+      <c r="R87" s="15">
         <f>SUM(R5:R86)</f>
         <v>0</v>
       </c>
-      <c r="S87" s="16">
+      <c r="S87" s="15">
         <f>SUM(S5:S86)</f>
         <v>0</v>
       </c>
-      <c r="T87" s="16"/>
-      <c r="U87" s="16">
+      <c r="T87" s="15"/>
+      <c r="U87" s="15">
         <f>SUM(U5:U86)</f>
         <v>0</v>
       </c>
-      <c r="V87" s="16">
+      <c r="V87" s="15">
         <f>SUM(V5:V86)</f>
         <v>0</v>
       </c>
-      <c r="W87" s="16"/>
-      <c r="X87" s="16">
+      <c r="W87" s="15"/>
+      <c r="X87" s="15">
         <f>SUM(X5:X86)</f>
         <v>0</v>
       </c>
-      <c r="Y87" s="16">
+      <c r="Y87" s="15">
         <f>SUM(Y5:Y86)</f>
         <v>0</v>
       </c>
-      <c r="Z87" s="16"/>
-      <c r="AA87" s="16">
+      <c r="Z87" s="15"/>
+      <c r="AA87" s="15">
         <f>SUM(AA5:AA86)</f>
         <v>0</v>
       </c>
-      <c r="AB87" s="16">
+      <c r="AB87" s="15">
         <f>SUM(AB5:AB86)</f>
         <v>0</v>
       </c>
-      <c r="AC87" s="16"/>
-      <c r="AD87" s="16"/>
-      <c r="AE87" s="18">
+      <c r="AC87" s="15"/>
+      <c r="AD87" s="15"/>
+      <c r="AE87" s="17">
         <f>SUM(AE5:AE86)</f>
-        <v>2.9270833333333339</v>
-      </c>
-      <c r="AF87" s="18">
+        <v>3.40625</v>
+      </c>
+      <c r="AF87" s="17">
         <f>SUM(AF5:AF86)</f>
-        <v>10.281249999999995</v>
-      </c>
-    </row>
-    <row r="88" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AF88" s="16"/>
+        <v>12.885416666666663</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF88" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/01_Planung/01_Dokumente/2015_FS_INM21_B_Aufgaben_Zeit_Projektmitglied_Zuordnung.xlsx
+++ b/01_Planung/01_Dokumente/2015_FS_INM21_B_Aufgaben_Zeit_Projektmitglied_Zuordnung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tickstero\Documents\Github\INM21_Group_B\01_Planung\01_Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandro\Documents\GitHub\INM21_Group_B\01_Planung\01_Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="576" windowWidth="19032" windowHeight="10152"/>
+    <workbookView xWindow="4320" yWindow="570" windowWidth="19035" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -654,8 +654,6 @@
     <xf numFmtId="20" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -664,6 +662,8 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -974,80 +974,80 @@
   <dimension ref="A1:DB88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="4" width="7.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.88671875" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.88671875" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.88671875" customWidth="1"/>
-    <col min="21" max="21" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.88671875" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" customWidth="1"/>
-    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.6640625" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
+    <col min="21" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.7109375" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="25"/>
       <c r="D1" s="7"/>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
       <c r="AA1" s="25"/>
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
     </row>
-    <row r="2" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="25"/>
@@ -1080,7 +1080,7 @@
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
     </row>
-    <row r="3" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1111,7 +1111,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:35" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:35" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1232,8 +1232,8 @@
         <f>IF(M5="", "",M5/AD5)</f>
         <v/>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
       <c r="N5" s="1" t="str">
         <f>IF(P5="", "",P5/AD5)</f>
         <v/>
@@ -1269,7 +1269,7 @@
       <c r="AE5" s="20"/>
       <c r="AF5" s="20"/>
     </row>
-    <row r="6" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1299,10 +1299,10 @@
         <f>IF(M6="", "",M6/AD6)</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="41">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="41">
         <v>6.25E-2</v>
       </c>
       <c r="N6" s="1" t="str">
@@ -1352,7 +1352,7 @@
         <v>0.45833333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>73</v>
       </c>
@@ -1382,8 +1382,8 @@
         <f t="shared" ref="K7:K77" si="4">IF(M7="", "",M7/AD7)</f>
         <v/>
       </c>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
       <c r="N7" s="1" t="str">
         <f t="shared" ref="N7:N77" si="5">IF(P7="", "",P7/AD7)</f>
         <v/>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="AI7" s="10"/>
     </row>
-    <row r="8" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1456,8 +1456,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
       <c r="N8" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="AI8" s="18"/>
     </row>
-    <row r="9" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -1532,8 +1532,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
       <c r="N9" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -1611,8 +1611,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
       <c r="N10" s="1">
         <f>IF(P10="", "",P10/AD10)</f>
         <v>0.46153846153846145</v>
@@ -1664,7 +1664,7 @@
         <v>0.27083333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>27</v>
       </c>
@@ -1698,8 +1698,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
       <c r="N11" s="1" t="str">
         <f>IF(P11="", "",P11/AD11)</f>
         <v/>
@@ -1747,7 +1747,7 @@
         <v>0.79166666666666674</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>28</v>
       </c>
@@ -1785,8 +1785,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
       <c r="N12" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1834,7 +1834,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>29</v>
       </c>
@@ -1864,8 +1864,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
       <c r="N13" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1913,7 +1913,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1937,8 +1937,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
       <c r="N14" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2010,8 +2010,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
       <c r="N15" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2083,8 +2083,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
       <c r="N16" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2156,8 +2156,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
       <c r="N17" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:106" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14"/>
       <c r="B18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2229,8 +2229,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
+      <c r="L18" s="41"/>
+      <c r="M18" s="41"/>
       <c r="N18" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:106" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>7</v>
       </c>
@@ -2304,8 +2304,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="41"/>
       <c r="N19" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2427,7 +2427,7 @@
       <c r="DA19"/>
       <c r="DB19"/>
     </row>
-    <row r="20" spans="1:106" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:106" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>69</v>
       </c>
@@ -2457,8 +2457,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
       <c r="N20" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2580,7 +2580,7 @@
       <c r="DA20"/>
       <c r="DB20"/>
     </row>
-    <row r="21" spans="1:106" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:106" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>30</v>
       </c>
@@ -2610,8 +2610,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
       <c r="N21" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2733,7 +2733,7 @@
       <c r="DA21"/>
       <c r="DB21"/>
     </row>
-    <row r="22" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>68</v>
       </c>
@@ -2763,8 +2763,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
       <c r="N22" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2812,7 +2812,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:106" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14"/>
       <c r="B23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2836,8 +2836,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
       <c r="N23" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>8</v>
       </c>
@@ -2911,8 +2911,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
       <c r="N24" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>31</v>
       </c>
@@ -2992,8 +2992,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L25" s="43"/>
-      <c r="M25" s="43"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
       <c r="N25" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3041,7 +3041,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="26" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>32</v>
       </c>
@@ -3073,8 +3073,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
       <c r="N26" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3122,7 +3122,7 @@
         <v>0.14583333333333331</v>
       </c>
     </row>
-    <row r="27" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>65</v>
       </c>
@@ -3154,8 +3154,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L27" s="43"/>
-      <c r="M27" s="43"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
       <c r="N27" s="1">
         <f t="shared" si="5"/>
         <v>0.18181818181818182</v>
@@ -3207,7 +3207,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="28" spans="1:106" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>66</v>
       </c>
@@ -3245,10 +3245,10 @@
         <f t="shared" si="4"/>
         <v>0.27999999999999997</v>
       </c>
-      <c r="L28" s="43">
+      <c r="L28" s="41">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="M28" s="43">
+      <c r="M28" s="41">
         <v>0.14583333333333334</v>
       </c>
       <c r="N28" s="1" t="str">
@@ -3298,7 +3298,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="29" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>9</v>
       </c>
@@ -3324,8 +3324,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
       <c r="N29" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>72</v>
       </c>
@@ -3395,8 +3395,8 @@
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="34"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
       <c r="N30" s="8"/>
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
@@ -3417,7 +3417,7 @@
       <c r="AE30" s="20"/>
       <c r="AF30" s="20"/>
     </row>
-    <row r="31" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>70</v>
       </c>
@@ -3429,7 +3429,7 @@
       <c r="D31" s="9"/>
       <c r="E31" s="5">
         <f t="shared" si="2"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F31" s="30">
         <v>0.16666666666666666</v>
@@ -3443,16 +3443,9 @@
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="5">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
-      <c r="L31" s="43">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M31" s="43">
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="K31" s="5"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
       <c r="N31" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3488,25 +3481,25 @@
         <v>1</v>
       </c>
       <c r="AD31" s="31">
-        <f t="shared" ref="AD31:AD50" si="26">SUM(AB31,Y31,V31,S31,P31,M31,J31,G31,D31)</f>
-        <v>0.33333333333333331</v>
+        <f>SUM(AB31,Y31,V31,S31,P31,M31,J31,G31,D31)</f>
+        <v>0.25</v>
       </c>
       <c r="AE31" s="20">
-        <f t="shared" si="11"/>
-        <v>0.20833333333333331</v>
+        <f>SUM(C31,F31,I31,L31,O31,R31,U31,X31,AA31)</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AF31" s="20">
-        <f t="shared" si="12"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="32" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
+        <f>SUM(D31,G31,J31,M31,P31,S31,V31,Y31,AB31)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
-        <v>0.23809523809523808</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9">
@@ -3514,17 +3507,17 @@
       </c>
       <c r="E32" s="5">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.28000000000000008</v>
       </c>
       <c r="F32" s="30">
-        <v>4.1666666666666664E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="G32" s="30">
         <v>0.14583333333333334</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="3"/>
-        <v>0.14285714285714285</v>
+        <v>0.12000000000000002</v>
       </c>
       <c r="I32" s="9">
         <v>2.0833333333333332E-2</v>
@@ -3532,15 +3525,19 @@
       <c r="J32" s="9">
         <v>6.25E-2</v>
       </c>
-      <c r="K32" s="5" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
+      <c r="K32" s="5">
+        <f>IF(M32="", "",M32/AD32)</f>
+        <v>0.16</v>
+      </c>
+      <c r="L32" s="41">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M32" s="41">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="N32" s="1">
         <f t="shared" si="5"/>
-        <v>0.2857142857142857</v>
+        <v>0.24000000000000005</v>
       </c>
       <c r="O32" s="9">
         <v>8.3333333333333329E-2</v>
@@ -3577,19 +3574,19 @@
         <v>1</v>
       </c>
       <c r="AD32" s="31">
-        <f t="shared" si="26"/>
-        <v>0.43750000000000006</v>
+        <f>SUM(AB32,Y32,V32,S32,P32,M32,J32,G32,D32)</f>
+        <v>0.52083333333333326</v>
       </c>
       <c r="AE32" s="20">
-        <f t="shared" si="11"/>
-        <v>0.14583333333333331</v>
+        <f>SUM(C32,F32,I32,L32,O32,R32,U32,X32,AA32)</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AF32" s="20">
-        <f t="shared" si="12"/>
-        <v>0.4375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+        <f>SUM(D32,G32,J32,M32,P32,S32,V32,Y32,AB32)</f>
+        <v>0.52083333333333326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>34</v>
       </c>
@@ -3619,10 +3616,10 @@
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="L33" s="43">
+      <c r="L33" s="41">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="M33" s="43">
+      <c r="M33" s="41">
         <v>6.25E-2</v>
       </c>
       <c r="N33" s="1" t="str">
@@ -3660,7 +3657,7 @@
         <v>1</v>
       </c>
       <c r="AD33" s="31">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="AD33:AD50" si="26">SUM(AB33,Y33,V33,S33,P33,M33,J33,G33,D33)</f>
         <v>0.3125</v>
       </c>
       <c r="AE33" s="20">
@@ -3672,7 +3669,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
@@ -3708,10 +3705,10 @@
         <f t="shared" si="4"/>
         <v>0.23076923076923078</v>
       </c>
-      <c r="L34" s="43">
+      <c r="L34" s="41">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="M34" s="43">
+      <c r="M34" s="41">
         <v>6.25E-2</v>
       </c>
       <c r="N34" s="1" t="str">
@@ -3761,7 +3758,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>36</v>
       </c>
@@ -3795,10 +3792,10 @@
         <f t="shared" si="4"/>
         <v>0.35714285714285715</v>
       </c>
-      <c r="L35" s="43">
+      <c r="L35" s="41">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="M35" s="43">
+      <c r="M35" s="41">
         <v>0.10416666666666667</v>
       </c>
       <c r="N35" s="1" t="str">
@@ -3848,7 +3845,7 @@
         <v>0.29166666666666669</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>37</v>
       </c>
@@ -3882,8 +3879,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
       <c r="N36" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3931,7 +3928,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>38</v>
       </c>
@@ -3963,8 +3960,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
       <c r="N37" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4012,7 +4009,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>39</v>
       </c>
@@ -4044,8 +4041,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
       <c r="N38" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4093,7 +4090,7 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>67</v>
       </c>
@@ -4127,8 +4124,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
       <c r="N39" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4176,7 +4173,7 @@
         <v>1.0833333333333333</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>40</v>
       </c>
@@ -4204,8 +4201,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L40" s="43"/>
-      <c r="M40" s="43"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
       <c r="N40" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4253,7 +4250,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="41" spans="1:32" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>71</v>
       </c>
@@ -4283,8 +4280,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
       <c r="N41" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4332,7 +4329,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>10</v>
       </c>
@@ -4358,8 +4355,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
       <c r="N42" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4407,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>41</v>
       </c>
@@ -4435,8 +4432,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L43" s="43"/>
-      <c r="M43" s="43"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
       <c r="N43" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4484,7 +4481,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>42</v>
       </c>
@@ -4512,8 +4509,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L44" s="43"/>
-      <c r="M44" s="43"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
       <c r="N44" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4561,7 +4558,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>43</v>
       </c>
@@ -4589,8 +4586,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L45" s="43"/>
-      <c r="M45" s="43"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
       <c r="N45" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4638,7 +4635,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4662,8 +4659,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L46" s="43"/>
-      <c r="M46" s="43"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
       <c r="N46" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4711,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4735,8 +4732,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L47" s="43"/>
-      <c r="M47" s="43"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
       <c r="N47" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4784,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4808,8 +4805,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L48" s="43"/>
-      <c r="M48" s="43"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
       <c r="N48" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4857,7 +4854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4881,8 +4878,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L49" s="43"/>
-      <c r="M49" s="43"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
       <c r="N49" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4930,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:32" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14"/>
       <c r="B50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4954,8 +4951,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L50" s="43"/>
-      <c r="M50" s="43"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
       <c r="N50" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5003,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>11</v>
       </c>
@@ -5029,10 +5026,10 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L51" s="43">
+      <c r="L51" s="41">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="M51" s="43">
+      <c r="M51" s="41">
         <v>0.1875</v>
       </c>
       <c r="N51" s="1" t="str">
@@ -5082,7 +5079,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="52" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
         <v>44</v>
       </c>
@@ -5108,10 +5105,10 @@
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
-      <c r="L52" s="43">
+      <c r="L52" s="41">
         <v>6.25E-2</v>
       </c>
-      <c r="M52" s="43">
+      <c r="M52" s="41">
         <v>0.1875</v>
       </c>
       <c r="N52" s="1">
@@ -5163,7 +5160,7 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>45</v>
       </c>
@@ -5189,8 +5186,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
       <c r="N53" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5238,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
         <v>46</v>
       </c>
@@ -5264,10 +5261,10 @@
         <f t="shared" si="4"/>
         <v>0.45454545454545453</v>
       </c>
-      <c r="L54" s="43">
+      <c r="L54" s="41">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="M54" s="43">
+      <c r="M54" s="41">
         <v>0.10416666666666667</v>
       </c>
       <c r="N54" s="1">
@@ -5321,7 +5318,7 @@
         <v>0.22916666666666669</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
         <v>47</v>
       </c>
@@ -5347,8 +5344,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L55" s="43"/>
-      <c r="M55" s="43"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
       <c r="N55" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5396,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
         <v>48</v>
       </c>
@@ -5426,10 +5423,10 @@
         <f t="shared" si="4"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="L56" s="43">
+      <c r="L56" s="41">
         <v>6.25E-2</v>
       </c>
-      <c r="M56" s="43">
+      <c r="M56" s="41">
         <v>0.14583333333333334</v>
       </c>
       <c r="N56" s="1" t="str">
@@ -5479,7 +5476,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
         <v>49</v>
       </c>
@@ -5493,8 +5490,8 @@
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="34"/>
-      <c r="L57" s="43"/>
-      <c r="M57" s="43"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
       <c r="N57" s="8"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
@@ -5527,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
         <v>50</v>
       </c>
@@ -5541,10 +5538,10 @@
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="34"/>
-      <c r="L58" s="43">
+      <c r="L58" s="41">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="M58" s="43">
+      <c r="M58" s="41">
         <v>0.14583333333333334</v>
       </c>
       <c r="N58" s="8"/>
@@ -5579,7 +5576,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="59" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>51</v>
       </c>
@@ -5595,8 +5592,8 @@
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="34"/>
-      <c r="L59" s="43"/>
-      <c r="M59" s="43"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
       <c r="N59" s="8"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
@@ -5629,7 +5626,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
         <v>52</v>
       </c>
@@ -5648,8 +5645,8 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="K60" s="34"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="43"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
       <c r="N60" s="8"/>
       <c r="O60" s="9"/>
       <c r="P60" s="9"/>
@@ -5682,7 +5679,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
         <v>53</v>
       </c>
@@ -5696,8 +5693,8 @@
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="34"/>
-      <c r="L61" s="43"/>
-      <c r="M61" s="43"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
       <c r="N61" s="8"/>
       <c r="O61" s="9">
         <v>0.20833333333333334</v>
@@ -5734,7 +5731,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="33" t="s">
         <v>54</v>
       </c>
@@ -5748,10 +5745,10 @@
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="34"/>
-      <c r="L62" s="43">
+      <c r="L62" s="41">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="M62" s="43">
+      <c r="M62" s="41">
         <v>0.10416666666666667</v>
       </c>
       <c r="N62" s="8"/>
@@ -5790,7 +5787,7 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>55</v>
       </c>
@@ -5816,8 +5813,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L63" s="43"/>
-      <c r="M63" s="43"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
       <c r="N63" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5865,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="33" t="s">
         <v>56</v>
       </c>
@@ -5891,10 +5888,10 @@
         <f t="shared" si="4"/>
         <v>0.63636363636363635</v>
       </c>
-      <c r="L64" s="43">
+      <c r="L64" s="41">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="M64" s="43">
+      <c r="M64" s="41">
         <v>0.14583333333333334</v>
       </c>
       <c r="N64" s="1">
@@ -5948,7 +5945,7 @@
         <v>0.22916666666666669</v>
       </c>
     </row>
-    <row r="65" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
         <v>57</v>
       </c>
@@ -5974,8 +5971,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L65" s="43"/>
-      <c r="M65" s="43"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
       <c r="N65" s="1">
         <f t="shared" si="5"/>
         <v>1</v>
@@ -6027,7 +6024,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="33" t="s">
         <v>58</v>
       </c>
@@ -6057,10 +6054,10 @@
         <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="L66" s="43">
+      <c r="L66" s="41">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="M66" s="43">
+      <c r="M66" s="41">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="N66" s="1" t="str">
@@ -6110,7 +6107,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="33" t="s">
         <v>59</v>
       </c>
@@ -6138,8 +6135,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L67" s="43"/>
-      <c r="M67" s="43"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
       <c r="N67" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6187,7 +6184,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="33" t="s">
         <v>60</v>
       </c>
@@ -6215,8 +6212,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L68" s="43"/>
-      <c r="M68" s="43"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="41"/>
       <c r="N68" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6264,7 +6261,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
         <v>61</v>
       </c>
@@ -6290,8 +6287,8 @@
         <f t="shared" si="4"/>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="L69" s="43"/>
-      <c r="M69" s="43">
+      <c r="L69" s="41"/>
+      <c r="M69" s="41">
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="N69" s="1">
@@ -6345,7 +6342,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="70" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="33" t="s">
         <v>62</v>
       </c>
@@ -6371,8 +6368,8 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43">
+      <c r="L70" s="41"/>
+      <c r="M70" s="41">
         <v>0.10416666666666667</v>
       </c>
       <c r="N70" s="1" t="str">
@@ -6422,7 +6419,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="71" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
         <v>63</v>
       </c>
@@ -6452,8 +6449,8 @@
         <f t="shared" si="4"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43">
+      <c r="L71" s="41"/>
+      <c r="M71" s="41">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="N71" s="1" t="str">
@@ -6503,7 +6500,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="33" t="s">
         <v>64</v>
       </c>
@@ -6531,8 +6528,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L72" s="43"/>
-      <c r="M72" s="43"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
       <c r="N72" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6580,7 +6577,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="B73" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6604,8 +6601,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L73" s="43"/>
-      <c r="M73" s="43"/>
+      <c r="L73" s="41"/>
+      <c r="M73" s="41"/>
       <c r="N73" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6653,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="B74" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6677,8 +6674,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
+      <c r="L74" s="41"/>
+      <c r="M74" s="41"/>
       <c r="N74" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6726,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
       <c r="B75" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6750,8 +6747,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L75" s="43"/>
-      <c r="M75" s="43"/>
+      <c r="L75" s="41"/>
+      <c r="M75" s="41"/>
       <c r="N75" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6799,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:32" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14"/>
       <c r="B76" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6823,8 +6820,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L76" s="43"/>
-      <c r="M76" s="43"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
       <c r="N76" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6872,8 +6869,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="40" t="s">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A77" s="38" t="s">
         <v>74</v>
       </c>
       <c r="B77" s="1" t="str">
@@ -6898,8 +6895,8 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L77" s="43"/>
-      <c r="M77" s="43">
+      <c r="L77" s="41"/>
+      <c r="M77" s="41">
         <v>0.1875</v>
       </c>
       <c r="N77" s="1" t="str">
@@ -6949,7 +6946,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="78" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
         <v>75</v>
       </c>
@@ -6975,8 +6972,8 @@
         <f t="shared" ref="K78:K86" si="53">IF(M78="", "",M78/AD78)</f>
         <v>1</v>
       </c>
-      <c r="L78" s="43"/>
-      <c r="M78" s="43">
+      <c r="L78" s="41"/>
+      <c r="M78" s="41">
         <v>6.25E-2</v>
       </c>
       <c r="N78" s="1" t="str">
@@ -7026,7 +7023,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="33" t="s">
         <v>76</v>
       </c>
@@ -7052,8 +7049,8 @@
         <f t="shared" si="53"/>
         <v>1</v>
       </c>
-      <c r="L79" s="43"/>
-      <c r="M79" s="43">
+      <c r="L79" s="41"/>
+      <c r="M79" s="41">
         <v>0.10416666666666667</v>
       </c>
       <c r="N79" s="1" t="str">
@@ -7103,7 +7100,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="80" spans="1:32" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:32" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
         <v>77</v>
       </c>
@@ -7129,10 +7126,10 @@
         <f t="shared" si="53"/>
         <v>1</v>
       </c>
-      <c r="L80" s="43">
+      <c r="L80" s="41">
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="M80" s="43">
+      <c r="M80" s="41">
         <v>6.25E-2</v>
       </c>
       <c r="N80" s="1" t="str">
@@ -7182,8 +7179,8 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:32" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="41" t="s">
+    <row r="81" spans="1:32" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="39" t="s">
         <v>78</v>
       </c>
       <c r="B81" s="1" t="str">
@@ -7208,8 +7205,8 @@
         <f t="shared" si="53"/>
         <v>1</v>
       </c>
-      <c r="L81" s="43"/>
-      <c r="M81" s="43">
+      <c r="L81" s="41"/>
+      <c r="M81" s="41">
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="N81" s="1" t="str">
@@ -7259,7 +7256,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:32" ht="24.75" x14ac:dyDescent="0.25">
       <c r="A82" s="33" t="s">
         <v>79</v>
       </c>
@@ -7285,8 +7282,8 @@
         <f t="shared" si="53"/>
         <v>1</v>
       </c>
-      <c r="L82" s="43"/>
-      <c r="M82" s="43">
+      <c r="L82" s="41"/>
+      <c r="M82" s="41">
         <v>0.1875</v>
       </c>
       <c r="N82" s="1" t="str">
@@ -7336,7 +7333,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="83" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="33" t="s">
         <v>80</v>
       </c>
@@ -7362,8 +7359,8 @@
         <f t="shared" si="53"/>
         <v>1</v>
       </c>
-      <c r="L83" s="43"/>
-      <c r="M83" s="43">
+      <c r="L83" s="41"/>
+      <c r="M83" s="41">
         <v>0.10416666666666667</v>
       </c>
       <c r="N83" s="1" t="str">
@@ -7413,7 +7410,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="84" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="33" t="s">
         <v>81</v>
       </c>
@@ -7439,8 +7436,8 @@
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="L84" s="43"/>
-      <c r="M84" s="43"/>
+      <c r="L84" s="41"/>
+      <c r="M84" s="41"/>
       <c r="N84" s="1" t="str">
         <f t="shared" si="54"/>
         <v/>
@@ -7488,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="14"/>
       <c r="B85" s="1" t="str">
         <f t="shared" si="50"/>
@@ -7512,8 +7509,8 @@
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="L85" s="43"/>
-      <c r="M85" s="43"/>
+      <c r="L85" s="41"/>
+      <c r="M85" s="41"/>
       <c r="N85" s="1" t="str">
         <f t="shared" si="54"/>
         <v/>
@@ -7561,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14"/>
       <c r="B86" s="1" t="str">
         <f t="shared" si="50"/>
@@ -7634,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="15"/>
       <c r="C87" s="15">
         <f>SUM(C5:C86)</f>
@@ -7647,7 +7644,7 @@
       <c r="E87" s="15"/>
       <c r="F87" s="15">
         <f>SUM(F5:F86)</f>
-        <v>0.72569444444444453</v>
+        <v>0.70486111111111116</v>
       </c>
       <c r="G87" s="15">
         <f>SUM(G5:G86)</f>
@@ -7720,14 +7717,14 @@
       <c r="AD87" s="15"/>
       <c r="AE87" s="17">
         <f>SUM(AE5:AE86)</f>
-        <v>3.40625</v>
+        <v>3.385416666666667</v>
       </c>
       <c r="AF87" s="17">
         <f>SUM(AF5:AF86)</f>
         <v>12.885416666666663</v>
       </c>
     </row>
-    <row r="88" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AF88" s="15"/>
     </row>
   </sheetData>

--- a/01_Planung/01_Dokumente/2015_FS_INM21_B_Aufgaben_Zeit_Projektmitglied_Zuordnung.xlsx
+++ b/01_Planung/01_Dokumente/2015_FS_INM21_B_Aufgaben_Zeit_Projektmitglied_Zuordnung.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandro\Documents\GitHub\INM21_Group_B\01_Planung\01_Dokumente\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tickstero\Documents\Github\INM21_Group_B\01_Planung\01_Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="570" windowWidth="19035" windowHeight="10155"/>
+    <workbookView xWindow="4320" yWindow="576" windowWidth="19032" windowHeight="10152"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -266,13 +266,13 @@
     <t>Entwicklungsumgebung und Tools zur online Dokumentation bereitstellen</t>
   </si>
   <si>
-    <t>Paketstruktur der Schichten Organisieren &amp; Anpassen</t>
-  </si>
-  <si>
     <t>Individuelles Portfolio</t>
   </si>
   <si>
     <t>Idividuelles Management Summary</t>
+  </si>
+  <si>
+    <t>Paketstruktur der Schichten organisieren &amp; anpassen</t>
   </si>
 </sst>
 </file>
@@ -973,46 +973,46 @@
   </sheetPr>
   <dimension ref="A1:DB88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="4" width="7.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
-    <col min="21" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.85546875" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.85546875" customWidth="1"/>
-    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.7109375" hidden="1" customWidth="1"/>
-    <col min="31" max="32" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="4" width="7.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.88671875" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.88671875" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.88671875" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.88671875" customWidth="1"/>
+    <col min="27" max="27" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.6640625" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1047,7 @@
       <c r="AB1" s="7"/>
       <c r="AC1" s="7"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="25"/>
@@ -1080,7 +1080,7 @@
       <c r="AB2" s="7"/>
       <c r="AC2" s="7"/>
     </row>
-    <row r="3" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1111,7 +1111,7 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="1:35" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>17</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="AE5" s="20"/>
       <c r="AF5" s="20"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>0.45833333333333337</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>73</v>
       </c>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="AI7" s="10"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="B8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="AI8" s="18"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
         <v>2</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>26</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>0.27083333333333337</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>27</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>0.79166666666666674</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>28</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
         <v>29</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:106" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14"/>
       <c r="B18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:106" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:106" s="11" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>7</v>
       </c>
@@ -2427,7 +2427,7 @@
       <c r="DA19"/>
       <c r="DB19"/>
     </row>
-    <row r="20" spans="1:106" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:106" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>69</v>
       </c>
@@ -2580,7 +2580,7 @@
       <c r="DA20"/>
       <c r="DB20"/>
     </row>
-    <row r="21" spans="1:106" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:106" s="21" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>30</v>
       </c>
@@ -2733,7 +2733,7 @@
       <c r="DA21"/>
       <c r="DB21"/>
     </row>
-    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="14" t="s">
         <v>68</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:106" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14"/>
       <c r="B23" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>8</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="14" t="s">
         <v>31</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="26" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="14" t="s">
         <v>32</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>0.14583333333333331</v>
       </c>
     </row>
-    <row r="27" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="14" t="s">
         <v>65</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="28" spans="1:106" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:106" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>66</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>0.52083333333333337</v>
       </c>
     </row>
-    <row r="29" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>9</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="14" t="s">
         <v>72</v>
       </c>
@@ -3417,7 +3417,7 @@
       <c r="AE30" s="20"/>
       <c r="AF30" s="20"/>
     </row>
-    <row r="31" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>70</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="32" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:106" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>33</v>
       </c>
@@ -3586,13 +3586,13 @@
         <v>0.52083333333333326</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="1">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C33" s="9">
         <v>0.125</v>
@@ -3612,16 +3612,12 @@
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="5">
+      <c r="K33" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="L33" s="41">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="M33" s="41">
-        <v>6.25E-2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
       <c r="N33" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3658,18 +3654,18 @@
       </c>
       <c r="AD33" s="31">
         <f t="shared" ref="AD33:AD50" si="26">SUM(AB33,Y33,V33,S33,P33,M33,J33,G33,D33)</f>
-        <v>0.3125</v>
+        <v>0.25</v>
       </c>
       <c r="AE33" s="20">
         <f t="shared" si="11"/>
-        <v>0.14583333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="AF33" s="20">
         <f t="shared" si="12"/>
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="14" t="s">
         <v>35</v>
       </c>
@@ -3758,13 +3754,13 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="1">
         <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
+        <v>0.16666666666666669</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9">
@@ -3772,7 +3768,7 @@
       </c>
       <c r="E35" s="5">
         <f t="shared" si="2"/>
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="F35" s="30"/>
       <c r="G35" s="30">
@@ -3780,7 +3776,7 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" si="3"/>
-        <v>0.21428571428571427</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="I35" s="9">
         <v>2.0833333333333332E-2</v>
@@ -3790,13 +3786,13 @@
       </c>
       <c r="K35" s="5">
         <f t="shared" si="4"/>
-        <v>0.35714285714285715</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="L35" s="41">
         <v>2.0833333333333332E-2</v>
       </c>
       <c r="M35" s="41">
-        <v>0.10416666666666667</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N35" s="1" t="str">
         <f t="shared" si="5"/>
@@ -3830,11 +3826,11 @@
       <c r="AB35" s="9"/>
       <c r="AC35" s="23">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="AD35" s="31">
         <f t="shared" si="26"/>
-        <v>0.29166666666666669</v>
+        <v>0.24999999999999997</v>
       </c>
       <c r="AE35" s="20">
         <f t="shared" si="11"/>
@@ -3842,16 +3838,16 @@
       </c>
       <c r="AF35" s="20">
         <f t="shared" si="12"/>
-        <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="1">
         <f t="shared" si="1"/>
-        <v>0.55555555555555558</v>
+        <v>0.43478260869565222</v>
       </c>
       <c r="C36" s="9">
         <v>8.3333333333333329E-2</v>
@@ -3861,7 +3857,7 @@
       </c>
       <c r="E36" s="5">
         <f t="shared" si="2"/>
-        <v>0.44444444444444442</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="F36" s="30">
         <v>6.25E-2</v>
@@ -3875,12 +3871,16 @@
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="5" t="str">
+      <c r="K36" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
+        <v>0.21739130434782611</v>
+      </c>
+      <c r="L36" s="41">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M36" s="41">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="N36" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3917,18 +3917,18 @@
       </c>
       <c r="AD36" s="31">
         <f t="shared" si="26"/>
-        <v>0.375</v>
+        <v>0.47916666666666663</v>
       </c>
       <c r="AE36" s="20">
         <f t="shared" si="11"/>
-        <v>0.14583333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AF36" s="20">
         <f t="shared" si="12"/>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>38</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>0.6875</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="14" t="s">
         <v>39</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>67</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>1.0833333333333333</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="14" t="s">
         <v>40</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
         <v>71</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>10</v>
       </c>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="14" t="s">
         <v>41</v>
       </c>
@@ -4481,7 +4481,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="14" t="s">
         <v>42</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="14" t="s">
         <v>43</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
       <c r="B46" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="14"/>
       <c r="B47" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="14"/>
       <c r="B48" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="14"/>
       <c r="B49" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="14"/>
       <c r="B50" s="1" t="str">
         <f t="shared" si="1"/>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>11</v>
       </c>
@@ -5022,16 +5022,12 @@
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
-      <c r="K51" s="5">
+      <c r="K51" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="L51" s="41">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="M51" s="41">
-        <v>0.1875</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
       <c r="N51" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5064,22 +5060,22 @@
       <c r="AB51" s="9"/>
       <c r="AC51" s="23">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD51" s="31">
         <f t="shared" si="18"/>
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="20">
         <f t="shared" si="11"/>
-        <v>2.0833333333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="20">
         <f t="shared" si="29"/>
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
         <v>44</v>
       </c>
@@ -5106,7 +5102,7 @@
         <v>0.6</v>
       </c>
       <c r="L52" s="41">
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="M52" s="41">
         <v>0.1875</v>
@@ -5153,14 +5149,14 @@
       </c>
       <c r="AE52" s="20">
         <f t="shared" si="11"/>
-        <v>6.25E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF52" s="20">
         <f t="shared" si="29"/>
         <v>0.3125</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
         <v>45</v>
       </c>
@@ -5182,12 +5178,16 @@
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
-      <c r="K53" s="5" t="str">
+      <c r="K53" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
+        <v>1</v>
+      </c>
+      <c r="L53" s="41">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M53" s="41">
+        <v>0.1875</v>
+      </c>
       <c r="N53" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5220,22 +5220,22 @@
       <c r="AB53" s="9"/>
       <c r="AC53" s="23">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" s="31">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="AE53" s="20">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AF53" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
         <v>46</v>
       </c>
@@ -5257,19 +5257,15 @@
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
-      <c r="K54" s="5">
+      <c r="K54" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="L54" s="41">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="M54" s="41">
-        <v>0.10416666666666667</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
       <c r="N54" s="1">
         <f t="shared" si="5"/>
-        <v>0.54545454545454541</v>
+        <v>1</v>
       </c>
       <c r="O54" s="9">
         <v>4.1666666666666664E-2</v>
@@ -5307,18 +5303,18 @@
       </c>
       <c r="AD54" s="31">
         <f t="shared" si="18"/>
-        <v>0.22916666666666669</v>
+        <v>0.125</v>
       </c>
       <c r="AE54" s="20">
         <f t="shared" si="11"/>
-        <v>6.25E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AF54" s="20">
         <f t="shared" si="29"/>
-        <v>0.22916666666666669</v>
-      </c>
-    </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
         <v>47</v>
       </c>
@@ -5340,12 +5336,16 @@
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
-      <c r="K55" s="5" t="str">
+      <c r="K55" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L55" s="41"/>
-      <c r="M55" s="41"/>
+        <v>1</v>
+      </c>
+      <c r="L55" s="41">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M55" s="41">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="N55" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5378,22 +5378,22 @@
       <c r="AB55" s="9"/>
       <c r="AC55" s="23">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55" s="31">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AE55" s="20">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF55" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
         <v>48</v>
       </c>
@@ -5405,7 +5405,7 @@
       <c r="D56" s="9"/>
       <c r="E56" s="5">
         <f t="shared" si="2"/>
-        <v>0.41666666666666669</v>
+        <v>1</v>
       </c>
       <c r="F56" s="30">
         <v>1.7361111111111112E-2</v>
@@ -5419,16 +5419,12 @@
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
-      <c r="K56" s="5">
+      <c r="K56" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="L56" s="41">
-        <v>6.25E-2</v>
-      </c>
-      <c r="M56" s="41">
-        <v>0.14583333333333334</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
       <c r="N56" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5465,18 +5461,18 @@
       </c>
       <c r="AD56" s="31">
         <f t="shared" si="18"/>
-        <v>0.25</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AE56" s="20">
         <f t="shared" si="11"/>
-        <v>7.9861111111111105E-2</v>
+        <v>1.7361111111111112E-2</v>
       </c>
       <c r="AF56" s="20">
         <f t="shared" si="29"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
         <v>49</v>
       </c>
@@ -5490,8 +5486,12 @@
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="34"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="41"/>
+      <c r="L57" s="41">
+        <v>6.25E-2</v>
+      </c>
+      <c r="M57" s="41">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="N57" s="8"/>
       <c r="O57" s="9"/>
       <c r="P57" s="9"/>
@@ -5513,18 +5513,18 @@
       </c>
       <c r="AD57" s="31">
         <f t="shared" ref="AD57:AD62" si="39">SUM(AB57,Y57,V57,S57,P57,M57,J57,G57,D57)</f>
-        <v>0</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="AE57" s="20">
         <f t="shared" ref="AE57:AE62" si="40">SUM(C57,F57,I57,L57,O57,R57,U57,X57,AA57)</f>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AF57" s="20">
         <f t="shared" ref="AF57:AF62" si="41">SUM(D57,G57,J57,M57,P57,S57,V57,Y57,AB57)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.14583333333333334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="33" t="s">
         <v>50</v>
       </c>
@@ -5538,12 +5538,8 @@
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="34"/>
-      <c r="L58" s="41">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M58" s="41">
-        <v>0.14583333333333334</v>
-      </c>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
       <c r="N58" s="8"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9"/>
@@ -5565,18 +5561,18 @@
       </c>
       <c r="AD58" s="31">
         <f t="shared" si="39"/>
-        <v>0.14583333333333334</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="20">
         <f t="shared" si="40"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0</v>
       </c>
       <c r="AF58" s="20">
         <f t="shared" si="41"/>
-        <v>0.14583333333333334</v>
-      </c>
-    </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
         <v>51</v>
       </c>
@@ -5592,8 +5588,12 @@
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="34"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="41"/>
+      <c r="L59" s="41">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M59" s="41">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="N59" s="8"/>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
@@ -5615,18 +5615,18 @@
       </c>
       <c r="AD59" s="31">
         <f t="shared" si="39"/>
-        <v>6.25E-2</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="AE59" s="20">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AF59" s="20">
         <f t="shared" si="41"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="33" t="s">
         <v>52</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
         <v>53</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="33" t="s">
         <v>54</v>
       </c>
@@ -5745,12 +5745,8 @@
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="34"/>
-      <c r="L62" s="41">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="M62" s="41">
-        <v>0.10416666666666667</v>
-      </c>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
       <c r="N62" s="8"/>
       <c r="O62" s="9">
         <v>8.3333333333333329E-2</v>
@@ -5776,18 +5772,18 @@
       </c>
       <c r="AD62" s="31">
         <f t="shared" si="39"/>
-        <v>0.27083333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="AE62" s="20">
         <f t="shared" si="40"/>
-        <v>0.125</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AF62" s="20">
         <f t="shared" si="41"/>
-        <v>0.27083333333333331</v>
-      </c>
-    </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
         <v>55</v>
       </c>
@@ -5809,12 +5805,16 @@
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
-      <c r="K63" s="5" t="str">
+      <c r="K63" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L63" s="41"/>
-      <c r="M63" s="41"/>
+        <v>1</v>
+      </c>
+      <c r="L63" s="41">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M63" s="41">
+        <v>0.10416666666666667</v>
+      </c>
       <c r="N63" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5847,22 +5847,22 @@
       <c r="AB63" s="9"/>
       <c r="AC63" s="23">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63" s="31">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AE63" s="20">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AF63" s="20">
         <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
         <v>56</v>
       </c>
@@ -5884,19 +5884,15 @@
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
-      <c r="K64" s="5">
+      <c r="K64" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="L64" s="41">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="M64" s="41">
-        <v>0.14583333333333334</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
       <c r="N64" s="1">
         <f t="shared" si="5"/>
-        <v>0.36363636363636359</v>
+        <v>1</v>
       </c>
       <c r="O64" s="9">
         <v>2.0833333333333332E-2</v>
@@ -5934,18 +5930,18 @@
       </c>
       <c r="AD64" s="31">
         <f t="shared" ref="AD64:AD67" si="43">SUM(AB64,Y64,V64,S64,P64,M64,J64,G64,D64)</f>
-        <v>0.22916666666666669</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AE64" s="20">
         <f t="shared" si="11"/>
-        <v>4.1666666666666664E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF64" s="20">
         <f t="shared" si="29"/>
-        <v>0.22916666666666669</v>
-      </c>
-    </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
         <v>57</v>
       </c>
@@ -5967,15 +5963,19 @@
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
-      <c r="K65" s="5" t="str">
+      <c r="K65" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="L65" s="41">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M65" s="41">
+        <v>0.14583333333333334</v>
+      </c>
       <c r="N65" s="1">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="O65" s="9">
         <v>2.0833333333333332E-2</v>
@@ -6013,24 +6013,24 @@
       </c>
       <c r="AD65" s="31">
         <f t="shared" si="43"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="AE65" s="20">
         <f t="shared" si="11"/>
-        <v>2.0833333333333332E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AF65" s="20">
         <f t="shared" si="29"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
         <v>58</v>
       </c>
       <c r="B66" s="1">
         <f t="shared" si="1"/>
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="C66" s="9">
         <v>2.0833333333333332E-2</v>
@@ -6050,16 +6050,12 @@
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
-      <c r="K66" s="5">
+      <c r="K66" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L66" s="41">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="M66" s="41">
-        <v>4.1666666666666664E-2</v>
-      </c>
+        <v/>
+      </c>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
       <c r="N66" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6096,24 +6092,24 @@
       </c>
       <c r="AD66" s="31">
         <f t="shared" si="43"/>
-        <v>0.14583333333333334</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AE66" s="20">
         <f t="shared" si="11"/>
-        <v>4.1666666666666664E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF66" s="20">
         <f t="shared" si="29"/>
-        <v>0.14583333333333334</v>
-      </c>
-    </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
         <v>59</v>
       </c>
       <c r="B67" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9">
@@ -6131,12 +6127,16 @@
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
-      <c r="K67" s="5" t="str">
+      <c r="K67" s="5">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="L67" s="41">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="M67" s="41">
+        <v>4.1666666666666664E-2</v>
+      </c>
       <c r="N67" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6173,18 +6173,18 @@
       </c>
       <c r="AD67" s="31">
         <f t="shared" si="43"/>
-        <v>4.1666666666666664E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AE67" s="20">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF67" s="20">
         <f t="shared" si="29"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
         <v>60</v>
       </c>
@@ -6261,7 +6261,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
         <v>61</v>
       </c>
@@ -6283,17 +6283,15 @@
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
-      <c r="K69" s="5">
+      <c r="K69" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>4.7619047619047616E-2</v>
+        <v/>
       </c>
       <c r="L69" s="41"/>
-      <c r="M69" s="41">
-        <v>4.1666666666666664E-2</v>
-      </c>
+      <c r="M69" s="41"/>
       <c r="N69" s="1">
         <f t="shared" si="5"/>
-        <v>0.95238095238095244</v>
+        <v>1</v>
       </c>
       <c r="O69" s="9">
         <v>0.33333333333333331</v>
@@ -6331,7 +6329,7 @@
       </c>
       <c r="AD69" s="31">
         <f t="shared" si="45"/>
-        <v>0.875</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="AE69" s="20">
         <f t="shared" si="11"/>
@@ -6339,10 +6337,10 @@
       </c>
       <c r="AF69" s="20">
         <f t="shared" si="29"/>
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
         <v>62</v>
       </c>
@@ -6370,7 +6368,7 @@
       </c>
       <c r="L70" s="41"/>
       <c r="M70" s="41">
-        <v>0.10416666666666667</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="N70" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6408,7 +6406,7 @@
       </c>
       <c r="AD70" s="31">
         <f t="shared" si="45"/>
-        <v>0.10416666666666667</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="AE70" s="20">
         <f t="shared" si="11"/>
@@ -6416,16 +6414,16 @@
       </c>
       <c r="AF70" s="20">
         <f t="shared" si="29"/>
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+        <v>4.1666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
         <v>63</v>
       </c>
       <c r="B71" s="1">
         <f t="shared" si="1"/>
-        <v>0.16666666666666669</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9">
@@ -6433,7 +6431,7 @@
       </c>
       <c r="E71" s="5">
         <f t="shared" si="2"/>
-        <v>0.16666666666666669</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="F71" s="30"/>
       <c r="G71" s="30">
@@ -6447,11 +6445,11 @@
       <c r="J71" s="9"/>
       <c r="K71" s="5">
         <f t="shared" si="4"/>
-        <v>0.66666666666666674</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L71" s="41"/>
       <c r="M71" s="41">
-        <v>8.3333333333333329E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="N71" s="1" t="str">
         <f t="shared" si="5"/>
@@ -6485,11 +6483,11 @@
       <c r="AB71" s="9"/>
       <c r="AC71" s="23">
         <f t="shared" ref="AC71:AC74" si="46">SUM(Z71,W71,T71,Q71,N71,K71,H71,E71,B71)</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
       <c r="AD71" s="31">
         <f t="shared" ref="AD71:AD74" si="47">SUM(AB71,Y71,V71,S71,P71,M71,J71,G71,D71)</f>
-        <v>0.12499999999999999</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="AE71" s="20">
         <f t="shared" si="11"/>
@@ -6497,10 +6495,10 @@
       </c>
       <c r="AF71" s="20">
         <f t="shared" si="29"/>
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.14583333333333334</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
         <v>64</v>
       </c>
@@ -6512,7 +6510,7 @@
       <c r="D72" s="9"/>
       <c r="E72" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F72" s="30"/>
       <c r="G72" s="30">
@@ -6524,12 +6522,14 @@
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
-      <c r="K72" s="5" t="str">
+      <c r="K72" s="5">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L72" s="41"/>
-      <c r="M72" s="41"/>
+      <c r="M72" s="41">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="N72" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6566,7 +6566,7 @@
       </c>
       <c r="AD72" s="31">
         <f t="shared" si="47"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.125</v>
       </c>
       <c r="AE72" s="20">
         <f t="shared" si="11"/>
@@ -6574,10 +6574,10 @@
       </c>
       <c r="AF72" s="20">
         <f t="shared" si="29"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" s="14"/>
       <c r="B73" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" s="14"/>
       <c r="B74" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A75" s="14"/>
       <c r="B75" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6796,7 +6796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:32" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="14"/>
       <c r="B76" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6869,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" s="38" t="s">
         <v>74</v>
       </c>
@@ -6891,14 +6891,12 @@
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
-      <c r="K77" s="5">
+      <c r="K77" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="L77" s="41"/>
-      <c r="M77" s="41">
-        <v>0.1875</v>
-      </c>
+      <c r="M77" s="41"/>
       <c r="N77" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -6931,11 +6929,11 @@
       <c r="AB77" s="9"/>
       <c r="AC77" s="23">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD77" s="31">
         <f t="shared" si="18"/>
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="AE77" s="20">
         <f t="shared" si="11"/>
@@ -6943,10 +6941,10 @@
       </c>
       <c r="AF77" s="20">
         <f t="shared" si="29"/>
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" s="33" t="s">
         <v>75</v>
       </c>
@@ -6974,7 +6972,7 @@
       </c>
       <c r="L78" s="41"/>
       <c r="M78" s="41">
-        <v>6.25E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="N78" s="1" t="str">
         <f t="shared" ref="N78:N86" si="54">IF(P78="", "",P78/AD78)</f>
@@ -7012,7 +7010,7 @@
       </c>
       <c r="AD78" s="31">
         <f t="shared" si="18"/>
-        <v>6.25E-2</v>
+        <v>0.1875</v>
       </c>
       <c r="AE78" s="20">
         <f t="shared" ref="AE78:AE86" si="59">SUM(C78,F78,I78,L78,O78,R78,U78,X78,AA78)</f>
@@ -7020,10 +7018,10 @@
       </c>
       <c r="AF78" s="20">
         <f t="shared" ref="AF78:AF86" si="60">SUM(D78,G78,J78,M78,P78,S78,V78,Y78,AB78)</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" s="33" t="s">
         <v>76</v>
       </c>
@@ -7051,7 +7049,7 @@
       </c>
       <c r="L79" s="41"/>
       <c r="M79" s="41">
-        <v>0.10416666666666667</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N79" s="1" t="str">
         <f t="shared" si="54"/>
@@ -7089,7 +7087,7 @@
       </c>
       <c r="AD79" s="31">
         <f t="shared" si="18"/>
-        <v>0.10416666666666667</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AE79" s="20">
         <f t="shared" si="59"/>
@@ -7097,10 +7095,10 @@
       </c>
       <c r="AF79" s="20">
         <f t="shared" si="60"/>
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="80" spans="1:32" ht="24.75" x14ac:dyDescent="0.25">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A80" s="33" t="s">
         <v>77</v>
       </c>
@@ -7126,11 +7124,9 @@
         <f t="shared" si="53"/>
         <v>1</v>
       </c>
-      <c r="L80" s="41">
-        <v>2.0833333333333332E-2</v>
-      </c>
+      <c r="L80" s="41"/>
       <c r="M80" s="41">
-        <v>6.25E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="N80" s="1" t="str">
         <f t="shared" si="54"/>
@@ -7168,18 +7164,18 @@
       </c>
       <c r="AD80" s="31">
         <f t="shared" si="18"/>
-        <v>6.25E-2</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="AE80" s="20">
         <f t="shared" si="59"/>
-        <v>2.0833333333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="AF80" s="20">
         <f t="shared" si="60"/>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:32" ht="24.75" x14ac:dyDescent="0.25">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" ht="24.6" x14ac:dyDescent="0.3">
       <c r="A81" s="39" t="s">
         <v>78</v>
       </c>
@@ -7205,9 +7201,11 @@
         <f t="shared" si="53"/>
         <v>1</v>
       </c>
-      <c r="L81" s="41"/>
+      <c r="L81" s="41">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="M81" s="41">
-        <v>8.3333333333333329E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="N81" s="1" t="str">
         <f t="shared" si="54"/>
@@ -7245,20 +7243,20 @@
       </c>
       <c r="AD81" s="31">
         <f t="shared" si="18"/>
-        <v>8.3333333333333329E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AE81" s="20">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="AF81" s="20">
         <f t="shared" si="60"/>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:32" ht="24.75" x14ac:dyDescent="0.25">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1" t="str">
         <f t="shared" si="50"/>
@@ -7284,7 +7282,7 @@
       </c>
       <c r="L82" s="41"/>
       <c r="M82" s="41">
-        <v>0.1875</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="N82" s="1" t="str">
         <f t="shared" si="54"/>
@@ -7322,7 +7320,7 @@
       </c>
       <c r="AD82" s="31">
         <f t="shared" si="18"/>
-        <v>0.1875</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="AE82" s="20">
         <f t="shared" si="59"/>
@@ -7330,12 +7328,12 @@
       </c>
       <c r="AF82" s="20">
         <f t="shared" si="60"/>
-        <v>0.1875</v>
-      </c>
-    </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B83" s="1" t="str">
         <f t="shared" si="50"/>
@@ -7361,7 +7359,7 @@
       </c>
       <c r="L83" s="41"/>
       <c r="M83" s="41">
-        <v>0.10416666666666667</v>
+        <v>0.1875</v>
       </c>
       <c r="N83" s="1" t="str">
         <f t="shared" si="54"/>
@@ -7399,7 +7397,7 @@
       </c>
       <c r="AD83" s="31">
         <f t="shared" si="18"/>
-        <v>0.10416666666666667</v>
+        <v>0.1875</v>
       </c>
       <c r="AE83" s="20">
         <f t="shared" si="59"/>
@@ -7407,12 +7405,12 @@
       </c>
       <c r="AF83" s="20">
         <f t="shared" si="60"/>
-        <v>0.10416666666666667</v>
-      </c>
-    </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="84" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B84" s="1" t="str">
         <f t="shared" si="50"/>
@@ -7432,12 +7430,14 @@
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
-      <c r="K84" s="5" t="str">
+      <c r="K84" s="5">
         <f t="shared" si="53"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="L84" s="41"/>
-      <c r="M84" s="41"/>
+      <c r="M84" s="41">
+        <v>6.25E-2</v>
+      </c>
       <c r="N84" s="1" t="str">
         <f t="shared" si="54"/>
         <v/>
@@ -7470,11 +7470,11 @@
       <c r="AB84" s="9"/>
       <c r="AC84" s="23">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD84" s="31">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="AE84" s="20">
         <f t="shared" si="59"/>
@@ -7482,10 +7482,10 @@
       </c>
       <c r="AF84" s="20">
         <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" s="14"/>
       <c r="B85" s="1" t="str">
         <f t="shared" si="50"/>
@@ -7558,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="14"/>
       <c r="B86" s="1" t="str">
         <f t="shared" si="50"/>
@@ -7582,8 +7582,8 @@
         <f t="shared" si="53"/>
         <v/>
       </c>
-      <c r="L86" s="30"/>
-      <c r="M86" s="30"/>
+      <c r="L86" s="41"/>
+      <c r="M86" s="41"/>
       <c r="N86" s="1" t="str">
         <f t="shared" si="54"/>
         <v/>
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="15"/>
       <c r="C87" s="15">
         <f>SUM(C5:C86)</f>
@@ -7666,7 +7666,7 @@
       </c>
       <c r="M87" s="15">
         <f>SUM(M5:M86)</f>
-        <v>2.6041666666666665</v>
+        <v>2.5625</v>
       </c>
       <c r="N87" s="15"/>
       <c r="O87" s="15">
@@ -7717,14 +7717,14 @@
       <c r="AD87" s="15"/>
       <c r="AE87" s="17">
         <f>SUM(AE5:AE86)</f>
-        <v>3.385416666666667</v>
+        <v>3.3854166666666674</v>
       </c>
       <c r="AF87" s="17">
         <f>SUM(AF5:AF86)</f>
-        <v>12.885416666666663</v>
-      </c>
-    </row>
-    <row r="88" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>12.843749999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AF88" s="15"/>
     </row>
   </sheetData>

--- a/01_Planung/01_Dokumente/2015_FS_INM21_B_Aufgaben_Zeit_Projektmitglied_Zuordnung.xlsx
+++ b/01_Planung/01_Dokumente/2015_FS_INM21_B_Aufgaben_Zeit_Projektmitglied_Zuordnung.xlsx
@@ -973,8 +973,8 @@
   </sheetPr>
   <dimension ref="A1:DB88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5405,7 +5405,7 @@
       <c r="D56" s="9"/>
       <c r="E56" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F56" s="30">
         <v>1.7361111111111112E-2</v>
@@ -5419,12 +5419,14 @@
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
-      <c r="K56" s="5" t="str">
+      <c r="K56" s="5">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L56" s="41"/>
-      <c r="M56" s="41"/>
+      <c r="M56" s="41">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="N56" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5461,7 +5463,7 @@
       </c>
       <c r="AD56" s="31">
         <f t="shared" si="18"/>
-        <v>0.10416666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="AE56" s="20">
         <f t="shared" si="11"/>
@@ -5469,7 +5471,7 @@
       </c>
       <c r="AF56" s="20">
         <f t="shared" si="29"/>
-        <v>0.10416666666666667</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="57" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
@@ -7666,7 +7668,7 @@
       </c>
       <c r="M87" s="15">
         <f>SUM(M5:M86)</f>
-        <v>2.5625</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="N87" s="15"/>
       <c r="O87" s="15">
@@ -7721,7 +7723,7 @@
       </c>
       <c r="AF87" s="17">
         <f>SUM(AF5:AF86)</f>
-        <v>12.843749999999998</v>
+        <v>12.864583333333332</v>
       </c>
     </row>
     <row r="88" spans="1:32" ht="15" customHeight="1" x14ac:dyDescent="0.25">
